--- a/odoo/addons/base/static/xls/contacts_import_template.xlsx
+++ b/odoo/addons/base/static/xls/contacts_import_template.xlsx
@@ -109,7 +109,7 @@
     <t>BE</t>
   </si>
   <si>
-    <t>www.modulo-interiors.com</t>
+    <t/>
   </si>
   <si>
     <t>Vendor</t>
@@ -162,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,12 +186,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -240,11 +234,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -581,7 +575,7 @@
     <col min="16" max="16" style="10" width="28.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -698,7 +692,7 @@
         <v>30</v>
       </c>
       <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -707,9 +701,9 @@
       <c r="O3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="P3" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -742,10 +736,10 @@
       <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="O4" s="5"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -783,9 +777,9 @@
         <v>46</v>
       </c>
       <c r="O5" s="3"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="P5" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -800,10 +794,10 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="O6" s="5"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -819,9 +813,9 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="P7" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -837,9 +831,9 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="P8" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -855,9 +849,9 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="P9" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -873,9 +867,9 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="P10" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -891,9 +885,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="P11" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -909,9 +903,9 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="P12" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -927,9 +921,9 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="P13" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -945,9 +939,9 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="P14" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -963,9 +957,9 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="P15" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -981,9 +975,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="P16" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -999,9 +993,9 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="P17" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1017,9 +1011,9 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="P18" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1035,9 +1029,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="P19" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1053,9 +1047,9 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="P20" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1071,9 +1065,9 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="P21" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1089,9 +1083,9 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="P22" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1107,9 +1101,9 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="P23" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1125,9 +1119,9 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="P24" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1143,9 +1137,9 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="P25" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1161,9 +1155,9 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="P26" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1179,9 +1173,9 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="P27" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1197,9 +1191,9 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="P28" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1215,9 +1209,9 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="P29" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1233,7 +1227,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="6"/>
+      <c r="P30" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="3"/>
@@ -1251,7 +1245,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="6"/>
+      <c r="P31" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="3"/>
@@ -1269,7 +1263,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="6"/>
+      <c r="P32" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="3"/>
@@ -1287,7 +1281,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="6"/>
+      <c r="P33" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="3"/>
@@ -1305,7 +1299,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="6"/>
+      <c r="P34" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="3"/>
@@ -1323,7 +1317,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="6"/>
+      <c r="P35" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="3"/>
@@ -1341,7 +1335,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="6"/>
+      <c r="P36" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="3"/>
@@ -1359,7 +1353,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="6"/>
+      <c r="P37" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="3"/>
@@ -1377,7 +1371,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="6"/>
+      <c r="P38" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="3"/>
@@ -1395,7 +1389,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="6"/>
+      <c r="P39" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="3"/>
@@ -1413,7 +1407,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="6"/>
+      <c r="P40" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="3"/>
@@ -1431,7 +1425,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="6"/>
+      <c r="P41" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="3"/>
@@ -1449,7 +1443,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="6"/>
+      <c r="P42" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="3"/>
@@ -1467,7 +1461,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="6"/>
+      <c r="P43" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="3"/>
@@ -1485,7 +1479,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="6"/>
+      <c r="P44" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="3"/>
@@ -1503,7 +1497,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="6"/>
+      <c r="P45" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="3"/>
@@ -1521,7 +1515,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="6"/>
+      <c r="P46" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="3"/>
@@ -1539,7 +1533,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="6"/>
+      <c r="P47" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="3"/>
@@ -1557,7 +1551,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="6"/>
+      <c r="P48" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="3"/>
@@ -1575,7 +1569,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="6"/>
+      <c r="P49" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="3"/>
@@ -1593,7 +1587,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="6"/>
+      <c r="P50" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="3"/>
@@ -1611,7 +1605,7 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-      <c r="P51" s="6"/>
+      <c r="P51" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="3"/>
@@ -1629,7 +1623,7 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="6"/>
+      <c r="P52" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="3"/>
@@ -1647,7 +1641,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="6"/>
+      <c r="P53" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="3"/>
@@ -1665,7 +1659,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="6"/>
+      <c r="P54" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="3"/>
@@ -1683,7 +1677,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-      <c r="P55" s="6"/>
+      <c r="P55" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="3"/>
@@ -1701,7 +1695,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-      <c r="P56" s="6"/>
+      <c r="P56" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="3"/>
@@ -1719,7 +1713,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-      <c r="P57" s="6"/>
+      <c r="P57" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="3"/>
@@ -1737,7 +1731,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-      <c r="P58" s="6"/>
+      <c r="P58" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="3"/>
@@ -1755,7 +1749,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="P59" s="6"/>
+      <c r="P59" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="3"/>
@@ -1773,7 +1767,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-      <c r="P60" s="6"/>
+      <c r="P60" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="3"/>
@@ -1791,7 +1785,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="6"/>
+      <c r="P61" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="3"/>
@@ -1809,7 +1803,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="6"/>
+      <c r="P62" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="3"/>
@@ -1827,7 +1821,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="6"/>
+      <c r="P63" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="3"/>
@@ -1845,7 +1839,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="6"/>
+      <c r="P64" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="3"/>
@@ -1863,7 +1857,7 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="6"/>
+      <c r="P65" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="3"/>
@@ -1881,7 +1875,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="6"/>
+      <c r="P66" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="3"/>
@@ -1899,7 +1893,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="6"/>
+      <c r="P67" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="3"/>
@@ -1917,7 +1911,7 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="6"/>
+      <c r="P68" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="3"/>
@@ -1935,7 +1929,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="6"/>
+      <c r="P69" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="3"/>
@@ -1953,7 +1947,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="6"/>
+      <c r="P70" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="3"/>
@@ -1971,7 +1965,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="6"/>
+      <c r="P71" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="3"/>
@@ -1989,7 +1983,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="6"/>
+      <c r="P72" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="3"/>
@@ -2007,7 +2001,7 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="6"/>
+      <c r="P73" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="3"/>
@@ -2025,7 +2019,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="6"/>
+      <c r="P74" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="3"/>
@@ -2043,7 +2037,7 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="6"/>
+      <c r="P75" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="3"/>
@@ -2061,7 +2055,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="6"/>
+      <c r="P76" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="3"/>
@@ -2079,7 +2073,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="6"/>
+      <c r="P77" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="3"/>
@@ -2097,7 +2091,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="6"/>
+      <c r="P78" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="3"/>
@@ -2115,7 +2109,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="6"/>
+      <c r="P79" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="3"/>
@@ -2133,7 +2127,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="6"/>
+      <c r="P80" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="3"/>
@@ -2151,7 +2145,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="6"/>
+      <c r="P81" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="3"/>
@@ -2169,7 +2163,7 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="6"/>
+      <c r="P82" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="3"/>
@@ -2187,7 +2181,7 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="6"/>
+      <c r="P83" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="3"/>
@@ -2205,7 +2199,7 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
-      <c r="P84" s="6"/>
+      <c r="P84" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="3"/>
@@ -2223,7 +2217,7 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
-      <c r="P85" s="6"/>
+      <c r="P85" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="3"/>
@@ -2241,7 +2235,7 @@
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
-      <c r="P86" s="6"/>
+      <c r="P86" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="3"/>
@@ -2259,7 +2253,7 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
-      <c r="P87" s="6"/>
+      <c r="P87" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="3"/>
@@ -2277,7 +2271,7 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
-      <c r="P88" s="6"/>
+      <c r="P88" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="3"/>
@@ -2295,7 +2289,7 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
-      <c r="P89" s="6"/>
+      <c r="P89" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="3"/>
@@ -2313,7 +2307,7 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-      <c r="P90" s="6"/>
+      <c r="P90" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="3"/>
@@ -2331,7 +2325,7 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
-      <c r="P91" s="6"/>
+      <c r="P91" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="3"/>
@@ -2349,7 +2343,7 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
-      <c r="P92" s="6"/>
+      <c r="P92" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="3"/>
@@ -2367,7 +2361,7 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
-      <c r="P93" s="6"/>
+      <c r="P93" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="3"/>
@@ -2385,7 +2379,7 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
-      <c r="P94" s="6"/>
+      <c r="P94" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="3"/>
@@ -2403,7 +2397,7 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-      <c r="P95" s="6"/>
+      <c r="P95" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="3"/>
@@ -2421,7 +2415,7 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
-      <c r="P96" s="6"/>
+      <c r="P96" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="3"/>
@@ -2439,7 +2433,7 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
-      <c r="P97" s="6"/>
+      <c r="P97" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="3"/>
@@ -2457,7 +2451,7 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
-      <c r="P98" s="6"/>
+      <c r="P98" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="3"/>
@@ -2475,7 +2469,7 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
-      <c r="P99" s="6"/>
+      <c r="P99" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="3"/>
@@ -2493,7 +2487,7 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
-      <c r="P100" s="6"/>
+      <c r="P100" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="3"/>
@@ -2511,7 +2505,7 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
-      <c r="P101" s="6"/>
+      <c r="P101" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="3"/>
@@ -2529,7 +2523,7 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="6"/>
+      <c r="P102" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="3"/>
@@ -2547,7 +2541,7 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-      <c r="P103" s="6"/>
+      <c r="P103" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="3"/>
@@ -2565,7 +2559,7 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="6"/>
+      <c r="P104" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="3"/>
@@ -2583,7 +2577,7 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
-      <c r="P105" s="6"/>
+      <c r="P105" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="3"/>
@@ -2601,7 +2595,7 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
-      <c r="P106" s="6"/>
+      <c r="P106" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="3"/>
@@ -2619,7 +2613,7 @@
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
-      <c r="P107" s="6"/>
+      <c r="P107" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="3"/>
@@ -2637,7 +2631,7 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
-      <c r="P108" s="6"/>
+      <c r="P108" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="3"/>
@@ -2655,7 +2649,7 @@
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
-      <c r="P109" s="6"/>
+      <c r="P109" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="3"/>
@@ -2673,7 +2667,7 @@
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
-      <c r="P110" s="6"/>
+      <c r="P110" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="3"/>
@@ -2691,7 +2685,7 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
-      <c r="P111" s="6"/>
+      <c r="P111" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="3"/>
@@ -2709,7 +2703,7 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
-      <c r="P112" s="6"/>
+      <c r="P112" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="3"/>
@@ -2727,7 +2721,7 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
-      <c r="P113" s="6"/>
+      <c r="P113" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="3"/>
@@ -2745,7 +2739,7 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="6"/>
+      <c r="P114" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="3"/>
@@ -2763,7 +2757,7 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="6"/>
+      <c r="P115" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="3"/>
@@ -2781,7 +2775,7 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-      <c r="P116" s="6"/>
+      <c r="P116" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="3"/>
@@ -2799,7 +2793,7 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-      <c r="P117" s="6"/>
+      <c r="P117" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="3"/>
@@ -2817,7 +2811,7 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="6"/>
+      <c r="P118" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="3"/>
@@ -2835,7 +2829,7 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-      <c r="P119" s="6"/>
+      <c r="P119" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="3"/>
@@ -2853,7 +2847,7 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-      <c r="P120" s="6"/>
+      <c r="P120" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="3"/>
@@ -2871,7 +2865,7 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
-      <c r="P121" s="6"/>
+      <c r="P121" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="3"/>
@@ -2889,7 +2883,7 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-      <c r="P122" s="6"/>
+      <c r="P122" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="3"/>
@@ -2907,7 +2901,7 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="6"/>
+      <c r="P123" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="3"/>
@@ -2925,7 +2919,7 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-      <c r="P124" s="6"/>
+      <c r="P124" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="3"/>
@@ -2943,7 +2937,7 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-      <c r="P125" s="6"/>
+      <c r="P125" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="3"/>
@@ -2961,7 +2955,7 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-      <c r="P126" s="6"/>
+      <c r="P126" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="3"/>
@@ -2979,7 +2973,7 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-      <c r="P127" s="6"/>
+      <c r="P127" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="3"/>
@@ -2997,7 +2991,7 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-      <c r="P128" s="6"/>
+      <c r="P128" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="3"/>
@@ -3015,7 +3009,7 @@
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
-      <c r="P129" s="6"/>
+      <c r="P129" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="3"/>
@@ -3033,7 +3027,7 @@
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
-      <c r="P130" s="6"/>
+      <c r="P130" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="3"/>
@@ -3051,7 +3045,7 @@
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
-      <c r="P131" s="6"/>
+      <c r="P131" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="3"/>
@@ -3069,7 +3063,7 @@
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
-      <c r="P132" s="6"/>
+      <c r="P132" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="3"/>
@@ -3087,7 +3081,7 @@
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
-      <c r="P133" s="6"/>
+      <c r="P133" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="3"/>
@@ -3105,7 +3099,7 @@
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
-      <c r="P134" s="6"/>
+      <c r="P134" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="3"/>
@@ -3123,7 +3117,7 @@
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
-      <c r="P135" s="6"/>
+      <c r="P135" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="3"/>
@@ -3141,7 +3135,7 @@
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
-      <c r="P136" s="6"/>
+      <c r="P136" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="3"/>
@@ -3159,7 +3153,7 @@
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
-      <c r="P137" s="6"/>
+      <c r="P137" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="3"/>
@@ -3177,7 +3171,7 @@
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
-      <c r="P138" s="6"/>
+      <c r="P138" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="3"/>
@@ -3195,7 +3189,7 @@
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
-      <c r="P139" s="6"/>
+      <c r="P139" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="3"/>
@@ -3213,7 +3207,7 @@
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
-      <c r="P140" s="6"/>
+      <c r="P140" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="3"/>
@@ -3231,7 +3225,7 @@
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
-      <c r="P141" s="6"/>
+      <c r="P141" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="3"/>
@@ -3249,7 +3243,7 @@
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
-      <c r="P142" s="6"/>
+      <c r="P142" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="3"/>
@@ -3267,7 +3261,7 @@
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
-      <c r="P143" s="6"/>
+      <c r="P143" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="3"/>
@@ -3285,7 +3279,7 @@
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
-      <c r="P144" s="6"/>
+      <c r="P144" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="3"/>
@@ -3303,7 +3297,7 @@
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
-      <c r="P145" s="6"/>
+      <c r="P145" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="3"/>
@@ -3321,7 +3315,7 @@
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
-      <c r="P146" s="6"/>
+      <c r="P146" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="3"/>
@@ -3339,7 +3333,7 @@
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
-      <c r="P147" s="6"/>
+      <c r="P147" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="3"/>
@@ -3357,7 +3351,7 @@
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
-      <c r="P148" s="6"/>
+      <c r="P148" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="3"/>
@@ -3375,7 +3369,7 @@
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
-      <c r="P149" s="6"/>
+      <c r="P149" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="3"/>
@@ -3393,7 +3387,7 @@
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
-      <c r="P150" s="6"/>
+      <c r="P150" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="3"/>
@@ -3411,7 +3405,7 @@
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
-      <c r="P151" s="6"/>
+      <c r="P151" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="3"/>
@@ -3429,7 +3423,7 @@
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
-      <c r="P152" s="6"/>
+      <c r="P152" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="3"/>
@@ -3447,7 +3441,7 @@
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
-      <c r="P153" s="6"/>
+      <c r="P153" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="3"/>
@@ -3465,7 +3459,7 @@
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
-      <c r="P154" s="6"/>
+      <c r="P154" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="3"/>
@@ -3483,7 +3477,7 @@
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
-      <c r="P155" s="6"/>
+      <c r="P155" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="3"/>
@@ -3501,7 +3495,7 @@
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
-      <c r="P156" s="6"/>
+      <c r="P156" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="3"/>
@@ -3519,7 +3513,7 @@
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
-      <c r="P157" s="6"/>
+      <c r="P157" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="3"/>
@@ -3537,7 +3531,7 @@
       <c r="M158" s="3"/>
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
-      <c r="P158" s="6"/>
+      <c r="P158" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="3"/>
@@ -3555,7 +3549,7 @@
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
-      <c r="P159" s="6"/>
+      <c r="P159" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="3"/>
@@ -3573,7 +3567,7 @@
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
-      <c r="P160" s="6"/>
+      <c r="P160" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="3"/>
@@ -3591,7 +3585,7 @@
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
-      <c r="P161" s="6"/>
+      <c r="P161" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="3"/>
@@ -3609,7 +3603,7 @@
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
-      <c r="P162" s="6"/>
+      <c r="P162" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="3"/>
@@ -3627,7 +3621,7 @@
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
-      <c r="P163" s="6"/>
+      <c r="P163" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="3"/>
@@ -3645,7 +3639,7 @@
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
-      <c r="P164" s="6"/>
+      <c r="P164" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="3"/>
@@ -3663,7 +3657,7 @@
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
-      <c r="P165" s="6"/>
+      <c r="P165" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="3"/>
@@ -3681,7 +3675,7 @@
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
-      <c r="P166" s="6"/>
+      <c r="P166" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="3"/>
@@ -3699,7 +3693,7 @@
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
-      <c r="P167" s="6"/>
+      <c r="P167" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="3"/>
@@ -3717,7 +3711,7 @@
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
-      <c r="P168" s="6"/>
+      <c r="P168" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="3"/>
@@ -3735,7 +3729,7 @@
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
-      <c r="P169" s="6"/>
+      <c r="P169" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="3"/>
@@ -3753,7 +3747,7 @@
       <c r="M170" s="3"/>
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
-      <c r="P170" s="6"/>
+      <c r="P170" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="3"/>
@@ -3771,7 +3765,7 @@
       <c r="M171" s="3"/>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
-      <c r="P171" s="6"/>
+      <c r="P171" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="3"/>
@@ -3789,7 +3783,7 @@
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
-      <c r="P172" s="6"/>
+      <c r="P172" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="3"/>
@@ -3807,7 +3801,7 @@
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
-      <c r="P173" s="6"/>
+      <c r="P173" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="3"/>
@@ -3825,7 +3819,7 @@
       <c r="M174" s="3"/>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
-      <c r="P174" s="6"/>
+      <c r="P174" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="3"/>
@@ -3843,7 +3837,7 @@
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
-      <c r="P175" s="6"/>
+      <c r="P175" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="3"/>
@@ -3861,7 +3855,7 @@
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
-      <c r="P176" s="6"/>
+      <c r="P176" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="3"/>
@@ -3879,7 +3873,7 @@
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
-      <c r="P177" s="6"/>
+      <c r="P177" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="3"/>
@@ -3897,7 +3891,7 @@
       <c r="M178" s="3"/>
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
-      <c r="P178" s="6"/>
+      <c r="P178" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="3"/>
@@ -3915,7 +3909,7 @@
       <c r="M179" s="3"/>
       <c r="N179" s="3"/>
       <c r="O179" s="3"/>
-      <c r="P179" s="6"/>
+      <c r="P179" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="3"/>
@@ -3933,7 +3927,7 @@
       <c r="M180" s="3"/>
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
-      <c r="P180" s="6"/>
+      <c r="P180" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="3"/>
@@ -3951,7 +3945,7 @@
       <c r="M181" s="3"/>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
-      <c r="P181" s="6"/>
+      <c r="P181" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="3"/>
@@ -3969,7 +3963,7 @@
       <c r="M182" s="3"/>
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
-      <c r="P182" s="6"/>
+      <c r="P182" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="3"/>
@@ -3987,7 +3981,7 @@
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
-      <c r="P183" s="6"/>
+      <c r="P183" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="3"/>
@@ -4005,7 +3999,7 @@
       <c r="M184" s="3"/>
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
-      <c r="P184" s="6"/>
+      <c r="P184" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="3"/>
@@ -4023,7 +4017,7 @@
       <c r="M185" s="3"/>
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
-      <c r="P185" s="6"/>
+      <c r="P185" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="3"/>
@@ -4041,7 +4035,7 @@
       <c r="M186" s="3"/>
       <c r="N186" s="3"/>
       <c r="O186" s="3"/>
-      <c r="P186" s="6"/>
+      <c r="P186" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="3"/>
@@ -4059,7 +4053,7 @@
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
-      <c r="P187" s="6"/>
+      <c r="P187" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="3"/>
@@ -4077,7 +4071,7 @@
       <c r="M188" s="3"/>
       <c r="N188" s="3"/>
       <c r="O188" s="3"/>
-      <c r="P188" s="6"/>
+      <c r="P188" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="3"/>
@@ -4095,7 +4089,7 @@
       <c r="M189" s="3"/>
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
-      <c r="P189" s="6"/>
+      <c r="P189" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="3"/>
@@ -4113,7 +4107,7 @@
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
-      <c r="P190" s="6"/>
+      <c r="P190" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="3"/>
@@ -4131,7 +4125,7 @@
       <c r="M191" s="3"/>
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
-      <c r="P191" s="6"/>
+      <c r="P191" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="3"/>
@@ -4149,7 +4143,7 @@
       <c r="M192" s="3"/>
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
-      <c r="P192" s="6"/>
+      <c r="P192" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="3"/>
@@ -4167,7 +4161,7 @@
       <c r="M193" s="3"/>
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
-      <c r="P193" s="6"/>
+      <c r="P193" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="3"/>
@@ -4185,7 +4179,7 @@
       <c r="M194" s="3"/>
       <c r="N194" s="3"/>
       <c r="O194" s="3"/>
-      <c r="P194" s="6"/>
+      <c r="P194" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="3"/>
@@ -4203,7 +4197,7 @@
       <c r="M195" s="3"/>
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
-      <c r="P195" s="6"/>
+      <c r="P195" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="3"/>
@@ -4221,7 +4215,7 @@
       <c r="M196" s="3"/>
       <c r="N196" s="3"/>
       <c r="O196" s="3"/>
-      <c r="P196" s="6"/>
+      <c r="P196" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="3"/>
@@ -4239,7 +4233,7 @@
       <c r="M197" s="3"/>
       <c r="N197" s="3"/>
       <c r="O197" s="3"/>
-      <c r="P197" s="6"/>
+      <c r="P197" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="3"/>
@@ -4257,7 +4251,7 @@
       <c r="M198" s="3"/>
       <c r="N198" s="3"/>
       <c r="O198" s="3"/>
-      <c r="P198" s="6"/>
+      <c r="P198" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="3"/>
@@ -4275,7 +4269,7 @@
       <c r="M199" s="3"/>
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
-      <c r="P199" s="6"/>
+      <c r="P199" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="3"/>
@@ -4293,7 +4287,7 @@
       <c r="M200" s="3"/>
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
-      <c r="P200" s="6"/>
+      <c r="P200" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="3"/>
@@ -4311,7 +4305,7 @@
       <c r="M201" s="3"/>
       <c r="N201" s="3"/>
       <c r="O201" s="3"/>
-      <c r="P201" s="6"/>
+      <c r="P201" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="3"/>
@@ -4329,7 +4323,7 @@
       <c r="M202" s="3"/>
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
-      <c r="P202" s="6"/>
+      <c r="P202" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="3"/>
@@ -4347,7 +4341,7 @@
       <c r="M203" s="3"/>
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
-      <c r="P203" s="6"/>
+      <c r="P203" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="3"/>
@@ -4365,7 +4359,7 @@
       <c r="M204" s="3"/>
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
-      <c r="P204" s="6"/>
+      <c r="P204" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="3"/>
@@ -4383,7 +4377,7 @@
       <c r="M205" s="3"/>
       <c r="N205" s="3"/>
       <c r="O205" s="3"/>
-      <c r="P205" s="6"/>
+      <c r="P205" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="3"/>
@@ -4401,7 +4395,7 @@
       <c r="M206" s="3"/>
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
-      <c r="P206" s="6"/>
+      <c r="P206" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="3"/>
@@ -4419,7 +4413,7 @@
       <c r="M207" s="3"/>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
-      <c r="P207" s="6"/>
+      <c r="P207" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="3"/>
@@ -4437,7 +4431,7 @@
       <c r="M208" s="3"/>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
-      <c r="P208" s="6"/>
+      <c r="P208" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="3"/>
@@ -4455,7 +4449,7 @@
       <c r="M209" s="3"/>
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
-      <c r="P209" s="6"/>
+      <c r="P209" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="3"/>
@@ -4473,7 +4467,7 @@
       <c r="M210" s="3"/>
       <c r="N210" s="3"/>
       <c r="O210" s="3"/>
-      <c r="P210" s="6"/>
+      <c r="P210" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="3"/>
@@ -4491,7 +4485,7 @@
       <c r="M211" s="3"/>
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
-      <c r="P211" s="6"/>
+      <c r="P211" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="3"/>
@@ -4509,7 +4503,7 @@
       <c r="M212" s="3"/>
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
-      <c r="P212" s="6"/>
+      <c r="P212" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="3"/>
@@ -4527,7 +4521,7 @@
       <c r="M213" s="3"/>
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
-      <c r="P213" s="6"/>
+      <c r="P213" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="3"/>
@@ -4545,7 +4539,7 @@
       <c r="M214" s="3"/>
       <c r="N214" s="3"/>
       <c r="O214" s="3"/>
-      <c r="P214" s="6"/>
+      <c r="P214" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="3"/>
@@ -4563,7 +4557,7 @@
       <c r="M215" s="3"/>
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
-      <c r="P215" s="6"/>
+      <c r="P215" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="3"/>
@@ -4581,7 +4575,7 @@
       <c r="M216" s="3"/>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
-      <c r="P216" s="6"/>
+      <c r="P216" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
       <c r="A217" s="3"/>
@@ -4599,7 +4593,7 @@
       <c r="M217" s="3"/>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
-      <c r="P217" s="6"/>
+      <c r="P217" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="3"/>
@@ -4617,7 +4611,7 @@
       <c r="M218" s="3"/>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
-      <c r="P218" s="6"/>
+      <c r="P218" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="3"/>
@@ -4635,7 +4629,7 @@
       <c r="M219" s="3"/>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
-      <c r="P219" s="6"/>
+      <c r="P219" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="3"/>
@@ -4653,7 +4647,7 @@
       <c r="M220" s="3"/>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
-      <c r="P220" s="6"/>
+      <c r="P220" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="3"/>
@@ -4671,7 +4665,7 @@
       <c r="M221" s="3"/>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
-      <c r="P221" s="6"/>
+      <c r="P221" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="3"/>
@@ -4689,7 +4683,7 @@
       <c r="M222" s="3"/>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
-      <c r="P222" s="6"/>
+      <c r="P222" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="3"/>
@@ -4707,7 +4701,7 @@
       <c r="M223" s="3"/>
       <c r="N223" s="3"/>
       <c r="O223" s="3"/>
-      <c r="P223" s="6"/>
+      <c r="P223" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="3"/>
@@ -4725,7 +4719,7 @@
       <c r="M224" s="3"/>
       <c r="N224" s="3"/>
       <c r="O224" s="3"/>
-      <c r="P224" s="6"/>
+      <c r="P224" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="3"/>
@@ -4743,7 +4737,7 @@
       <c r="M225" s="3"/>
       <c r="N225" s="3"/>
       <c r="O225" s="3"/>
-      <c r="P225" s="6"/>
+      <c r="P225" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="3"/>
@@ -4761,7 +4755,7 @@
       <c r="M226" s="3"/>
       <c r="N226" s="3"/>
       <c r="O226" s="3"/>
-      <c r="P226" s="6"/>
+      <c r="P226" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="3"/>
@@ -4779,7 +4773,7 @@
       <c r="M227" s="3"/>
       <c r="N227" s="3"/>
       <c r="O227" s="3"/>
-      <c r="P227" s="6"/>
+      <c r="P227" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="3"/>
@@ -4797,7 +4791,7 @@
       <c r="M228" s="3"/>
       <c r="N228" s="3"/>
       <c r="O228" s="3"/>
-      <c r="P228" s="6"/>
+      <c r="P228" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
       <c r="A229" s="3"/>
@@ -4815,7 +4809,7 @@
       <c r="M229" s="3"/>
       <c r="N229" s="3"/>
       <c r="O229" s="3"/>
-      <c r="P229" s="6"/>
+      <c r="P229" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
       <c r="A230" s="3"/>
@@ -4833,7 +4827,7 @@
       <c r="M230" s="3"/>
       <c r="N230" s="3"/>
       <c r="O230" s="3"/>
-      <c r="P230" s="6"/>
+      <c r="P230" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
       <c r="A231" s="3"/>
@@ -4851,7 +4845,7 @@
       <c r="M231" s="3"/>
       <c r="N231" s="3"/>
       <c r="O231" s="3"/>
-      <c r="P231" s="6"/>
+      <c r="P231" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
       <c r="A232" s="3"/>
@@ -4869,7 +4863,7 @@
       <c r="M232" s="3"/>
       <c r="N232" s="3"/>
       <c r="O232" s="3"/>
-      <c r="P232" s="6"/>
+      <c r="P232" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
       <c r="A233" s="3"/>
@@ -4887,7 +4881,7 @@
       <c r="M233" s="3"/>
       <c r="N233" s="3"/>
       <c r="O233" s="3"/>
-      <c r="P233" s="6"/>
+      <c r="P233" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
       <c r="A234" s="3"/>
@@ -4905,7 +4899,7 @@
       <c r="M234" s="3"/>
       <c r="N234" s="3"/>
       <c r="O234" s="3"/>
-      <c r="P234" s="6"/>
+      <c r="P234" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
       <c r="A235" s="3"/>
@@ -4923,7 +4917,7 @@
       <c r="M235" s="3"/>
       <c r="N235" s="3"/>
       <c r="O235" s="3"/>
-      <c r="P235" s="6"/>
+      <c r="P235" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
       <c r="A236" s="3"/>
@@ -4941,7 +4935,7 @@
       <c r="M236" s="3"/>
       <c r="N236" s="3"/>
       <c r="O236" s="3"/>
-      <c r="P236" s="6"/>
+      <c r="P236" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
       <c r="A237" s="3"/>
@@ -4959,7 +4953,7 @@
       <c r="M237" s="3"/>
       <c r="N237" s="3"/>
       <c r="O237" s="3"/>
-      <c r="P237" s="6"/>
+      <c r="P237" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
       <c r="A238" s="3"/>
@@ -4977,7 +4971,7 @@
       <c r="M238" s="3"/>
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
-      <c r="P238" s="6"/>
+      <c r="P238" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
       <c r="A239" s="3"/>
@@ -4995,7 +4989,7 @@
       <c r="M239" s="3"/>
       <c r="N239" s="3"/>
       <c r="O239" s="3"/>
-      <c r="P239" s="6"/>
+      <c r="P239" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
       <c r="A240" s="3"/>
@@ -5013,7 +5007,7 @@
       <c r="M240" s="3"/>
       <c r="N240" s="3"/>
       <c r="O240" s="3"/>
-      <c r="P240" s="6"/>
+      <c r="P240" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
       <c r="A241" s="3"/>
@@ -5031,7 +5025,7 @@
       <c r="M241" s="3"/>
       <c r="N241" s="3"/>
       <c r="O241" s="3"/>
-      <c r="P241" s="6"/>
+      <c r="P241" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
       <c r="A242" s="3"/>
@@ -5049,7 +5043,7 @@
       <c r="M242" s="3"/>
       <c r="N242" s="3"/>
       <c r="O242" s="3"/>
-      <c r="P242" s="6"/>
+      <c r="P242" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
       <c r="A243" s="3"/>
@@ -5067,7 +5061,7 @@
       <c r="M243" s="3"/>
       <c r="N243" s="3"/>
       <c r="O243" s="3"/>
-      <c r="P243" s="6"/>
+      <c r="P243" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
       <c r="A244" s="3"/>
@@ -5085,7 +5079,7 @@
       <c r="M244" s="3"/>
       <c r="N244" s="3"/>
       <c r="O244" s="3"/>
-      <c r="P244" s="6"/>
+      <c r="P244" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
       <c r="A245" s="3"/>
@@ -5103,7 +5097,7 @@
       <c r="M245" s="3"/>
       <c r="N245" s="3"/>
       <c r="O245" s="3"/>
-      <c r="P245" s="6"/>
+      <c r="P245" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
       <c r="A246" s="3"/>
@@ -5121,7 +5115,7 @@
       <c r="M246" s="3"/>
       <c r="N246" s="3"/>
       <c r="O246" s="3"/>
-      <c r="P246" s="6"/>
+      <c r="P246" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
       <c r="A247" s="3"/>
@@ -5139,7 +5133,7 @@
       <c r="M247" s="3"/>
       <c r="N247" s="3"/>
       <c r="O247" s="3"/>
-      <c r="P247" s="6"/>
+      <c r="P247" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
       <c r="A248" s="3"/>
@@ -5157,7 +5151,7 @@
       <c r="M248" s="3"/>
       <c r="N248" s="3"/>
       <c r="O248" s="3"/>
-      <c r="P248" s="6"/>
+      <c r="P248" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
       <c r="A249" s="3"/>
@@ -5175,7 +5169,7 @@
       <c r="M249" s="3"/>
       <c r="N249" s="3"/>
       <c r="O249" s="3"/>
-      <c r="P249" s="6"/>
+      <c r="P249" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
       <c r="A250" s="3"/>
@@ -5193,7 +5187,7 @@
       <c r="M250" s="3"/>
       <c r="N250" s="3"/>
       <c r="O250" s="3"/>
-      <c r="P250" s="6"/>
+      <c r="P250" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
       <c r="A251" s="3"/>
@@ -5211,7 +5205,7 @@
       <c r="M251" s="3"/>
       <c r="N251" s="3"/>
       <c r="O251" s="3"/>
-      <c r="P251" s="6"/>
+      <c r="P251" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
       <c r="A252" s="3"/>
@@ -5229,7 +5223,7 @@
       <c r="M252" s="3"/>
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
-      <c r="P252" s="6"/>
+      <c r="P252" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
       <c r="A253" s="3"/>
@@ -5247,7 +5241,7 @@
       <c r="M253" s="3"/>
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
-      <c r="P253" s="6"/>
+      <c r="P253" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
       <c r="A254" s="3"/>
@@ -5265,7 +5259,7 @@
       <c r="M254" s="3"/>
       <c r="N254" s="3"/>
       <c r="O254" s="3"/>
-      <c r="P254" s="6"/>
+      <c r="P254" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
       <c r="A255" s="3"/>
@@ -5283,7 +5277,7 @@
       <c r="M255" s="3"/>
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
-      <c r="P255" s="6"/>
+      <c r="P255" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
       <c r="A256" s="3"/>
@@ -5301,7 +5295,7 @@
       <c r="M256" s="3"/>
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
-      <c r="P256" s="6"/>
+      <c r="P256" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
       <c r="A257" s="3"/>
@@ -5319,7 +5313,7 @@
       <c r="M257" s="3"/>
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
-      <c r="P257" s="6"/>
+      <c r="P257" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
       <c r="A258" s="3"/>
@@ -5337,7 +5331,7 @@
       <c r="M258" s="3"/>
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
-      <c r="P258" s="6"/>
+      <c r="P258" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
       <c r="A259" s="3"/>
@@ -5355,7 +5349,7 @@
       <c r="M259" s="3"/>
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
-      <c r="P259" s="6"/>
+      <c r="P259" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
       <c r="A260" s="3"/>
@@ -5373,7 +5367,7 @@
       <c r="M260" s="3"/>
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
-      <c r="P260" s="6"/>
+      <c r="P260" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
       <c r="A261" s="3"/>
@@ -5391,7 +5385,7 @@
       <c r="M261" s="3"/>
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
-      <c r="P261" s="6"/>
+      <c r="P261" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
       <c r="A262" s="3"/>
@@ -5409,7 +5403,7 @@
       <c r="M262" s="3"/>
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
-      <c r="P262" s="6"/>
+      <c r="P262" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
       <c r="A263" s="3"/>
@@ -5427,7 +5421,7 @@
       <c r="M263" s="3"/>
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
-      <c r="P263" s="6"/>
+      <c r="P263" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
       <c r="A264" s="3"/>
@@ -5445,7 +5439,7 @@
       <c r="M264" s="3"/>
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
-      <c r="P264" s="6"/>
+      <c r="P264" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
       <c r="A265" s="3"/>
@@ -5463,7 +5457,7 @@
       <c r="M265" s="3"/>
       <c r="N265" s="3"/>
       <c r="O265" s="3"/>
-      <c r="P265" s="6"/>
+      <c r="P265" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
       <c r="A266" s="3"/>
@@ -5481,7 +5475,7 @@
       <c r="M266" s="3"/>
       <c r="N266" s="3"/>
       <c r="O266" s="3"/>
-      <c r="P266" s="6"/>
+      <c r="P266" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
       <c r="A267" s="3"/>
@@ -5499,7 +5493,7 @@
       <c r="M267" s="3"/>
       <c r="N267" s="3"/>
       <c r="O267" s="3"/>
-      <c r="P267" s="6"/>
+      <c r="P267" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
       <c r="A268" s="3"/>
@@ -5517,7 +5511,7 @@
       <c r="M268" s="3"/>
       <c r="N268" s="3"/>
       <c r="O268" s="3"/>
-      <c r="P268" s="6"/>
+      <c r="P268" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
       <c r="A269" s="3"/>
@@ -5535,7 +5529,7 @@
       <c r="M269" s="3"/>
       <c r="N269" s="3"/>
       <c r="O269" s="3"/>
-      <c r="P269" s="6"/>
+      <c r="P269" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
       <c r="A270" s="3"/>
@@ -5553,7 +5547,7 @@
       <c r="M270" s="3"/>
       <c r="N270" s="3"/>
       <c r="O270" s="3"/>
-      <c r="P270" s="6"/>
+      <c r="P270" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
       <c r="A271" s="3"/>
@@ -5571,7 +5565,7 @@
       <c r="M271" s="3"/>
       <c r="N271" s="3"/>
       <c r="O271" s="3"/>
-      <c r="P271" s="6"/>
+      <c r="P271" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
       <c r="A272" s="3"/>
@@ -5589,7 +5583,7 @@
       <c r="M272" s="3"/>
       <c r="N272" s="3"/>
       <c r="O272" s="3"/>
-      <c r="P272" s="6"/>
+      <c r="P272" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
       <c r="A273" s="3"/>
@@ -5607,7 +5601,7 @@
       <c r="M273" s="3"/>
       <c r="N273" s="3"/>
       <c r="O273" s="3"/>
-      <c r="P273" s="6"/>
+      <c r="P273" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
       <c r="A274" s="3"/>
@@ -5625,7 +5619,7 @@
       <c r="M274" s="3"/>
       <c r="N274" s="3"/>
       <c r="O274" s="3"/>
-      <c r="P274" s="6"/>
+      <c r="P274" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
       <c r="A275" s="3"/>
@@ -5643,7 +5637,7 @@
       <c r="M275" s="3"/>
       <c r="N275" s="3"/>
       <c r="O275" s="3"/>
-      <c r="P275" s="6"/>
+      <c r="P275" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
       <c r="A276" s="3"/>
@@ -5661,7 +5655,7 @@
       <c r="M276" s="3"/>
       <c r="N276" s="3"/>
       <c r="O276" s="3"/>
-      <c r="P276" s="6"/>
+      <c r="P276" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
       <c r="A277" s="3"/>
@@ -5679,7 +5673,7 @@
       <c r="M277" s="3"/>
       <c r="N277" s="3"/>
       <c r="O277" s="3"/>
-      <c r="P277" s="6"/>
+      <c r="P277" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
       <c r="A278" s="3"/>
@@ -5697,7 +5691,7 @@
       <c r="M278" s="3"/>
       <c r="N278" s="3"/>
       <c r="O278" s="3"/>
-      <c r="P278" s="6"/>
+      <c r="P278" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
       <c r="A279" s="3"/>
@@ -5715,7 +5709,7 @@
       <c r="M279" s="3"/>
       <c r="N279" s="3"/>
       <c r="O279" s="3"/>
-      <c r="P279" s="6"/>
+      <c r="P279" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
       <c r="A280" s="3"/>
@@ -5733,7 +5727,7 @@
       <c r="M280" s="3"/>
       <c r="N280" s="3"/>
       <c r="O280" s="3"/>
-      <c r="P280" s="6"/>
+      <c r="P280" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
       <c r="A281" s="3"/>
@@ -5751,7 +5745,7 @@
       <c r="M281" s="3"/>
       <c r="N281" s="3"/>
       <c r="O281" s="3"/>
-      <c r="P281" s="6"/>
+      <c r="P281" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
       <c r="A282" s="3"/>
@@ -5769,7 +5763,7 @@
       <c r="M282" s="3"/>
       <c r="N282" s="3"/>
       <c r="O282" s="3"/>
-      <c r="P282" s="6"/>
+      <c r="P282" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
       <c r="A283" s="3"/>
@@ -5787,7 +5781,7 @@
       <c r="M283" s="3"/>
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>
-      <c r="P283" s="6"/>
+      <c r="P283" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
       <c r="A284" s="3"/>
@@ -5805,7 +5799,7 @@
       <c r="M284" s="3"/>
       <c r="N284" s="3"/>
       <c r="O284" s="3"/>
-      <c r="P284" s="6"/>
+      <c r="P284" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
       <c r="A285" s="3"/>
@@ -5823,7 +5817,7 @@
       <c r="M285" s="3"/>
       <c r="N285" s="3"/>
       <c r="O285" s="3"/>
-      <c r="P285" s="6"/>
+      <c r="P285" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
       <c r="A286" s="3"/>
@@ -5841,7 +5835,7 @@
       <c r="M286" s="3"/>
       <c r="N286" s="3"/>
       <c r="O286" s="3"/>
-      <c r="P286" s="6"/>
+      <c r="P286" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
       <c r="A287" s="3"/>
@@ -5859,7 +5853,7 @@
       <c r="M287" s="3"/>
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
-      <c r="P287" s="6"/>
+      <c r="P287" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
       <c r="A288" s="3"/>
@@ -5877,7 +5871,7 @@
       <c r="M288" s="3"/>
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
-      <c r="P288" s="6"/>
+      <c r="P288" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
       <c r="A289" s="3"/>
@@ -5895,7 +5889,7 @@
       <c r="M289" s="3"/>
       <c r="N289" s="3"/>
       <c r="O289" s="3"/>
-      <c r="P289" s="6"/>
+      <c r="P289" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
       <c r="A290" s="3"/>
@@ -5913,7 +5907,7 @@
       <c r="M290" s="3"/>
       <c r="N290" s="3"/>
       <c r="O290" s="3"/>
-      <c r="P290" s="6"/>
+      <c r="P290" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
       <c r="A291" s="3"/>
@@ -5931,7 +5925,7 @@
       <c r="M291" s="3"/>
       <c r="N291" s="3"/>
       <c r="O291" s="3"/>
-      <c r="P291" s="6"/>
+      <c r="P291" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
       <c r="A292" s="3"/>
@@ -5949,7 +5943,7 @@
       <c r="M292" s="3"/>
       <c r="N292" s="3"/>
       <c r="O292" s="3"/>
-      <c r="P292" s="6"/>
+      <c r="P292" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
       <c r="A293" s="3"/>
@@ -5967,7 +5961,7 @@
       <c r="M293" s="3"/>
       <c r="N293" s="3"/>
       <c r="O293" s="3"/>
-      <c r="P293" s="6"/>
+      <c r="P293" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
       <c r="A294" s="3"/>
@@ -5985,7 +5979,7 @@
       <c r="M294" s="3"/>
       <c r="N294" s="3"/>
       <c r="O294" s="3"/>
-      <c r="P294" s="6"/>
+      <c r="P294" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
       <c r="A295" s="3"/>
@@ -6003,7 +5997,7 @@
       <c r="M295" s="3"/>
       <c r="N295" s="3"/>
       <c r="O295" s="3"/>
-      <c r="P295" s="6"/>
+      <c r="P295" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
       <c r="A296" s="3"/>
@@ -6021,7 +6015,7 @@
       <c r="M296" s="3"/>
       <c r="N296" s="3"/>
       <c r="O296" s="3"/>
-      <c r="P296" s="6"/>
+      <c r="P296" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
       <c r="A297" s="3"/>
@@ -6039,7 +6033,7 @@
       <c r="M297" s="3"/>
       <c r="N297" s="3"/>
       <c r="O297" s="3"/>
-      <c r="P297" s="6"/>
+      <c r="P297" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
       <c r="A298" s="3"/>
@@ -6057,7 +6051,7 @@
       <c r="M298" s="3"/>
       <c r="N298" s="3"/>
       <c r="O298" s="3"/>
-      <c r="P298" s="6"/>
+      <c r="P298" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
       <c r="A299" s="3"/>
@@ -6075,7 +6069,7 @@
       <c r="M299" s="3"/>
       <c r="N299" s="3"/>
       <c r="O299" s="3"/>
-      <c r="P299" s="6"/>
+      <c r="P299" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
       <c r="A300" s="3"/>
@@ -6093,7 +6087,7 @@
       <c r="M300" s="3"/>
       <c r="N300" s="3"/>
       <c r="O300" s="3"/>
-      <c r="P300" s="6"/>
+      <c r="P300" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
       <c r="A301" s="3"/>
@@ -6111,7 +6105,7 @@
       <c r="M301" s="3"/>
       <c r="N301" s="3"/>
       <c r="O301" s="3"/>
-      <c r="P301" s="6"/>
+      <c r="P301" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
       <c r="A302" s="3"/>
@@ -6129,7 +6123,7 @@
       <c r="M302" s="3"/>
       <c r="N302" s="3"/>
       <c r="O302" s="3"/>
-      <c r="P302" s="6"/>
+      <c r="P302" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
       <c r="A303" s="3"/>
@@ -6147,7 +6141,7 @@
       <c r="M303" s="3"/>
       <c r="N303" s="3"/>
       <c r="O303" s="3"/>
-      <c r="P303" s="6"/>
+      <c r="P303" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
       <c r="A304" s="3"/>
@@ -6165,7 +6159,7 @@
       <c r="M304" s="3"/>
       <c r="N304" s="3"/>
       <c r="O304" s="3"/>
-      <c r="P304" s="6"/>
+      <c r="P304" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
       <c r="A305" s="3"/>
@@ -6183,7 +6177,7 @@
       <c r="M305" s="3"/>
       <c r="N305" s="3"/>
       <c r="O305" s="3"/>
-      <c r="P305" s="6"/>
+      <c r="P305" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
       <c r="A306" s="3"/>
@@ -6201,7 +6195,7 @@
       <c r="M306" s="3"/>
       <c r="N306" s="3"/>
       <c r="O306" s="3"/>
-      <c r="P306" s="6"/>
+      <c r="P306" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
       <c r="A307" s="3"/>
@@ -6219,7 +6213,7 @@
       <c r="M307" s="3"/>
       <c r="N307" s="3"/>
       <c r="O307" s="3"/>
-      <c r="P307" s="6"/>
+      <c r="P307" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
       <c r="A308" s="3"/>
@@ -6237,7 +6231,7 @@
       <c r="M308" s="3"/>
       <c r="N308" s="3"/>
       <c r="O308" s="3"/>
-      <c r="P308" s="6"/>
+      <c r="P308" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
       <c r="A309" s="3"/>
@@ -6255,7 +6249,7 @@
       <c r="M309" s="3"/>
       <c r="N309" s="3"/>
       <c r="O309" s="3"/>
-      <c r="P309" s="6"/>
+      <c r="P309" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
       <c r="A310" s="3"/>
@@ -6273,7 +6267,7 @@
       <c r="M310" s="3"/>
       <c r="N310" s="3"/>
       <c r="O310" s="3"/>
-      <c r="P310" s="6"/>
+      <c r="P310" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
       <c r="A311" s="3"/>
@@ -6291,7 +6285,7 @@
       <c r="M311" s="3"/>
       <c r="N311" s="3"/>
       <c r="O311" s="3"/>
-      <c r="P311" s="6"/>
+      <c r="P311" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
       <c r="A312" s="3"/>
@@ -6309,7 +6303,7 @@
       <c r="M312" s="3"/>
       <c r="N312" s="3"/>
       <c r="O312" s="3"/>
-      <c r="P312" s="6"/>
+      <c r="P312" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
       <c r="A313" s="3"/>
@@ -6327,7 +6321,7 @@
       <c r="M313" s="3"/>
       <c r="N313" s="3"/>
       <c r="O313" s="3"/>
-      <c r="P313" s="6"/>
+      <c r="P313" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
       <c r="A314" s="3"/>
@@ -6345,7 +6339,7 @@
       <c r="M314" s="3"/>
       <c r="N314" s="3"/>
       <c r="O314" s="3"/>
-      <c r="P314" s="6"/>
+      <c r="P314" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="3"/>
@@ -6363,7 +6357,7 @@
       <c r="M315" s="3"/>
       <c r="N315" s="3"/>
       <c r="O315" s="3"/>
-      <c r="P315" s="6"/>
+      <c r="P315" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="3"/>
@@ -6381,7 +6375,7 @@
       <c r="M316" s="3"/>
       <c r="N316" s="3"/>
       <c r="O316" s="3"/>
-      <c r="P316" s="6"/>
+      <c r="P316" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="3"/>
@@ -6399,7 +6393,7 @@
       <c r="M317" s="3"/>
       <c r="N317" s="3"/>
       <c r="O317" s="3"/>
-      <c r="P317" s="6"/>
+      <c r="P317" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="3"/>
@@ -6417,7 +6411,7 @@
       <c r="M318" s="3"/>
       <c r="N318" s="3"/>
       <c r="O318" s="3"/>
-      <c r="P318" s="6"/>
+      <c r="P318" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
       <c r="A319" s="3"/>
@@ -6435,7 +6429,7 @@
       <c r="M319" s="3"/>
       <c r="N319" s="3"/>
       <c r="O319" s="3"/>
-      <c r="P319" s="6"/>
+      <c r="P319" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
       <c r="A320" s="3"/>
@@ -6453,7 +6447,7 @@
       <c r="M320" s="3"/>
       <c r="N320" s="3"/>
       <c r="O320" s="3"/>
-      <c r="P320" s="6"/>
+      <c r="P320" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
       <c r="A321" s="3"/>
@@ -6471,7 +6465,7 @@
       <c r="M321" s="3"/>
       <c r="N321" s="3"/>
       <c r="O321" s="3"/>
-      <c r="P321" s="6"/>
+      <c r="P321" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
       <c r="A322" s="3"/>
@@ -6489,7 +6483,7 @@
       <c r="M322" s="3"/>
       <c r="N322" s="3"/>
       <c r="O322" s="3"/>
-      <c r="P322" s="6"/>
+      <c r="P322" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
       <c r="A323" s="3"/>
@@ -6507,7 +6501,7 @@
       <c r="M323" s="3"/>
       <c r="N323" s="3"/>
       <c r="O323" s="3"/>
-      <c r="P323" s="6"/>
+      <c r="P323" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
       <c r="A324" s="3"/>
@@ -6525,7 +6519,7 @@
       <c r="M324" s="3"/>
       <c r="N324" s="3"/>
       <c r="O324" s="3"/>
-      <c r="P324" s="6"/>
+      <c r="P324" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
       <c r="A325" s="3"/>
@@ -6543,7 +6537,7 @@
       <c r="M325" s="3"/>
       <c r="N325" s="3"/>
       <c r="O325" s="3"/>
-      <c r="P325" s="6"/>
+      <c r="P325" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
       <c r="A326" s="3"/>
@@ -6561,7 +6555,7 @@
       <c r="M326" s="3"/>
       <c r="N326" s="3"/>
       <c r="O326" s="3"/>
-      <c r="P326" s="6"/>
+      <c r="P326" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
       <c r="A327" s="3"/>
@@ -6579,7 +6573,7 @@
       <c r="M327" s="3"/>
       <c r="N327" s="3"/>
       <c r="O327" s="3"/>
-      <c r="P327" s="6"/>
+      <c r="P327" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
       <c r="A328" s="3"/>
@@ -6597,7 +6591,7 @@
       <c r="M328" s="3"/>
       <c r="N328" s="3"/>
       <c r="O328" s="3"/>
-      <c r="P328" s="6"/>
+      <c r="P328" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
       <c r="A329" s="3"/>
@@ -6615,7 +6609,7 @@
       <c r="M329" s="3"/>
       <c r="N329" s="3"/>
       <c r="O329" s="3"/>
-      <c r="P329" s="6"/>
+      <c r="P329" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
       <c r="A330" s="3"/>
@@ -6633,7 +6627,7 @@
       <c r="M330" s="3"/>
       <c r="N330" s="3"/>
       <c r="O330" s="3"/>
-      <c r="P330" s="6"/>
+      <c r="P330" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
       <c r="A331" s="3"/>
@@ -6651,7 +6645,7 @@
       <c r="M331" s="3"/>
       <c r="N331" s="3"/>
       <c r="O331" s="3"/>
-      <c r="P331" s="6"/>
+      <c r="P331" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
       <c r="A332" s="3"/>
@@ -6669,7 +6663,7 @@
       <c r="M332" s="3"/>
       <c r="N332" s="3"/>
       <c r="O332" s="3"/>
-      <c r="P332" s="6"/>
+      <c r="P332" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
       <c r="A333" s="3"/>
@@ -6687,7 +6681,7 @@
       <c r="M333" s="3"/>
       <c r="N333" s="3"/>
       <c r="O333" s="3"/>
-      <c r="P333" s="6"/>
+      <c r="P333" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
       <c r="A334" s="3"/>
@@ -6705,7 +6699,7 @@
       <c r="M334" s="3"/>
       <c r="N334" s="3"/>
       <c r="O334" s="3"/>
-      <c r="P334" s="6"/>
+      <c r="P334" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
       <c r="A335" s="3"/>
@@ -6723,7 +6717,7 @@
       <c r="M335" s="3"/>
       <c r="N335" s="3"/>
       <c r="O335" s="3"/>
-      <c r="P335" s="6"/>
+      <c r="P335" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
       <c r="A336" s="3"/>
@@ -6741,7 +6735,7 @@
       <c r="M336" s="3"/>
       <c r="N336" s="3"/>
       <c r="O336" s="3"/>
-      <c r="P336" s="6"/>
+      <c r="P336" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
       <c r="A337" s="3"/>
@@ -6759,7 +6753,7 @@
       <c r="M337" s="3"/>
       <c r="N337" s="3"/>
       <c r="O337" s="3"/>
-      <c r="P337" s="6"/>
+      <c r="P337" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
       <c r="A338" s="3"/>
@@ -6777,7 +6771,7 @@
       <c r="M338" s="3"/>
       <c r="N338" s="3"/>
       <c r="O338" s="3"/>
-      <c r="P338" s="6"/>
+      <c r="P338" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
       <c r="A339" s="3"/>
@@ -6795,7 +6789,7 @@
       <c r="M339" s="3"/>
       <c r="N339" s="3"/>
       <c r="O339" s="3"/>
-      <c r="P339" s="6"/>
+      <c r="P339" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
       <c r="A340" s="3"/>
@@ -6813,7 +6807,7 @@
       <c r="M340" s="3"/>
       <c r="N340" s="3"/>
       <c r="O340" s="3"/>
-      <c r="P340" s="6"/>
+      <c r="P340" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
       <c r="A341" s="3"/>
@@ -6831,7 +6825,7 @@
       <c r="M341" s="3"/>
       <c r="N341" s="3"/>
       <c r="O341" s="3"/>
-      <c r="P341" s="6"/>
+      <c r="P341" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
       <c r="A342" s="3"/>
@@ -6849,7 +6843,7 @@
       <c r="M342" s="3"/>
       <c r="N342" s="3"/>
       <c r="O342" s="3"/>
-      <c r="P342" s="6"/>
+      <c r="P342" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
       <c r="A343" s="3"/>
@@ -6867,7 +6861,7 @@
       <c r="M343" s="3"/>
       <c r="N343" s="3"/>
       <c r="O343" s="3"/>
-      <c r="P343" s="6"/>
+      <c r="P343" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
       <c r="A344" s="3"/>
@@ -6885,7 +6879,7 @@
       <c r="M344" s="3"/>
       <c r="N344" s="3"/>
       <c r="O344" s="3"/>
-      <c r="P344" s="6"/>
+      <c r="P344" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
       <c r="A345" s="3"/>
@@ -6903,7 +6897,7 @@
       <c r="M345" s="3"/>
       <c r="N345" s="3"/>
       <c r="O345" s="3"/>
-      <c r="P345" s="6"/>
+      <c r="P345" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
       <c r="A346" s="3"/>
@@ -6921,7 +6915,7 @@
       <c r="M346" s="3"/>
       <c r="N346" s="3"/>
       <c r="O346" s="3"/>
-      <c r="P346" s="6"/>
+      <c r="P346" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
       <c r="A347" s="3"/>
@@ -6939,7 +6933,7 @@
       <c r="M347" s="3"/>
       <c r="N347" s="3"/>
       <c r="O347" s="3"/>
-      <c r="P347" s="6"/>
+      <c r="P347" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
       <c r="A348" s="3"/>
@@ -6957,7 +6951,7 @@
       <c r="M348" s="3"/>
       <c r="N348" s="3"/>
       <c r="O348" s="3"/>
-      <c r="P348" s="6"/>
+      <c r="P348" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
       <c r="A349" s="3"/>
@@ -6975,7 +6969,7 @@
       <c r="M349" s="3"/>
       <c r="N349" s="3"/>
       <c r="O349" s="3"/>
-      <c r="P349" s="6"/>
+      <c r="P349" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
       <c r="A350" s="3"/>
@@ -6993,7 +6987,7 @@
       <c r="M350" s="3"/>
       <c r="N350" s="3"/>
       <c r="O350" s="3"/>
-      <c r="P350" s="6"/>
+      <c r="P350" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
       <c r="A351" s="3"/>
@@ -7011,7 +7005,7 @@
       <c r="M351" s="3"/>
       <c r="N351" s="3"/>
       <c r="O351" s="3"/>
-      <c r="P351" s="6"/>
+      <c r="P351" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
       <c r="A352" s="3"/>
@@ -7029,7 +7023,7 @@
       <c r="M352" s="3"/>
       <c r="N352" s="3"/>
       <c r="O352" s="3"/>
-      <c r="P352" s="6"/>
+      <c r="P352" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
       <c r="A353" s="3"/>
@@ -7047,7 +7041,7 @@
       <c r="M353" s="3"/>
       <c r="N353" s="3"/>
       <c r="O353" s="3"/>
-      <c r="P353" s="6"/>
+      <c r="P353" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
       <c r="A354" s="3"/>
@@ -7065,7 +7059,7 @@
       <c r="M354" s="3"/>
       <c r="N354" s="3"/>
       <c r="O354" s="3"/>
-      <c r="P354" s="6"/>
+      <c r="P354" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
       <c r="A355" s="3"/>
@@ -7083,7 +7077,7 @@
       <c r="M355" s="3"/>
       <c r="N355" s="3"/>
       <c r="O355" s="3"/>
-      <c r="P355" s="6"/>
+      <c r="P355" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
       <c r="A356" s="3"/>
@@ -7101,7 +7095,7 @@
       <c r="M356" s="3"/>
       <c r="N356" s="3"/>
       <c r="O356" s="3"/>
-      <c r="P356" s="6"/>
+      <c r="P356" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
       <c r="A357" s="3"/>
@@ -7119,7 +7113,7 @@
       <c r="M357" s="3"/>
       <c r="N357" s="3"/>
       <c r="O357" s="3"/>
-      <c r="P357" s="6"/>
+      <c r="P357" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
       <c r="A358" s="3"/>
@@ -7137,7 +7131,7 @@
       <c r="M358" s="3"/>
       <c r="N358" s="3"/>
       <c r="O358" s="3"/>
-      <c r="P358" s="6"/>
+      <c r="P358" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
       <c r="A359" s="3"/>
@@ -7155,7 +7149,7 @@
       <c r="M359" s="3"/>
       <c r="N359" s="3"/>
       <c r="O359" s="3"/>
-      <c r="P359" s="6"/>
+      <c r="P359" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
       <c r="A360" s="3"/>
@@ -7173,7 +7167,7 @@
       <c r="M360" s="3"/>
       <c r="N360" s="3"/>
       <c r="O360" s="3"/>
-      <c r="P360" s="6"/>
+      <c r="P360" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
       <c r="A361" s="3"/>
@@ -7191,7 +7185,7 @@
       <c r="M361" s="3"/>
       <c r="N361" s="3"/>
       <c r="O361" s="3"/>
-      <c r="P361" s="6"/>
+      <c r="P361" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
       <c r="A362" s="3"/>
@@ -7209,7 +7203,7 @@
       <c r="M362" s="3"/>
       <c r="N362" s="3"/>
       <c r="O362" s="3"/>
-      <c r="P362" s="6"/>
+      <c r="P362" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
       <c r="A363" s="3"/>
@@ -7227,7 +7221,7 @@
       <c r="M363" s="3"/>
       <c r="N363" s="3"/>
       <c r="O363" s="3"/>
-      <c r="P363" s="6"/>
+      <c r="P363" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
       <c r="A364" s="3"/>
@@ -7245,7 +7239,7 @@
       <c r="M364" s="3"/>
       <c r="N364" s="3"/>
       <c r="O364" s="3"/>
-      <c r="P364" s="6"/>
+      <c r="P364" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
       <c r="A365" s="3"/>
@@ -7263,7 +7257,7 @@
       <c r="M365" s="3"/>
       <c r="N365" s="3"/>
       <c r="O365" s="3"/>
-      <c r="P365" s="6"/>
+      <c r="P365" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
       <c r="A366" s="3"/>
@@ -7281,7 +7275,7 @@
       <c r="M366" s="3"/>
       <c r="N366" s="3"/>
       <c r="O366" s="3"/>
-      <c r="P366" s="6"/>
+      <c r="P366" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
       <c r="A367" s="3"/>
@@ -7299,7 +7293,7 @@
       <c r="M367" s="3"/>
       <c r="N367" s="3"/>
       <c r="O367" s="3"/>
-      <c r="P367" s="6"/>
+      <c r="P367" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
       <c r="A368" s="3"/>
@@ -7317,7 +7311,7 @@
       <c r="M368" s="3"/>
       <c r="N368" s="3"/>
       <c r="O368" s="3"/>
-      <c r="P368" s="6"/>
+      <c r="P368" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
       <c r="A369" s="3"/>
@@ -7335,7 +7329,7 @@
       <c r="M369" s="3"/>
       <c r="N369" s="3"/>
       <c r="O369" s="3"/>
-      <c r="P369" s="6"/>
+      <c r="P369" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
       <c r="A370" s="3"/>
@@ -7353,7 +7347,7 @@
       <c r="M370" s="3"/>
       <c r="N370" s="3"/>
       <c r="O370" s="3"/>
-      <c r="P370" s="6"/>
+      <c r="P370" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
       <c r="A371" s="3"/>
@@ -7371,7 +7365,7 @@
       <c r="M371" s="3"/>
       <c r="N371" s="3"/>
       <c r="O371" s="3"/>
-      <c r="P371" s="6"/>
+      <c r="P371" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
       <c r="A372" s="3"/>
@@ -7389,7 +7383,7 @@
       <c r="M372" s="3"/>
       <c r="N372" s="3"/>
       <c r="O372" s="3"/>
-      <c r="P372" s="6"/>
+      <c r="P372" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
       <c r="A373" s="3"/>
@@ -7407,7 +7401,7 @@
       <c r="M373" s="3"/>
       <c r="N373" s="3"/>
       <c r="O373" s="3"/>
-      <c r="P373" s="6"/>
+      <c r="P373" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
       <c r="A374" s="3"/>
@@ -7425,7 +7419,7 @@
       <c r="M374" s="3"/>
       <c r="N374" s="3"/>
       <c r="O374" s="3"/>
-      <c r="P374" s="6"/>
+      <c r="P374" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
       <c r="A375" s="3"/>
@@ -7443,7 +7437,7 @@
       <c r="M375" s="3"/>
       <c r="N375" s="3"/>
       <c r="O375" s="3"/>
-      <c r="P375" s="6"/>
+      <c r="P375" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
       <c r="A376" s="3"/>
@@ -7461,7 +7455,7 @@
       <c r="M376" s="3"/>
       <c r="N376" s="3"/>
       <c r="O376" s="3"/>
-      <c r="P376" s="6"/>
+      <c r="P376" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
       <c r="A377" s="3"/>
@@ -7479,7 +7473,7 @@
       <c r="M377" s="3"/>
       <c r="N377" s="3"/>
       <c r="O377" s="3"/>
-      <c r="P377" s="6"/>
+      <c r="P377" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
       <c r="A378" s="3"/>
@@ -7497,7 +7491,7 @@
       <c r="M378" s="3"/>
       <c r="N378" s="3"/>
       <c r="O378" s="3"/>
-      <c r="P378" s="6"/>
+      <c r="P378" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
       <c r="A379" s="3"/>
@@ -7515,7 +7509,7 @@
       <c r="M379" s="3"/>
       <c r="N379" s="3"/>
       <c r="O379" s="3"/>
-      <c r="P379" s="6"/>
+      <c r="P379" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
       <c r="A380" s="3"/>
@@ -7533,7 +7527,7 @@
       <c r="M380" s="3"/>
       <c r="N380" s="3"/>
       <c r="O380" s="3"/>
-      <c r="P380" s="6"/>
+      <c r="P380" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
       <c r="A381" s="3"/>
@@ -7551,7 +7545,7 @@
       <c r="M381" s="3"/>
       <c r="N381" s="3"/>
       <c r="O381" s="3"/>
-      <c r="P381" s="6"/>
+      <c r="P381" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
       <c r="A382" s="3"/>
@@ -7569,7 +7563,7 @@
       <c r="M382" s="3"/>
       <c r="N382" s="3"/>
       <c r="O382" s="3"/>
-      <c r="P382" s="6"/>
+      <c r="P382" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
       <c r="A383" s="3"/>
@@ -7587,7 +7581,7 @@
       <c r="M383" s="3"/>
       <c r="N383" s="3"/>
       <c r="O383" s="3"/>
-      <c r="P383" s="6"/>
+      <c r="P383" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
       <c r="A384" s="3"/>
@@ -7605,7 +7599,7 @@
       <c r="M384" s="3"/>
       <c r="N384" s="3"/>
       <c r="O384" s="3"/>
-      <c r="P384" s="6"/>
+      <c r="P384" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
       <c r="A385" s="3"/>
@@ -7623,7 +7617,7 @@
       <c r="M385" s="3"/>
       <c r="N385" s="3"/>
       <c r="O385" s="3"/>
-      <c r="P385" s="6"/>
+      <c r="P385" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
       <c r="A386" s="3"/>
@@ -7641,7 +7635,7 @@
       <c r="M386" s="3"/>
       <c r="N386" s="3"/>
       <c r="O386" s="3"/>
-      <c r="P386" s="6"/>
+      <c r="P386" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
       <c r="A387" s="3"/>
@@ -7659,7 +7653,7 @@
       <c r="M387" s="3"/>
       <c r="N387" s="3"/>
       <c r="O387" s="3"/>
-      <c r="P387" s="6"/>
+      <c r="P387" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
       <c r="A388" s="3"/>
@@ -7677,7 +7671,7 @@
       <c r="M388" s="3"/>
       <c r="N388" s="3"/>
       <c r="O388" s="3"/>
-      <c r="P388" s="6"/>
+      <c r="P388" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
       <c r="A389" s="3"/>
@@ -7695,7 +7689,7 @@
       <c r="M389" s="3"/>
       <c r="N389" s="3"/>
       <c r="O389" s="3"/>
-      <c r="P389" s="6"/>
+      <c r="P389" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
       <c r="A390" s="3"/>
@@ -7713,7 +7707,7 @@
       <c r="M390" s="3"/>
       <c r="N390" s="3"/>
       <c r="O390" s="3"/>
-      <c r="P390" s="6"/>
+      <c r="P390" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
       <c r="A391" s="3"/>
@@ -7731,7 +7725,7 @@
       <c r="M391" s="3"/>
       <c r="N391" s="3"/>
       <c r="O391" s="3"/>
-      <c r="P391" s="6"/>
+      <c r="P391" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
       <c r="A392" s="3"/>
@@ -7749,7 +7743,7 @@
       <c r="M392" s="3"/>
       <c r="N392" s="3"/>
       <c r="O392" s="3"/>
-      <c r="P392" s="6"/>
+      <c r="P392" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
       <c r="A393" s="3"/>
@@ -7767,7 +7761,7 @@
       <c r="M393" s="3"/>
       <c r="N393" s="3"/>
       <c r="O393" s="3"/>
-      <c r="P393" s="6"/>
+      <c r="P393" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
       <c r="A394" s="3"/>
@@ -7785,7 +7779,7 @@
       <c r="M394" s="3"/>
       <c r="N394" s="3"/>
       <c r="O394" s="3"/>
-      <c r="P394" s="6"/>
+      <c r="P394" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
       <c r="A395" s="3"/>
@@ -7803,7 +7797,7 @@
       <c r="M395" s="3"/>
       <c r="N395" s="3"/>
       <c r="O395" s="3"/>
-      <c r="P395" s="6"/>
+      <c r="P395" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
       <c r="A396" s="3"/>
@@ -7821,7 +7815,7 @@
       <c r="M396" s="3"/>
       <c r="N396" s="3"/>
       <c r="O396" s="3"/>
-      <c r="P396" s="6"/>
+      <c r="P396" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
       <c r="A397" s="3"/>
@@ -7839,7 +7833,7 @@
       <c r="M397" s="3"/>
       <c r="N397" s="3"/>
       <c r="O397" s="3"/>
-      <c r="P397" s="6"/>
+      <c r="P397" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
       <c r="A398" s="3"/>
@@ -7857,7 +7851,7 @@
       <c r="M398" s="3"/>
       <c r="N398" s="3"/>
       <c r="O398" s="3"/>
-      <c r="P398" s="6"/>
+      <c r="P398" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
       <c r="A399" s="3"/>
@@ -7875,7 +7869,7 @@
       <c r="M399" s="3"/>
       <c r="N399" s="3"/>
       <c r="O399" s="3"/>
-      <c r="P399" s="6"/>
+      <c r="P399" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
       <c r="A400" s="3"/>
@@ -7893,7 +7887,7 @@
       <c r="M400" s="3"/>
       <c r="N400" s="3"/>
       <c r="O400" s="3"/>
-      <c r="P400" s="6"/>
+      <c r="P400" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
       <c r="A401" s="3"/>
@@ -7911,7 +7905,7 @@
       <c r="M401" s="3"/>
       <c r="N401" s="3"/>
       <c r="O401" s="3"/>
-      <c r="P401" s="6"/>
+      <c r="P401" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
       <c r="A402" s="3"/>
@@ -7929,7 +7923,7 @@
       <c r="M402" s="3"/>
       <c r="N402" s="3"/>
       <c r="O402" s="3"/>
-      <c r="P402" s="6"/>
+      <c r="P402" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
       <c r="A403" s="3"/>
@@ -7947,7 +7941,7 @@
       <c r="M403" s="3"/>
       <c r="N403" s="3"/>
       <c r="O403" s="3"/>
-      <c r="P403" s="6"/>
+      <c r="P403" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
       <c r="A404" s="3"/>
@@ -7965,7 +7959,7 @@
       <c r="M404" s="3"/>
       <c r="N404" s="3"/>
       <c r="O404" s="3"/>
-      <c r="P404" s="6"/>
+      <c r="P404" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
       <c r="A405" s="3"/>
@@ -7983,7 +7977,7 @@
       <c r="M405" s="3"/>
       <c r="N405" s="3"/>
       <c r="O405" s="3"/>
-      <c r="P405" s="6"/>
+      <c r="P405" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
       <c r="A406" s="3"/>
@@ -8001,7 +7995,7 @@
       <c r="M406" s="3"/>
       <c r="N406" s="3"/>
       <c r="O406" s="3"/>
-      <c r="P406" s="6"/>
+      <c r="P406" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
       <c r="A407" s="3"/>
@@ -8019,7 +8013,7 @@
       <c r="M407" s="3"/>
       <c r="N407" s="3"/>
       <c r="O407" s="3"/>
-      <c r="P407" s="6"/>
+      <c r="P407" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
       <c r="A408" s="3"/>
@@ -8037,7 +8031,7 @@
       <c r="M408" s="3"/>
       <c r="N408" s="3"/>
       <c r="O408" s="3"/>
-      <c r="P408" s="6"/>
+      <c r="P408" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
       <c r="A409" s="3"/>
@@ -8055,7 +8049,7 @@
       <c r="M409" s="3"/>
       <c r="N409" s="3"/>
       <c r="O409" s="3"/>
-      <c r="P409" s="6"/>
+      <c r="P409" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
       <c r="A410" s="3"/>
@@ -8073,7 +8067,7 @@
       <c r="M410" s="3"/>
       <c r="N410" s="3"/>
       <c r="O410" s="3"/>
-      <c r="P410" s="6"/>
+      <c r="P410" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
       <c r="A411" s="3"/>
@@ -8091,7 +8085,7 @@
       <c r="M411" s="3"/>
       <c r="N411" s="3"/>
       <c r="O411" s="3"/>
-      <c r="P411" s="6"/>
+      <c r="P411" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
       <c r="A412" s="3"/>
@@ -8109,7 +8103,7 @@
       <c r="M412" s="3"/>
       <c r="N412" s="3"/>
       <c r="O412" s="3"/>
-      <c r="P412" s="6"/>
+      <c r="P412" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
       <c r="A413" s="3"/>
@@ -8127,7 +8121,7 @@
       <c r="M413" s="3"/>
       <c r="N413" s="3"/>
       <c r="O413" s="3"/>
-      <c r="P413" s="6"/>
+      <c r="P413" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
       <c r="A414" s="3"/>
@@ -8145,7 +8139,7 @@
       <c r="M414" s="3"/>
       <c r="N414" s="3"/>
       <c r="O414" s="3"/>
-      <c r="P414" s="6"/>
+      <c r="P414" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
       <c r="A415" s="3"/>
@@ -8163,7 +8157,7 @@
       <c r="M415" s="3"/>
       <c r="N415" s="3"/>
       <c r="O415" s="3"/>
-      <c r="P415" s="6"/>
+      <c r="P415" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
       <c r="A416" s="3"/>
@@ -8181,7 +8175,7 @@
       <c r="M416" s="3"/>
       <c r="N416" s="3"/>
       <c r="O416" s="3"/>
-      <c r="P416" s="6"/>
+      <c r="P416" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
       <c r="A417" s="3"/>
@@ -8199,7 +8193,7 @@
       <c r="M417" s="3"/>
       <c r="N417" s="3"/>
       <c r="O417" s="3"/>
-      <c r="P417" s="6"/>
+      <c r="P417" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
       <c r="A418" s="3"/>
@@ -8217,7 +8211,7 @@
       <c r="M418" s="3"/>
       <c r="N418" s="3"/>
       <c r="O418" s="3"/>
-      <c r="P418" s="6"/>
+      <c r="P418" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
       <c r="A419" s="3"/>
@@ -8235,7 +8229,7 @@
       <c r="M419" s="3"/>
       <c r="N419" s="3"/>
       <c r="O419" s="3"/>
-      <c r="P419" s="6"/>
+      <c r="P419" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
       <c r="A420" s="3"/>
@@ -8253,7 +8247,7 @@
       <c r="M420" s="3"/>
       <c r="N420" s="3"/>
       <c r="O420" s="3"/>
-      <c r="P420" s="6"/>
+      <c r="P420" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
       <c r="A421" s="3"/>
@@ -8271,7 +8265,7 @@
       <c r="M421" s="3"/>
       <c r="N421" s="3"/>
       <c r="O421" s="3"/>
-      <c r="P421" s="6"/>
+      <c r="P421" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
       <c r="A422" s="3"/>
@@ -8289,7 +8283,7 @@
       <c r="M422" s="3"/>
       <c r="N422" s="3"/>
       <c r="O422" s="3"/>
-      <c r="P422" s="6"/>
+      <c r="P422" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
       <c r="A423" s="3"/>
@@ -8307,7 +8301,7 @@
       <c r="M423" s="3"/>
       <c r="N423" s="3"/>
       <c r="O423" s="3"/>
-      <c r="P423" s="6"/>
+      <c r="P423" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
       <c r="A424" s="3"/>
@@ -8325,7 +8319,7 @@
       <c r="M424" s="3"/>
       <c r="N424" s="3"/>
       <c r="O424" s="3"/>
-      <c r="P424" s="6"/>
+      <c r="P424" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
       <c r="A425" s="3"/>
@@ -8343,7 +8337,7 @@
       <c r="M425" s="3"/>
       <c r="N425" s="3"/>
       <c r="O425" s="3"/>
-      <c r="P425" s="6"/>
+      <c r="P425" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
       <c r="A426" s="3"/>
@@ -8361,7 +8355,7 @@
       <c r="M426" s="3"/>
       <c r="N426" s="3"/>
       <c r="O426" s="3"/>
-      <c r="P426" s="6"/>
+      <c r="P426" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
       <c r="A427" s="3"/>
@@ -8379,7 +8373,7 @@
       <c r="M427" s="3"/>
       <c r="N427" s="3"/>
       <c r="O427" s="3"/>
-      <c r="P427" s="6"/>
+      <c r="P427" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
       <c r="A428" s="3"/>
@@ -8397,7 +8391,7 @@
       <c r="M428" s="3"/>
       <c r="N428" s="3"/>
       <c r="O428" s="3"/>
-      <c r="P428" s="6"/>
+      <c r="P428" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
       <c r="A429" s="3"/>
@@ -8415,7 +8409,7 @@
       <c r="M429" s="3"/>
       <c r="N429" s="3"/>
       <c r="O429" s="3"/>
-      <c r="P429" s="6"/>
+      <c r="P429" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
       <c r="A430" s="3"/>
@@ -8433,7 +8427,7 @@
       <c r="M430" s="3"/>
       <c r="N430" s="3"/>
       <c r="O430" s="3"/>
-      <c r="P430" s="6"/>
+      <c r="P430" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
       <c r="A431" s="3"/>
@@ -8451,7 +8445,7 @@
       <c r="M431" s="3"/>
       <c r="N431" s="3"/>
       <c r="O431" s="3"/>
-      <c r="P431" s="6"/>
+      <c r="P431" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
       <c r="A432" s="3"/>
@@ -8469,7 +8463,7 @@
       <c r="M432" s="3"/>
       <c r="N432" s="3"/>
       <c r="O432" s="3"/>
-      <c r="P432" s="6"/>
+      <c r="P432" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
       <c r="A433" s="3"/>
@@ -8487,7 +8481,7 @@
       <c r="M433" s="3"/>
       <c r="N433" s="3"/>
       <c r="O433" s="3"/>
-      <c r="P433" s="6"/>
+      <c r="P433" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">
       <c r="A434" s="3"/>
@@ -8505,7 +8499,7 @@
       <c r="M434" s="3"/>
       <c r="N434" s="3"/>
       <c r="O434" s="3"/>
-      <c r="P434" s="6"/>
+      <c r="P434" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="17.25">
       <c r="A435" s="3"/>
@@ -8523,7 +8517,7 @@
       <c r="M435" s="3"/>
       <c r="N435" s="3"/>
       <c r="O435" s="3"/>
-      <c r="P435" s="6"/>
+      <c r="P435" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="17.25">
       <c r="A436" s="3"/>
@@ -8541,7 +8535,7 @@
       <c r="M436" s="3"/>
       <c r="N436" s="3"/>
       <c r="O436" s="3"/>
-      <c r="P436" s="6"/>
+      <c r="P436" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="17.25">
       <c r="A437" s="3"/>
@@ -8559,7 +8553,7 @@
       <c r="M437" s="3"/>
       <c r="N437" s="3"/>
       <c r="O437" s="3"/>
-      <c r="P437" s="6"/>
+      <c r="P437" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="17.25">
       <c r="A438" s="3"/>
@@ -8577,7 +8571,7 @@
       <c r="M438" s="3"/>
       <c r="N438" s="3"/>
       <c r="O438" s="3"/>
-      <c r="P438" s="6"/>
+      <c r="P438" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="17.25">
       <c r="A439" s="3"/>
@@ -8595,7 +8589,7 @@
       <c r="M439" s="3"/>
       <c r="N439" s="3"/>
       <c r="O439" s="3"/>
-      <c r="P439" s="6"/>
+      <c r="P439" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="17.25">
       <c r="A440" s="3"/>
@@ -8613,7 +8607,7 @@
       <c r="M440" s="3"/>
       <c r="N440" s="3"/>
       <c r="O440" s="3"/>
-      <c r="P440" s="6"/>
+      <c r="P440" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="17.25">
       <c r="A441" s="3"/>
@@ -8631,7 +8625,7 @@
       <c r="M441" s="3"/>
       <c r="N441" s="3"/>
       <c r="O441" s="3"/>
-      <c r="P441" s="6"/>
+      <c r="P441" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="17.25">
       <c r="A442" s="3"/>
@@ -8649,7 +8643,7 @@
       <c r="M442" s="3"/>
       <c r="N442" s="3"/>
       <c r="O442" s="3"/>
-      <c r="P442" s="6"/>
+      <c r="P442" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="17.25">
       <c r="A443" s="3"/>
@@ -8667,7 +8661,7 @@
       <c r="M443" s="3"/>
       <c r="N443" s="3"/>
       <c r="O443" s="3"/>
-      <c r="P443" s="6"/>
+      <c r="P443" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="17.25">
       <c r="A444" s="3"/>
@@ -8685,7 +8679,7 @@
       <c r="M444" s="3"/>
       <c r="N444" s="3"/>
       <c r="O444" s="3"/>
-      <c r="P444" s="6"/>
+      <c r="P444" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="17.25">
       <c r="A445" s="3"/>
@@ -8703,7 +8697,7 @@
       <c r="M445" s="3"/>
       <c r="N445" s="3"/>
       <c r="O445" s="3"/>
-      <c r="P445" s="6"/>
+      <c r="P445" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="17.25">
       <c r="A446" s="3"/>
@@ -8721,7 +8715,7 @@
       <c r="M446" s="3"/>
       <c r="N446" s="3"/>
       <c r="O446" s="3"/>
-      <c r="P446" s="6"/>
+      <c r="P446" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="17.25">
       <c r="A447" s="3"/>
@@ -8739,7 +8733,7 @@
       <c r="M447" s="3"/>
       <c r="N447" s="3"/>
       <c r="O447" s="3"/>
-      <c r="P447" s="6"/>
+      <c r="P447" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="17.25">
       <c r="A448" s="3"/>
@@ -8757,7 +8751,7 @@
       <c r="M448" s="3"/>
       <c r="N448" s="3"/>
       <c r="O448" s="3"/>
-      <c r="P448" s="6"/>
+      <c r="P448" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="17.25">
       <c r="A449" s="3"/>
@@ -8775,7 +8769,7 @@
       <c r="M449" s="3"/>
       <c r="N449" s="3"/>
       <c r="O449" s="3"/>
-      <c r="P449" s="6"/>
+      <c r="P449" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="17.25">
       <c r="A450" s="3"/>
@@ -8793,7 +8787,7 @@
       <c r="M450" s="3"/>
       <c r="N450" s="3"/>
       <c r="O450" s="3"/>
-      <c r="P450" s="6"/>
+      <c r="P450" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="17.25">
       <c r="A451" s="3"/>
@@ -8811,7 +8805,7 @@
       <c r="M451" s="3"/>
       <c r="N451" s="3"/>
       <c r="O451" s="3"/>
-      <c r="P451" s="6"/>
+      <c r="P451" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="17.25">
       <c r="A452" s="3"/>
@@ -8829,7 +8823,7 @@
       <c r="M452" s="3"/>
       <c r="N452" s="3"/>
       <c r="O452" s="3"/>
-      <c r="P452" s="6"/>
+      <c r="P452" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="17.25">
       <c r="A453" s="3"/>
@@ -8847,7 +8841,7 @@
       <c r="M453" s="3"/>
       <c r="N453" s="3"/>
       <c r="O453" s="3"/>
-      <c r="P453" s="6"/>
+      <c r="P453" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="17.25">
       <c r="A454" s="3"/>
@@ -8865,7 +8859,7 @@
       <c r="M454" s="3"/>
       <c r="N454" s="3"/>
       <c r="O454" s="3"/>
-      <c r="P454" s="6"/>
+      <c r="P454" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="17.25">
       <c r="A455" s="3"/>
@@ -8883,7 +8877,7 @@
       <c r="M455" s="3"/>
       <c r="N455" s="3"/>
       <c r="O455" s="3"/>
-      <c r="P455" s="6"/>
+      <c r="P455" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="17.25">
       <c r="A456" s="3"/>
@@ -8901,7 +8895,7 @@
       <c r="M456" s="3"/>
       <c r="N456" s="3"/>
       <c r="O456" s="3"/>
-      <c r="P456" s="6"/>
+      <c r="P456" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="17.25">
       <c r="A457" s="3"/>
@@ -8919,7 +8913,7 @@
       <c r="M457" s="3"/>
       <c r="N457" s="3"/>
       <c r="O457" s="3"/>
-      <c r="P457" s="6"/>
+      <c r="P457" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="17.25">
       <c r="A458" s="3"/>
@@ -8937,7 +8931,7 @@
       <c r="M458" s="3"/>
       <c r="N458" s="3"/>
       <c r="O458" s="3"/>
-      <c r="P458" s="6"/>
+      <c r="P458" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="17.25">
       <c r="A459" s="3"/>
@@ -8955,7 +8949,7 @@
       <c r="M459" s="3"/>
       <c r="N459" s="3"/>
       <c r="O459" s="3"/>
-      <c r="P459" s="6"/>
+      <c r="P459" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="17.25">
       <c r="A460" s="3"/>
@@ -8973,7 +8967,7 @@
       <c r="M460" s="3"/>
       <c r="N460" s="3"/>
       <c r="O460" s="3"/>
-      <c r="P460" s="6"/>
+      <c r="P460" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="17.25">
       <c r="A461" s="3"/>
@@ -8991,7 +8985,7 @@
       <c r="M461" s="3"/>
       <c r="N461" s="3"/>
       <c r="O461" s="3"/>
-      <c r="P461" s="6"/>
+      <c r="P461" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="17.25">
       <c r="A462" s="3"/>
@@ -9009,7 +9003,7 @@
       <c r="M462" s="3"/>
       <c r="N462" s="3"/>
       <c r="O462" s="3"/>
-      <c r="P462" s="6"/>
+      <c r="P462" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="17.25">
       <c r="A463" s="3"/>
@@ -9027,7 +9021,7 @@
       <c r="M463" s="3"/>
       <c r="N463" s="3"/>
       <c r="O463" s="3"/>
-      <c r="P463" s="6"/>
+      <c r="P463" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="17.25">
       <c r="A464" s="3"/>
@@ -9045,7 +9039,7 @@
       <c r="M464" s="3"/>
       <c r="N464" s="3"/>
       <c r="O464" s="3"/>
-      <c r="P464" s="6"/>
+      <c r="P464" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="17.25">
       <c r="A465" s="3"/>
@@ -9063,7 +9057,7 @@
       <c r="M465" s="3"/>
       <c r="N465" s="3"/>
       <c r="O465" s="3"/>
-      <c r="P465" s="6"/>
+      <c r="P465" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="17.25">
       <c r="A466" s="3"/>
@@ -9081,7 +9075,7 @@
       <c r="M466" s="3"/>
       <c r="N466" s="3"/>
       <c r="O466" s="3"/>
-      <c r="P466" s="6"/>
+      <c r="P466" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="17.25">
       <c r="A467" s="3"/>
@@ -9099,7 +9093,7 @@
       <c r="M467" s="3"/>
       <c r="N467" s="3"/>
       <c r="O467" s="3"/>
-      <c r="P467" s="6"/>
+      <c r="P467" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="17.25">
       <c r="A468" s="3"/>
@@ -9117,7 +9111,7 @@
       <c r="M468" s="3"/>
       <c r="N468" s="3"/>
       <c r="O468" s="3"/>
-      <c r="P468" s="6"/>
+      <c r="P468" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="17.25">
       <c r="A469" s="3"/>
@@ -9135,7 +9129,7 @@
       <c r="M469" s="3"/>
       <c r="N469" s="3"/>
       <c r="O469" s="3"/>
-      <c r="P469" s="6"/>
+      <c r="P469" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="17.25">
       <c r="A470" s="3"/>
@@ -9153,7 +9147,7 @@
       <c r="M470" s="3"/>
       <c r="N470" s="3"/>
       <c r="O470" s="3"/>
-      <c r="P470" s="6"/>
+      <c r="P470" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="17.25">
       <c r="A471" s="3"/>
@@ -9171,7 +9165,7 @@
       <c r="M471" s="3"/>
       <c r="N471" s="3"/>
       <c r="O471" s="3"/>
-      <c r="P471" s="6"/>
+      <c r="P471" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="17.25">
       <c r="A472" s="3"/>
@@ -9189,7 +9183,7 @@
       <c r="M472" s="3"/>
       <c r="N472" s="3"/>
       <c r="O472" s="3"/>
-      <c r="P472" s="6"/>
+      <c r="P472" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="17.25">
       <c r="A473" s="3"/>
@@ -9207,7 +9201,7 @@
       <c r="M473" s="3"/>
       <c r="N473" s="3"/>
       <c r="O473" s="3"/>
-      <c r="P473" s="6"/>
+      <c r="P473" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="17.25">
       <c r="A474" s="3"/>
@@ -9225,7 +9219,7 @@
       <c r="M474" s="3"/>
       <c r="N474" s="3"/>
       <c r="O474" s="3"/>
-      <c r="P474" s="6"/>
+      <c r="P474" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="17.25">
       <c r="A475" s="3"/>
@@ -9243,7 +9237,7 @@
       <c r="M475" s="3"/>
       <c r="N475" s="3"/>
       <c r="O475" s="3"/>
-      <c r="P475" s="6"/>
+      <c r="P475" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="17.25">
       <c r="A476" s="3"/>
@@ -9261,7 +9255,7 @@
       <c r="M476" s="3"/>
       <c r="N476" s="3"/>
       <c r="O476" s="3"/>
-      <c r="P476" s="6"/>
+      <c r="P476" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="17.25">
       <c r="A477" s="3"/>
@@ -9279,7 +9273,7 @@
       <c r="M477" s="3"/>
       <c r="N477" s="3"/>
       <c r="O477" s="3"/>
-      <c r="P477" s="6"/>
+      <c r="P477" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="17.25">
       <c r="A478" s="3"/>
@@ -9297,7 +9291,7 @@
       <c r="M478" s="3"/>
       <c r="N478" s="3"/>
       <c r="O478" s="3"/>
-      <c r="P478" s="6"/>
+      <c r="P478" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="17.25">
       <c r="A479" s="3"/>
@@ -9315,7 +9309,7 @@
       <c r="M479" s="3"/>
       <c r="N479" s="3"/>
       <c r="O479" s="3"/>
-      <c r="P479" s="6"/>
+      <c r="P479" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="17.25">
       <c r="A480" s="3"/>
@@ -9333,7 +9327,7 @@
       <c r="M480" s="3"/>
       <c r="N480" s="3"/>
       <c r="O480" s="3"/>
-      <c r="P480" s="6"/>
+      <c r="P480" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="17.25">
       <c r="A481" s="3"/>
@@ -9351,7 +9345,7 @@
       <c r="M481" s="3"/>
       <c r="N481" s="3"/>
       <c r="O481" s="3"/>
-      <c r="P481" s="6"/>
+      <c r="P481" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="17.25">
       <c r="A482" s="3"/>
@@ -9369,7 +9363,7 @@
       <c r="M482" s="3"/>
       <c r="N482" s="3"/>
       <c r="O482" s="3"/>
-      <c r="P482" s="6"/>
+      <c r="P482" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="17.25">
       <c r="A483" s="3"/>
@@ -9387,7 +9381,7 @@
       <c r="M483" s="3"/>
       <c r="N483" s="3"/>
       <c r="O483" s="3"/>
-      <c r="P483" s="6"/>
+      <c r="P483" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="17.25">
       <c r="A484" s="3"/>
@@ -9405,7 +9399,7 @@
       <c r="M484" s="3"/>
       <c r="N484" s="3"/>
       <c r="O484" s="3"/>
-      <c r="P484" s="6"/>
+      <c r="P484" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="17.25">
       <c r="A485" s="3"/>
@@ -9423,7 +9417,7 @@
       <c r="M485" s="3"/>
       <c r="N485" s="3"/>
       <c r="O485" s="3"/>
-      <c r="P485" s="6"/>
+      <c r="P485" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="17.25">
       <c r="A486" s="3"/>
@@ -9441,7 +9435,7 @@
       <c r="M486" s="3"/>
       <c r="N486" s="3"/>
       <c r="O486" s="3"/>
-      <c r="P486" s="6"/>
+      <c r="P486" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="17.25">
       <c r="A487" s="3"/>
@@ -9459,7 +9453,7 @@
       <c r="M487" s="3"/>
       <c r="N487" s="3"/>
       <c r="O487" s="3"/>
-      <c r="P487" s="6"/>
+      <c r="P487" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="17.25">
       <c r="A488" s="3"/>
@@ -9477,7 +9471,7 @@
       <c r="M488" s="3"/>
       <c r="N488" s="3"/>
       <c r="O488" s="3"/>
-      <c r="P488" s="6"/>
+      <c r="P488" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="17.25">
       <c r="A489" s="3"/>
@@ -9495,7 +9489,7 @@
       <c r="M489" s="3"/>
       <c r="N489" s="3"/>
       <c r="O489" s="3"/>
-      <c r="P489" s="6"/>
+      <c r="P489" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="17.25">
       <c r="A490" s="3"/>
@@ -9513,7 +9507,7 @@
       <c r="M490" s="3"/>
       <c r="N490" s="3"/>
       <c r="O490" s="3"/>
-      <c r="P490" s="6"/>
+      <c r="P490" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="17.25">
       <c r="A491" s="3"/>
@@ -9531,7 +9525,7 @@
       <c r="M491" s="3"/>
       <c r="N491" s="3"/>
       <c r="O491" s="3"/>
-      <c r="P491" s="6"/>
+      <c r="P491" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="17.25">
       <c r="A492" s="3"/>
@@ -9549,7 +9543,7 @@
       <c r="M492" s="3"/>
       <c r="N492" s="3"/>
       <c r="O492" s="3"/>
-      <c r="P492" s="6"/>
+      <c r="P492" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="17.25">
       <c r="A493" s="3"/>
@@ -9567,7 +9561,7 @@
       <c r="M493" s="3"/>
       <c r="N493" s="3"/>
       <c r="O493" s="3"/>
-      <c r="P493" s="6"/>
+      <c r="P493" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="17.25">
       <c r="A494" s="3"/>
@@ -9585,7 +9579,7 @@
       <c r="M494" s="3"/>
       <c r="N494" s="3"/>
       <c r="O494" s="3"/>
-      <c r="P494" s="6"/>
+      <c r="P494" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="17.25">
       <c r="A495" s="3"/>
@@ -9603,7 +9597,7 @@
       <c r="M495" s="3"/>
       <c r="N495" s="3"/>
       <c r="O495" s="3"/>
-      <c r="P495" s="6"/>
+      <c r="P495" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="17.25">
       <c r="A496" s="3"/>
@@ -9621,7 +9615,7 @@
       <c r="M496" s="3"/>
       <c r="N496" s="3"/>
       <c r="O496" s="3"/>
-      <c r="P496" s="6"/>
+      <c r="P496" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="17.25">
       <c r="A497" s="3"/>
@@ -9639,7 +9633,7 @@
       <c r="M497" s="3"/>
       <c r="N497" s="3"/>
       <c r="O497" s="3"/>
-      <c r="P497" s="6"/>
+      <c r="P497" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="17.25">
       <c r="A498" s="3"/>
@@ -9657,7 +9651,7 @@
       <c r="M498" s="3"/>
       <c r="N498" s="3"/>
       <c r="O498" s="3"/>
-      <c r="P498" s="6"/>
+      <c r="P498" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="17.25">
       <c r="A499" s="3"/>
@@ -9675,7 +9669,7 @@
       <c r="M499" s="3"/>
       <c r="N499" s="3"/>
       <c r="O499" s="3"/>
-      <c r="P499" s="6"/>
+      <c r="P499" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="17.25">
       <c r="A500" s="3"/>
@@ -9693,7 +9687,7 @@
       <c r="M500" s="3"/>
       <c r="N500" s="3"/>
       <c r="O500" s="3"/>
-      <c r="P500" s="6"/>
+      <c r="P500" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="17.25">
       <c r="A501" s="3"/>
@@ -9711,7 +9705,7 @@
       <c r="M501" s="3"/>
       <c r="N501" s="3"/>
       <c r="O501" s="3"/>
-      <c r="P501" s="6"/>
+      <c r="P501" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="17.25">
       <c r="A502" s="3"/>
@@ -9729,7 +9723,7 @@
       <c r="M502" s="3"/>
       <c r="N502" s="3"/>
       <c r="O502" s="3"/>
-      <c r="P502" s="6"/>
+      <c r="P502" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="17.25">
       <c r="A503" s="3"/>
@@ -9747,7 +9741,7 @@
       <c r="M503" s="3"/>
       <c r="N503" s="3"/>
       <c r="O503" s="3"/>
-      <c r="P503" s="6"/>
+      <c r="P503" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="17.25">
       <c r="A504" s="3"/>
@@ -9765,7 +9759,7 @@
       <c r="M504" s="3"/>
       <c r="N504" s="3"/>
       <c r="O504" s="3"/>
-      <c r="P504" s="6"/>
+      <c r="P504" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="17.25">
       <c r="A505" s="3"/>
@@ -9783,7 +9777,7 @@
       <c r="M505" s="3"/>
       <c r="N505" s="3"/>
       <c r="O505" s="3"/>
-      <c r="P505" s="6"/>
+      <c r="P505" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="17.25">
       <c r="A506" s="3"/>
@@ -9801,7 +9795,7 @@
       <c r="M506" s="3"/>
       <c r="N506" s="3"/>
       <c r="O506" s="3"/>
-      <c r="P506" s="6"/>
+      <c r="P506" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="17.25">
       <c r="A507" s="3"/>
@@ -9819,7 +9813,7 @@
       <c r="M507" s="3"/>
       <c r="N507" s="3"/>
       <c r="O507" s="3"/>
-      <c r="P507" s="6"/>
+      <c r="P507" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="17.25">
       <c r="A508" s="3"/>
@@ -9837,7 +9831,7 @@
       <c r="M508" s="3"/>
       <c r="N508" s="3"/>
       <c r="O508" s="3"/>
-      <c r="P508" s="6"/>
+      <c r="P508" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="17.25">
       <c r="A509" s="3"/>
@@ -9855,7 +9849,7 @@
       <c r="M509" s="3"/>
       <c r="N509" s="3"/>
       <c r="O509" s="3"/>
-      <c r="P509" s="6"/>
+      <c r="P509" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="17.25">
       <c r="A510" s="3"/>
@@ -9873,7 +9867,7 @@
       <c r="M510" s="3"/>
       <c r="N510" s="3"/>
       <c r="O510" s="3"/>
-      <c r="P510" s="6"/>
+      <c r="P510" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="17.25">
       <c r="A511" s="3"/>
@@ -9891,7 +9885,7 @@
       <c r="M511" s="3"/>
       <c r="N511" s="3"/>
       <c r="O511" s="3"/>
-      <c r="P511" s="6"/>
+      <c r="P511" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="17.25">
       <c r="A512" s="3"/>
@@ -9909,7 +9903,7 @@
       <c r="M512" s="3"/>
       <c r="N512" s="3"/>
       <c r="O512" s="3"/>
-      <c r="P512" s="6"/>
+      <c r="P512" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="17.25">
       <c r="A513" s="3"/>
@@ -9927,7 +9921,7 @@
       <c r="M513" s="3"/>
       <c r="N513" s="3"/>
       <c r="O513" s="3"/>
-      <c r="P513" s="6"/>
+      <c r="P513" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="17.25">
       <c r="A514" s="3"/>
@@ -9945,7 +9939,7 @@
       <c r="M514" s="3"/>
       <c r="N514" s="3"/>
       <c r="O514" s="3"/>
-      <c r="P514" s="6"/>
+      <c r="P514" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="17.25">
       <c r="A515" s="3"/>
@@ -9963,7 +9957,7 @@
       <c r="M515" s="3"/>
       <c r="N515" s="3"/>
       <c r="O515" s="3"/>
-      <c r="P515" s="6"/>
+      <c r="P515" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="17.25">
       <c r="A516" s="3"/>
@@ -9981,7 +9975,7 @@
       <c r="M516" s="3"/>
       <c r="N516" s="3"/>
       <c r="O516" s="3"/>
-      <c r="P516" s="6"/>
+      <c r="P516" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="17.25">
       <c r="A517" s="3"/>
@@ -9999,7 +9993,7 @@
       <c r="M517" s="3"/>
       <c r="N517" s="3"/>
       <c r="O517" s="3"/>
-      <c r="P517" s="6"/>
+      <c r="P517" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="17.25">
       <c r="A518" s="3"/>
@@ -10017,7 +10011,7 @@
       <c r="M518" s="3"/>
       <c r="N518" s="3"/>
       <c r="O518" s="3"/>
-      <c r="P518" s="6"/>
+      <c r="P518" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="17.25">
       <c r="A519" s="3"/>
@@ -10035,7 +10029,7 @@
       <c r="M519" s="3"/>
       <c r="N519" s="3"/>
       <c r="O519" s="3"/>
-      <c r="P519" s="6"/>
+      <c r="P519" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="17.25">
       <c r="A520" s="3"/>
@@ -10053,7 +10047,7 @@
       <c r="M520" s="3"/>
       <c r="N520" s="3"/>
       <c r="O520" s="3"/>
-      <c r="P520" s="6"/>
+      <c r="P520" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="17.25">
       <c r="A521" s="3"/>
@@ -10071,7 +10065,7 @@
       <c r="M521" s="3"/>
       <c r="N521" s="3"/>
       <c r="O521" s="3"/>
-      <c r="P521" s="6"/>
+      <c r="P521" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="17.25">
       <c r="A522" s="3"/>
@@ -10089,7 +10083,7 @@
       <c r="M522" s="3"/>
       <c r="N522" s="3"/>
       <c r="O522" s="3"/>
-      <c r="P522" s="6"/>
+      <c r="P522" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="17.25">
       <c r="A523" s="3"/>
@@ -10107,7 +10101,7 @@
       <c r="M523" s="3"/>
       <c r="N523" s="3"/>
       <c r="O523" s="3"/>
-      <c r="P523" s="6"/>
+      <c r="P523" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="17.25">
       <c r="A524" s="3"/>
@@ -10125,7 +10119,7 @@
       <c r="M524" s="3"/>
       <c r="N524" s="3"/>
       <c r="O524" s="3"/>
-      <c r="P524" s="6"/>
+      <c r="P524" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="17.25">
       <c r="A525" s="3"/>
@@ -10143,7 +10137,7 @@
       <c r="M525" s="3"/>
       <c r="N525" s="3"/>
       <c r="O525" s="3"/>
-      <c r="P525" s="6"/>
+      <c r="P525" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="17.25">
       <c r="A526" s="3"/>
@@ -10161,7 +10155,7 @@
       <c r="M526" s="3"/>
       <c r="N526" s="3"/>
       <c r="O526" s="3"/>
-      <c r="P526" s="6"/>
+      <c r="P526" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="17.25">
       <c r="A527" s="3"/>
@@ -10179,7 +10173,7 @@
       <c r="M527" s="3"/>
       <c r="N527" s="3"/>
       <c r="O527" s="3"/>
-      <c r="P527" s="6"/>
+      <c r="P527" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="17.25">
       <c r="A528" s="3"/>
@@ -10197,7 +10191,7 @@
       <c r="M528" s="3"/>
       <c r="N528" s="3"/>
       <c r="O528" s="3"/>
-      <c r="P528" s="6"/>
+      <c r="P528" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="17.25">
       <c r="A529" s="3"/>
@@ -10215,7 +10209,7 @@
       <c r="M529" s="3"/>
       <c r="N529" s="3"/>
       <c r="O529" s="3"/>
-      <c r="P529" s="6"/>
+      <c r="P529" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="17.25">
       <c r="A530" s="3"/>
@@ -10233,7 +10227,7 @@
       <c r="M530" s="3"/>
       <c r="N530" s="3"/>
       <c r="O530" s="3"/>
-      <c r="P530" s="6"/>
+      <c r="P530" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="17.25">
       <c r="A531" s="3"/>
@@ -10251,7 +10245,7 @@
       <c r="M531" s="3"/>
       <c r="N531" s="3"/>
       <c r="O531" s="3"/>
-      <c r="P531" s="6"/>
+      <c r="P531" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="17.25">
       <c r="A532" s="3"/>
@@ -10269,7 +10263,7 @@
       <c r="M532" s="3"/>
       <c r="N532" s="3"/>
       <c r="O532" s="3"/>
-      <c r="P532" s="6"/>
+      <c r="P532" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="17.25">
       <c r="A533" s="3"/>
@@ -10287,7 +10281,7 @@
       <c r="M533" s="3"/>
       <c r="N533" s="3"/>
       <c r="O533" s="3"/>
-      <c r="P533" s="6"/>
+      <c r="P533" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="17.25">
       <c r="A534" s="3"/>
@@ -10305,7 +10299,7 @@
       <c r="M534" s="3"/>
       <c r="N534" s="3"/>
       <c r="O534" s="3"/>
-      <c r="P534" s="6"/>
+      <c r="P534" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="17.25">
       <c r="A535" s="3"/>
@@ -10323,7 +10317,7 @@
       <c r="M535" s="3"/>
       <c r="N535" s="3"/>
       <c r="O535" s="3"/>
-      <c r="P535" s="6"/>
+      <c r="P535" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="17.25">
       <c r="A536" s="3"/>
@@ -10341,7 +10335,7 @@
       <c r="M536" s="3"/>
       <c r="N536" s="3"/>
       <c r="O536" s="3"/>
-      <c r="P536" s="6"/>
+      <c r="P536" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="17.25">
       <c r="A537" s="3"/>
@@ -10359,7 +10353,7 @@
       <c r="M537" s="3"/>
       <c r="N537" s="3"/>
       <c r="O537" s="3"/>
-      <c r="P537" s="6"/>
+      <c r="P537" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="17.25">
       <c r="A538" s="3"/>
@@ -10377,7 +10371,7 @@
       <c r="M538" s="3"/>
       <c r="N538" s="3"/>
       <c r="O538" s="3"/>
-      <c r="P538" s="6"/>
+      <c r="P538" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="17.25">
       <c r="A539" s="3"/>
@@ -10395,7 +10389,7 @@
       <c r="M539" s="3"/>
       <c r="N539" s="3"/>
       <c r="O539" s="3"/>
-      <c r="P539" s="6"/>
+      <c r="P539" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="17.25">
       <c r="A540" s="3"/>
@@ -10413,7 +10407,7 @@
       <c r="M540" s="3"/>
       <c r="N540" s="3"/>
       <c r="O540" s="3"/>
-      <c r="P540" s="6"/>
+      <c r="P540" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="17.25">
       <c r="A541" s="3"/>
@@ -10431,7 +10425,7 @@
       <c r="M541" s="3"/>
       <c r="N541" s="3"/>
       <c r="O541" s="3"/>
-      <c r="P541" s="6"/>
+      <c r="P541" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="17.25">
       <c r="A542" s="3"/>
@@ -10449,7 +10443,7 @@
       <c r="M542" s="3"/>
       <c r="N542" s="3"/>
       <c r="O542" s="3"/>
-      <c r="P542" s="6"/>
+      <c r="P542" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="17.25">
       <c r="A543" s="3"/>
@@ -10467,7 +10461,7 @@
       <c r="M543" s="3"/>
       <c r="N543" s="3"/>
       <c r="O543" s="3"/>
-      <c r="P543" s="6"/>
+      <c r="P543" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="17.25">
       <c r="A544" s="3"/>
@@ -10485,7 +10479,7 @@
       <c r="M544" s="3"/>
       <c r="N544" s="3"/>
       <c r="O544" s="3"/>
-      <c r="P544" s="6"/>
+      <c r="P544" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="17.25">
       <c r="A545" s="3"/>
@@ -10503,7 +10497,7 @@
       <c r="M545" s="3"/>
       <c r="N545" s="3"/>
       <c r="O545" s="3"/>
-      <c r="P545" s="6"/>
+      <c r="P545" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="17.25">
       <c r="A546" s="3"/>
@@ -10521,7 +10515,7 @@
       <c r="M546" s="3"/>
       <c r="N546" s="3"/>
       <c r="O546" s="3"/>
-      <c r="P546" s="6"/>
+      <c r="P546" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="17.25">
       <c r="A547" s="3"/>
@@ -10539,7 +10533,7 @@
       <c r="M547" s="3"/>
       <c r="N547" s="3"/>
       <c r="O547" s="3"/>
-      <c r="P547" s="6"/>
+      <c r="P547" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="17.25">
       <c r="A548" s="3"/>
@@ -10557,7 +10551,7 @@
       <c r="M548" s="3"/>
       <c r="N548" s="3"/>
       <c r="O548" s="3"/>
-      <c r="P548" s="6"/>
+      <c r="P548" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="17.25">
       <c r="A549" s="3"/>
@@ -10575,7 +10569,7 @@
       <c r="M549" s="3"/>
       <c r="N549" s="3"/>
       <c r="O549" s="3"/>
-      <c r="P549" s="6"/>
+      <c r="P549" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="17.25">
       <c r="A550" s="3"/>
@@ -10593,7 +10587,7 @@
       <c r="M550" s="3"/>
       <c r="N550" s="3"/>
       <c r="O550" s="3"/>
-      <c r="P550" s="6"/>
+      <c r="P550" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="17.25">
       <c r="A551" s="3"/>
@@ -10611,7 +10605,7 @@
       <c r="M551" s="3"/>
       <c r="N551" s="3"/>
       <c r="O551" s="3"/>
-      <c r="P551" s="6"/>
+      <c r="P551" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="17.25">
       <c r="A552" s="3"/>
@@ -10629,7 +10623,7 @@
       <c r="M552" s="3"/>
       <c r="N552" s="3"/>
       <c r="O552" s="3"/>
-      <c r="P552" s="6"/>
+      <c r="P552" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="17.25">
       <c r="A553" s="3"/>
@@ -10647,7 +10641,7 @@
       <c r="M553" s="3"/>
       <c r="N553" s="3"/>
       <c r="O553" s="3"/>
-      <c r="P553" s="6"/>
+      <c r="P553" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="17.25">
       <c r="A554" s="3"/>
@@ -10665,7 +10659,7 @@
       <c r="M554" s="3"/>
       <c r="N554" s="3"/>
       <c r="O554" s="3"/>
-      <c r="P554" s="6"/>
+      <c r="P554" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="17.25">
       <c r="A555" s="3"/>
@@ -10683,7 +10677,7 @@
       <c r="M555" s="3"/>
       <c r="N555" s="3"/>
       <c r="O555" s="3"/>
-      <c r="P555" s="6"/>
+      <c r="P555" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="17.25">
       <c r="A556" s="3"/>
@@ -10701,7 +10695,7 @@
       <c r="M556" s="3"/>
       <c r="N556" s="3"/>
       <c r="O556" s="3"/>
-      <c r="P556" s="6"/>
+      <c r="P556" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="17.25">
       <c r="A557" s="3"/>
@@ -10719,7 +10713,7 @@
       <c r="M557" s="3"/>
       <c r="N557" s="3"/>
       <c r="O557" s="3"/>
-      <c r="P557" s="6"/>
+      <c r="P557" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="17.25">
       <c r="A558" s="3"/>
@@ -10737,7 +10731,7 @@
       <c r="M558" s="3"/>
       <c r="N558" s="3"/>
       <c r="O558" s="3"/>
-      <c r="P558" s="6"/>
+      <c r="P558" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="17.25">
       <c r="A559" s="3"/>
@@ -10755,7 +10749,7 @@
       <c r="M559" s="3"/>
       <c r="N559" s="3"/>
       <c r="O559" s="3"/>
-      <c r="P559" s="6"/>
+      <c r="P559" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="17.25">
       <c r="A560" s="3"/>
@@ -10773,7 +10767,7 @@
       <c r="M560" s="3"/>
       <c r="N560" s="3"/>
       <c r="O560" s="3"/>
-      <c r="P560" s="6"/>
+      <c r="P560" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="17.25">
       <c r="A561" s="3"/>
@@ -10791,7 +10785,7 @@
       <c r="M561" s="3"/>
       <c r="N561" s="3"/>
       <c r="O561" s="3"/>
-      <c r="P561" s="6"/>
+      <c r="P561" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="17.25">
       <c r="A562" s="3"/>
@@ -10809,7 +10803,7 @@
       <c r="M562" s="3"/>
       <c r="N562" s="3"/>
       <c r="O562" s="3"/>
-      <c r="P562" s="6"/>
+      <c r="P562" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="17.25">
       <c r="A563" s="3"/>
@@ -10827,7 +10821,7 @@
       <c r="M563" s="3"/>
       <c r="N563" s="3"/>
       <c r="O563" s="3"/>
-      <c r="P563" s="6"/>
+      <c r="P563" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="17.25">
       <c r="A564" s="3"/>
@@ -10845,7 +10839,7 @@
       <c r="M564" s="3"/>
       <c r="N564" s="3"/>
       <c r="O564" s="3"/>
-      <c r="P564" s="6"/>
+      <c r="P564" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="17.25">
       <c r="A565" s="3"/>
@@ -10863,7 +10857,7 @@
       <c r="M565" s="3"/>
       <c r="N565" s="3"/>
       <c r="O565" s="3"/>
-      <c r="P565" s="6"/>
+      <c r="P565" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="17.25">
       <c r="A566" s="3"/>
@@ -10881,7 +10875,7 @@
       <c r="M566" s="3"/>
       <c r="N566" s="3"/>
       <c r="O566" s="3"/>
-      <c r="P566" s="6"/>
+      <c r="P566" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="17.25">
       <c r="A567" s="3"/>
@@ -10899,7 +10893,7 @@
       <c r="M567" s="3"/>
       <c r="N567" s="3"/>
       <c r="O567" s="3"/>
-      <c r="P567" s="6"/>
+      <c r="P567" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="17.25">
       <c r="A568" s="3"/>
@@ -10917,7 +10911,7 @@
       <c r="M568" s="3"/>
       <c r="N568" s="3"/>
       <c r="O568" s="3"/>
-      <c r="P568" s="6"/>
+      <c r="P568" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="17.25">
       <c r="A569" s="3"/>
@@ -10935,7 +10929,7 @@
       <c r="M569" s="3"/>
       <c r="N569" s="3"/>
       <c r="O569" s="3"/>
-      <c r="P569" s="6"/>
+      <c r="P569" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="17.25">
       <c r="A570" s="3"/>
@@ -10953,7 +10947,7 @@
       <c r="M570" s="3"/>
       <c r="N570" s="3"/>
       <c r="O570" s="3"/>
-      <c r="P570" s="6"/>
+      <c r="P570" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="17.25">
       <c r="A571" s="3"/>
@@ -10971,7 +10965,7 @@
       <c r="M571" s="3"/>
       <c r="N571" s="3"/>
       <c r="O571" s="3"/>
-      <c r="P571" s="6"/>
+      <c r="P571" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="17.25">
       <c r="A572" s="3"/>
@@ -10989,7 +10983,7 @@
       <c r="M572" s="3"/>
       <c r="N572" s="3"/>
       <c r="O572" s="3"/>
-      <c r="P572" s="6"/>
+      <c r="P572" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="17.25">
       <c r="A573" s="3"/>
@@ -11007,7 +11001,7 @@
       <c r="M573" s="3"/>
       <c r="N573" s="3"/>
       <c r="O573" s="3"/>
-      <c r="P573" s="6"/>
+      <c r="P573" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="17.25">
       <c r="A574" s="3"/>
@@ -11025,7 +11019,7 @@
       <c r="M574" s="3"/>
       <c r="N574" s="3"/>
       <c r="O574" s="3"/>
-      <c r="P574" s="6"/>
+      <c r="P574" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="17.25">
       <c r="A575" s="3"/>
@@ -11043,7 +11037,7 @@
       <c r="M575" s="3"/>
       <c r="N575" s="3"/>
       <c r="O575" s="3"/>
-      <c r="P575" s="6"/>
+      <c r="P575" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="17.25">
       <c r="A576" s="3"/>
@@ -11061,7 +11055,7 @@
       <c r="M576" s="3"/>
       <c r="N576" s="3"/>
       <c r="O576" s="3"/>
-      <c r="P576" s="6"/>
+      <c r="P576" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="17.25">
       <c r="A577" s="3"/>
@@ -11079,7 +11073,7 @@
       <c r="M577" s="3"/>
       <c r="N577" s="3"/>
       <c r="O577" s="3"/>
-      <c r="P577" s="6"/>
+      <c r="P577" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="17.25">
       <c r="A578" s="3"/>
@@ -11097,7 +11091,7 @@
       <c r="M578" s="3"/>
       <c r="N578" s="3"/>
       <c r="O578" s="3"/>
-      <c r="P578" s="6"/>
+      <c r="P578" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="17.25">
       <c r="A579" s="3"/>
@@ -11115,7 +11109,7 @@
       <c r="M579" s="3"/>
       <c r="N579" s="3"/>
       <c r="O579" s="3"/>
-      <c r="P579" s="6"/>
+      <c r="P579" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="17.25">
       <c r="A580" s="3"/>
@@ -11133,7 +11127,7 @@
       <c r="M580" s="3"/>
       <c r="N580" s="3"/>
       <c r="O580" s="3"/>
-      <c r="P580" s="6"/>
+      <c r="P580" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="17.25">
       <c r="A581" s="3"/>
@@ -11151,7 +11145,7 @@
       <c r="M581" s="3"/>
       <c r="N581" s="3"/>
       <c r="O581" s="3"/>
-      <c r="P581" s="6"/>
+      <c r="P581" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="17.25">
       <c r="A582" s="3"/>
@@ -11169,7 +11163,7 @@
       <c r="M582" s="3"/>
       <c r="N582" s="3"/>
       <c r="O582" s="3"/>
-      <c r="P582" s="6"/>
+      <c r="P582" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="17.25">
       <c r="A583" s="3"/>
@@ -11187,7 +11181,7 @@
       <c r="M583" s="3"/>
       <c r="N583" s="3"/>
       <c r="O583" s="3"/>
-      <c r="P583" s="6"/>
+      <c r="P583" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="17.25">
       <c r="A584" s="3"/>
@@ -11205,7 +11199,7 @@
       <c r="M584" s="3"/>
       <c r="N584" s="3"/>
       <c r="O584" s="3"/>
-      <c r="P584" s="6"/>
+      <c r="P584" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="17.25">
       <c r="A585" s="3"/>
@@ -11223,7 +11217,7 @@
       <c r="M585" s="3"/>
       <c r="N585" s="3"/>
       <c r="O585" s="3"/>
-      <c r="P585" s="6"/>
+      <c r="P585" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="17.25">
       <c r="A586" s="3"/>
@@ -11241,7 +11235,7 @@
       <c r="M586" s="3"/>
       <c r="N586" s="3"/>
       <c r="O586" s="3"/>
-      <c r="P586" s="6"/>
+      <c r="P586" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="17.25">
       <c r="A587" s="3"/>
@@ -11259,7 +11253,7 @@
       <c r="M587" s="3"/>
       <c r="N587" s="3"/>
       <c r="O587" s="3"/>
-      <c r="P587" s="6"/>
+      <c r="P587" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="17.25">
       <c r="A588" s="3"/>
@@ -11277,7 +11271,7 @@
       <c r="M588" s="3"/>
       <c r="N588" s="3"/>
       <c r="O588" s="3"/>
-      <c r="P588" s="6"/>
+      <c r="P588" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="17.25">
       <c r="A589" s="3"/>
@@ -11295,7 +11289,7 @@
       <c r="M589" s="3"/>
       <c r="N589" s="3"/>
       <c r="O589" s="3"/>
-      <c r="P589" s="6"/>
+      <c r="P589" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="17.25">
       <c r="A590" s="3"/>
@@ -11313,7 +11307,7 @@
       <c r="M590" s="3"/>
       <c r="N590" s="3"/>
       <c r="O590" s="3"/>
-      <c r="P590" s="6"/>
+      <c r="P590" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="17.25">
       <c r="A591" s="3"/>
@@ -11331,7 +11325,7 @@
       <c r="M591" s="3"/>
       <c r="N591" s="3"/>
       <c r="O591" s="3"/>
-      <c r="P591" s="6"/>
+      <c r="P591" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="17.25">
       <c r="A592" s="3"/>
@@ -11349,7 +11343,7 @@
       <c r="M592" s="3"/>
       <c r="N592" s="3"/>
       <c r="O592" s="3"/>
-      <c r="P592" s="6"/>
+      <c r="P592" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="17.25">
       <c r="A593" s="3"/>
@@ -11367,7 +11361,7 @@
       <c r="M593" s="3"/>
       <c r="N593" s="3"/>
       <c r="O593" s="3"/>
-      <c r="P593" s="6"/>
+      <c r="P593" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="17.25">
       <c r="A594" s="3"/>
@@ -11385,7 +11379,7 @@
       <c r="M594" s="3"/>
       <c r="N594" s="3"/>
       <c r="O594" s="3"/>
-      <c r="P594" s="6"/>
+      <c r="P594" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="17.25">
       <c r="A595" s="3"/>
@@ -11403,7 +11397,7 @@
       <c r="M595" s="3"/>
       <c r="N595" s="3"/>
       <c r="O595" s="3"/>
-      <c r="P595" s="6"/>
+      <c r="P595" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="17.25">
       <c r="A596" s="3"/>
@@ -11421,7 +11415,7 @@
       <c r="M596" s="3"/>
       <c r="N596" s="3"/>
       <c r="O596" s="3"/>
-      <c r="P596" s="6"/>
+      <c r="P596" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="17.25">
       <c r="A597" s="3"/>
@@ -11439,7 +11433,7 @@
       <c r="M597" s="3"/>
       <c r="N597" s="3"/>
       <c r="O597" s="3"/>
-      <c r="P597" s="6"/>
+      <c r="P597" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="17.25">
       <c r="A598" s="3"/>
@@ -11457,7 +11451,7 @@
       <c r="M598" s="3"/>
       <c r="N598" s="3"/>
       <c r="O598" s="3"/>
-      <c r="P598" s="6"/>
+      <c r="P598" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="17.25">
       <c r="A599" s="3"/>
@@ -11475,7 +11469,7 @@
       <c r="M599" s="3"/>
       <c r="N599" s="3"/>
       <c r="O599" s="3"/>
-      <c r="P599" s="6"/>
+      <c r="P599" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="17.25">
       <c r="A600" s="3"/>
@@ -11493,7 +11487,7 @@
       <c r="M600" s="3"/>
       <c r="N600" s="3"/>
       <c r="O600" s="3"/>
-      <c r="P600" s="6"/>
+      <c r="P600" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="17.25">
       <c r="A601" s="3"/>
@@ -11511,7 +11505,7 @@
       <c r="M601" s="3"/>
       <c r="N601" s="3"/>
       <c r="O601" s="3"/>
-      <c r="P601" s="6"/>
+      <c r="P601" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="17.25">
       <c r="A602" s="3"/>
@@ -11529,7 +11523,7 @@
       <c r="M602" s="3"/>
       <c r="N602" s="3"/>
       <c r="O602" s="3"/>
-      <c r="P602" s="6"/>
+      <c r="P602" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="17.25">
       <c r="A603" s="3"/>
@@ -11547,7 +11541,7 @@
       <c r="M603" s="3"/>
       <c r="N603" s="3"/>
       <c r="O603" s="3"/>
-      <c r="P603" s="6"/>
+      <c r="P603" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="17.25">
       <c r="A604" s="3"/>
@@ -11565,7 +11559,7 @@
       <c r="M604" s="3"/>
       <c r="N604" s="3"/>
       <c r="O604" s="3"/>
-      <c r="P604" s="6"/>
+      <c r="P604" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="17.25">
       <c r="A605" s="3"/>
@@ -11583,7 +11577,7 @@
       <c r="M605" s="3"/>
       <c r="N605" s="3"/>
       <c r="O605" s="3"/>
-      <c r="P605" s="6"/>
+      <c r="P605" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="17.25">
       <c r="A606" s="3"/>
@@ -11601,7 +11595,7 @@
       <c r="M606" s="3"/>
       <c r="N606" s="3"/>
       <c r="O606" s="3"/>
-      <c r="P606" s="6"/>
+      <c r="P606" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="17.25">
       <c r="A607" s="3"/>
@@ -11619,7 +11613,7 @@
       <c r="M607" s="3"/>
       <c r="N607" s="3"/>
       <c r="O607" s="3"/>
-      <c r="P607" s="6"/>
+      <c r="P607" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="17.25">
       <c r="A608" s="3"/>
@@ -11637,7 +11631,7 @@
       <c r="M608" s="3"/>
       <c r="N608" s="3"/>
       <c r="O608" s="3"/>
-      <c r="P608" s="6"/>
+      <c r="P608" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="17.25">
       <c r="A609" s="3"/>
@@ -11655,7 +11649,7 @@
       <c r="M609" s="3"/>
       <c r="N609" s="3"/>
       <c r="O609" s="3"/>
-      <c r="P609" s="6"/>
+      <c r="P609" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="17.25">
       <c r="A610" s="3"/>
@@ -11673,7 +11667,7 @@
       <c r="M610" s="3"/>
       <c r="N610" s="3"/>
       <c r="O610" s="3"/>
-      <c r="P610" s="6"/>
+      <c r="P610" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="17.25">
       <c r="A611" s="3"/>
@@ -11691,7 +11685,7 @@
       <c r="M611" s="3"/>
       <c r="N611" s="3"/>
       <c r="O611" s="3"/>
-      <c r="P611" s="6"/>
+      <c r="P611" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="17.25">
       <c r="A612" s="3"/>
@@ -11709,7 +11703,7 @@
       <c r="M612" s="3"/>
       <c r="N612" s="3"/>
       <c r="O612" s="3"/>
-      <c r="P612" s="6"/>
+      <c r="P612" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="17.25">
       <c r="A613" s="3"/>
@@ -11727,7 +11721,7 @@
       <c r="M613" s="3"/>
       <c r="N613" s="3"/>
       <c r="O613" s="3"/>
-      <c r="P613" s="6"/>
+      <c r="P613" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="17.25">
       <c r="A614" s="3"/>
@@ -11745,7 +11739,7 @@
       <c r="M614" s="3"/>
       <c r="N614" s="3"/>
       <c r="O614" s="3"/>
-      <c r="P614" s="6"/>
+      <c r="P614" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="17.25">
       <c r="A615" s="3"/>
@@ -11763,7 +11757,7 @@
       <c r="M615" s="3"/>
       <c r="N615" s="3"/>
       <c r="O615" s="3"/>
-      <c r="P615" s="6"/>
+      <c r="P615" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="17.25">
       <c r="A616" s="3"/>
@@ -11781,7 +11775,7 @@
       <c r="M616" s="3"/>
       <c r="N616" s="3"/>
       <c r="O616" s="3"/>
-      <c r="P616" s="6"/>
+      <c r="P616" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="17.25">
       <c r="A617" s="3"/>
@@ -11799,7 +11793,7 @@
       <c r="M617" s="3"/>
       <c r="N617" s="3"/>
       <c r="O617" s="3"/>
-      <c r="P617" s="6"/>
+      <c r="P617" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="17.25">
       <c r="A618" s="3"/>
@@ -11817,7 +11811,7 @@
       <c r="M618" s="3"/>
       <c r="N618" s="3"/>
       <c r="O618" s="3"/>
-      <c r="P618" s="6"/>
+      <c r="P618" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="17.25">
       <c r="A619" s="3"/>
@@ -11835,7 +11829,7 @@
       <c r="M619" s="3"/>
       <c r="N619" s="3"/>
       <c r="O619" s="3"/>
-      <c r="P619" s="6"/>
+      <c r="P619" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="17.25">
       <c r="A620" s="3"/>
@@ -11853,7 +11847,7 @@
       <c r="M620" s="3"/>
       <c r="N620" s="3"/>
       <c r="O620" s="3"/>
-      <c r="P620" s="6"/>
+      <c r="P620" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="17.25">
       <c r="A621" s="3"/>
@@ -11871,7 +11865,7 @@
       <c r="M621" s="3"/>
       <c r="N621" s="3"/>
       <c r="O621" s="3"/>
-      <c r="P621" s="6"/>
+      <c r="P621" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="17.25">
       <c r="A622" s="3"/>
@@ -11889,7 +11883,7 @@
       <c r="M622" s="3"/>
       <c r="N622" s="3"/>
       <c r="O622" s="3"/>
-      <c r="P622" s="6"/>
+      <c r="P622" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="17.25">
       <c r="A623" s="3"/>
@@ -11907,7 +11901,7 @@
       <c r="M623" s="3"/>
       <c r="N623" s="3"/>
       <c r="O623" s="3"/>
-      <c r="P623" s="6"/>
+      <c r="P623" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="17.25">
       <c r="A624" s="3"/>
@@ -11925,7 +11919,7 @@
       <c r="M624" s="3"/>
       <c r="N624" s="3"/>
       <c r="O624" s="3"/>
-      <c r="P624" s="6"/>
+      <c r="P624" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="17.25">
       <c r="A625" s="3"/>
@@ -11943,7 +11937,7 @@
       <c r="M625" s="3"/>
       <c r="N625" s="3"/>
       <c r="O625" s="3"/>
-      <c r="P625" s="6"/>
+      <c r="P625" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="17.25">
       <c r="A626" s="3"/>
@@ -11961,7 +11955,7 @@
       <c r="M626" s="3"/>
       <c r="N626" s="3"/>
       <c r="O626" s="3"/>
-      <c r="P626" s="6"/>
+      <c r="P626" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="17.25">
       <c r="A627" s="3"/>
@@ -11979,7 +11973,7 @@
       <c r="M627" s="3"/>
       <c r="N627" s="3"/>
       <c r="O627" s="3"/>
-      <c r="P627" s="6"/>
+      <c r="P627" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="17.25">
       <c r="A628" s="3"/>
@@ -11997,7 +11991,7 @@
       <c r="M628" s="3"/>
       <c r="N628" s="3"/>
       <c r="O628" s="3"/>
-      <c r="P628" s="6"/>
+      <c r="P628" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="17.25">
       <c r="A629" s="3"/>
@@ -12015,7 +12009,7 @@
       <c r="M629" s="3"/>
       <c r="N629" s="3"/>
       <c r="O629" s="3"/>
-      <c r="P629" s="6"/>
+      <c r="P629" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="17.25">
       <c r="A630" s="3"/>
@@ -12033,7 +12027,7 @@
       <c r="M630" s="3"/>
       <c r="N630" s="3"/>
       <c r="O630" s="3"/>
-      <c r="P630" s="6"/>
+      <c r="P630" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="17.25">
       <c r="A631" s="3"/>
@@ -12051,7 +12045,7 @@
       <c r="M631" s="3"/>
       <c r="N631" s="3"/>
       <c r="O631" s="3"/>
-      <c r="P631" s="6"/>
+      <c r="P631" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="17.25">
       <c r="A632" s="3"/>
@@ -12069,7 +12063,7 @@
       <c r="M632" s="3"/>
       <c r="N632" s="3"/>
       <c r="O632" s="3"/>
-      <c r="P632" s="6"/>
+      <c r="P632" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="17.25">
       <c r="A633" s="3"/>
@@ -12087,7 +12081,7 @@
       <c r="M633" s="3"/>
       <c r="N633" s="3"/>
       <c r="O633" s="3"/>
-      <c r="P633" s="6"/>
+      <c r="P633" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="17.25">
       <c r="A634" s="3"/>
@@ -12105,7 +12099,7 @@
       <c r="M634" s="3"/>
       <c r="N634" s="3"/>
       <c r="O634" s="3"/>
-      <c r="P634" s="6"/>
+      <c r="P634" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="17.25">
       <c r="A635" s="3"/>
@@ -12123,7 +12117,7 @@
       <c r="M635" s="3"/>
       <c r="N635" s="3"/>
       <c r="O635" s="3"/>
-      <c r="P635" s="6"/>
+      <c r="P635" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="17.25">
       <c r="A636" s="3"/>
@@ -12141,7 +12135,7 @@
       <c r="M636" s="3"/>
       <c r="N636" s="3"/>
       <c r="O636" s="3"/>
-      <c r="P636" s="6"/>
+      <c r="P636" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="17.25">
       <c r="A637" s="3"/>
@@ -12159,7 +12153,7 @@
       <c r="M637" s="3"/>
       <c r="N637" s="3"/>
       <c r="O637" s="3"/>
-      <c r="P637" s="6"/>
+      <c r="P637" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="17.25">
       <c r="A638" s="3"/>
@@ -12177,7 +12171,7 @@
       <c r="M638" s="3"/>
       <c r="N638" s="3"/>
       <c r="O638" s="3"/>
-      <c r="P638" s="6"/>
+      <c r="P638" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="17.25">
       <c r="A639" s="3"/>
@@ -12195,7 +12189,7 @@
       <c r="M639" s="3"/>
       <c r="N639" s="3"/>
       <c r="O639" s="3"/>
-      <c r="P639" s="6"/>
+      <c r="P639" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="17.25">
       <c r="A640" s="3"/>
@@ -12213,7 +12207,7 @@
       <c r="M640" s="3"/>
       <c r="N640" s="3"/>
       <c r="O640" s="3"/>
-      <c r="P640" s="6"/>
+      <c r="P640" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="17.25">
       <c r="A641" s="3"/>
@@ -12231,7 +12225,7 @@
       <c r="M641" s="3"/>
       <c r="N641" s="3"/>
       <c r="O641" s="3"/>
-      <c r="P641" s="6"/>
+      <c r="P641" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="17.25">
       <c r="A642" s="3"/>
@@ -12249,7 +12243,7 @@
       <c r="M642" s="3"/>
       <c r="N642" s="3"/>
       <c r="O642" s="3"/>
-      <c r="P642" s="6"/>
+      <c r="P642" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="17.25">
       <c r="A643" s="3"/>
@@ -12267,7 +12261,7 @@
       <c r="M643" s="3"/>
       <c r="N643" s="3"/>
       <c r="O643" s="3"/>
-      <c r="P643" s="6"/>
+      <c r="P643" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="17.25">
       <c r="A644" s="3"/>
@@ -12285,7 +12279,7 @@
       <c r="M644" s="3"/>
       <c r="N644" s="3"/>
       <c r="O644" s="3"/>
-      <c r="P644" s="6"/>
+      <c r="P644" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="17.25">
       <c r="A645" s="3"/>
@@ -12303,7 +12297,7 @@
       <c r="M645" s="3"/>
       <c r="N645" s="3"/>
       <c r="O645" s="3"/>
-      <c r="P645" s="6"/>
+      <c r="P645" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="17.25">
       <c r="A646" s="3"/>
@@ -12321,7 +12315,7 @@
       <c r="M646" s="3"/>
       <c r="N646" s="3"/>
       <c r="O646" s="3"/>
-      <c r="P646" s="6"/>
+      <c r="P646" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="17.25">
       <c r="A647" s="3"/>
@@ -12339,7 +12333,7 @@
       <c r="M647" s="3"/>
       <c r="N647" s="3"/>
       <c r="O647" s="3"/>
-      <c r="P647" s="6"/>
+      <c r="P647" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="17.25">
       <c r="A648" s="3"/>
@@ -12357,7 +12351,7 @@
       <c r="M648" s="3"/>
       <c r="N648" s="3"/>
       <c r="O648" s="3"/>
-      <c r="P648" s="6"/>
+      <c r="P648" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="17.25">
       <c r="A649" s="3"/>
@@ -12375,7 +12369,7 @@
       <c r="M649" s="3"/>
       <c r="N649" s="3"/>
       <c r="O649" s="3"/>
-      <c r="P649" s="6"/>
+      <c r="P649" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="17.25">
       <c r="A650" s="3"/>
@@ -12393,7 +12387,7 @@
       <c r="M650" s="3"/>
       <c r="N650" s="3"/>
       <c r="O650" s="3"/>
-      <c r="P650" s="6"/>
+      <c r="P650" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="17.25">
       <c r="A651" s="3"/>
@@ -12411,7 +12405,7 @@
       <c r="M651" s="3"/>
       <c r="N651" s="3"/>
       <c r="O651" s="3"/>
-      <c r="P651" s="6"/>
+      <c r="P651" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="17.25">
       <c r="A652" s="3"/>
@@ -12429,7 +12423,7 @@
       <c r="M652" s="3"/>
       <c r="N652" s="3"/>
       <c r="O652" s="3"/>
-      <c r="P652" s="6"/>
+      <c r="P652" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="17.25">
       <c r="A653" s="3"/>
@@ -12447,7 +12441,7 @@
       <c r="M653" s="3"/>
       <c r="N653" s="3"/>
       <c r="O653" s="3"/>
-      <c r="P653" s="6"/>
+      <c r="P653" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="17.25">
       <c r="A654" s="3"/>
@@ -12465,7 +12459,7 @@
       <c r="M654" s="3"/>
       <c r="N654" s="3"/>
       <c r="O654" s="3"/>
-      <c r="P654" s="6"/>
+      <c r="P654" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="17.25">
       <c r="A655" s="3"/>
@@ -12483,7 +12477,7 @@
       <c r="M655" s="3"/>
       <c r="N655" s="3"/>
       <c r="O655" s="3"/>
-      <c r="P655" s="6"/>
+      <c r="P655" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="17.25">
       <c r="A656" s="3"/>
@@ -12501,7 +12495,7 @@
       <c r="M656" s="3"/>
       <c r="N656" s="3"/>
       <c r="O656" s="3"/>
-      <c r="P656" s="6"/>
+      <c r="P656" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="17.25">
       <c r="A657" s="3"/>
@@ -12519,7 +12513,7 @@
       <c r="M657" s="3"/>
       <c r="N657" s="3"/>
       <c r="O657" s="3"/>
-      <c r="P657" s="6"/>
+      <c r="P657" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="17.25">
       <c r="A658" s="3"/>
@@ -12537,7 +12531,7 @@
       <c r="M658" s="3"/>
       <c r="N658" s="3"/>
       <c r="O658" s="3"/>
-      <c r="P658" s="6"/>
+      <c r="P658" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="17.25">
       <c r="A659" s="3"/>
@@ -12555,7 +12549,7 @@
       <c r="M659" s="3"/>
       <c r="N659" s="3"/>
       <c r="O659" s="3"/>
-      <c r="P659" s="6"/>
+      <c r="P659" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="17.25">
       <c r="A660" s="3"/>
@@ -12573,7 +12567,7 @@
       <c r="M660" s="3"/>
       <c r="N660" s="3"/>
       <c r="O660" s="3"/>
-      <c r="P660" s="6"/>
+      <c r="P660" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="17.25">
       <c r="A661" s="3"/>
@@ -12591,7 +12585,7 @@
       <c r="M661" s="3"/>
       <c r="N661" s="3"/>
       <c r="O661" s="3"/>
-      <c r="P661" s="6"/>
+      <c r="P661" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="17.25">
       <c r="A662" s="3"/>
@@ -12609,7 +12603,7 @@
       <c r="M662" s="3"/>
       <c r="N662" s="3"/>
       <c r="O662" s="3"/>
-      <c r="P662" s="6"/>
+      <c r="P662" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="17.25">
       <c r="A663" s="3"/>
@@ -12627,7 +12621,7 @@
       <c r="M663" s="3"/>
       <c r="N663" s="3"/>
       <c r="O663" s="3"/>
-      <c r="P663" s="6"/>
+      <c r="P663" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="17.25">
       <c r="A664" s="3"/>
@@ -12645,7 +12639,7 @@
       <c r="M664" s="3"/>
       <c r="N664" s="3"/>
       <c r="O664" s="3"/>
-      <c r="P664" s="6"/>
+      <c r="P664" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="17.25">
       <c r="A665" s="3"/>
@@ -12663,7 +12657,7 @@
       <c r="M665" s="3"/>
       <c r="N665" s="3"/>
       <c r="O665" s="3"/>
-      <c r="P665" s="6"/>
+      <c r="P665" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="17.25">
       <c r="A666" s="3"/>
@@ -12681,7 +12675,7 @@
       <c r="M666" s="3"/>
       <c r="N666" s="3"/>
       <c r="O666" s="3"/>
-      <c r="P666" s="6"/>
+      <c r="P666" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="17.25">
       <c r="A667" s="3"/>
@@ -12699,7 +12693,7 @@
       <c r="M667" s="3"/>
       <c r="N667" s="3"/>
       <c r="O667" s="3"/>
-      <c r="P667" s="6"/>
+      <c r="P667" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="17.25">
       <c r="A668" s="3"/>
@@ -12717,7 +12711,7 @@
       <c r="M668" s="3"/>
       <c r="N668" s="3"/>
       <c r="O668" s="3"/>
-      <c r="P668" s="6"/>
+      <c r="P668" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="17.25">
       <c r="A669" s="3"/>
@@ -12735,7 +12729,7 @@
       <c r="M669" s="3"/>
       <c r="N669" s="3"/>
       <c r="O669" s="3"/>
-      <c r="P669" s="6"/>
+      <c r="P669" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="17.25">
       <c r="A670" s="3"/>
@@ -12753,7 +12747,7 @@
       <c r="M670" s="3"/>
       <c r="N670" s="3"/>
       <c r="O670" s="3"/>
-      <c r="P670" s="6"/>
+      <c r="P670" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="17.25">
       <c r="A671" s="3"/>
@@ -12771,7 +12765,7 @@
       <c r="M671" s="3"/>
       <c r="N671" s="3"/>
       <c r="O671" s="3"/>
-      <c r="P671" s="6"/>
+      <c r="P671" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="17.25">
       <c r="A672" s="3"/>
@@ -12789,7 +12783,7 @@
       <c r="M672" s="3"/>
       <c r="N672" s="3"/>
       <c r="O672" s="3"/>
-      <c r="P672" s="6"/>
+      <c r="P672" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="17.25">
       <c r="A673" s="3"/>
@@ -12807,7 +12801,7 @@
       <c r="M673" s="3"/>
       <c r="N673" s="3"/>
       <c r="O673" s="3"/>
-      <c r="P673" s="6"/>
+      <c r="P673" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="17.25">
       <c r="A674" s="3"/>
@@ -12825,7 +12819,7 @@
       <c r="M674" s="3"/>
       <c r="N674" s="3"/>
       <c r="O674" s="3"/>
-      <c r="P674" s="6"/>
+      <c r="P674" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="17.25">
       <c r="A675" s="3"/>
@@ -12843,7 +12837,7 @@
       <c r="M675" s="3"/>
       <c r="N675" s="3"/>
       <c r="O675" s="3"/>
-      <c r="P675" s="6"/>
+      <c r="P675" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="17.25">
       <c r="A676" s="3"/>
@@ -12861,7 +12855,7 @@
       <c r="M676" s="3"/>
       <c r="N676" s="3"/>
       <c r="O676" s="3"/>
-      <c r="P676" s="6"/>
+      <c r="P676" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="17.25">
       <c r="A677" s="3"/>
@@ -12879,7 +12873,7 @@
       <c r="M677" s="3"/>
       <c r="N677" s="3"/>
       <c r="O677" s="3"/>
-      <c r="P677" s="6"/>
+      <c r="P677" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="17.25">
       <c r="A678" s="3"/>
@@ -12897,7 +12891,7 @@
       <c r="M678" s="3"/>
       <c r="N678" s="3"/>
       <c r="O678" s="3"/>
-      <c r="P678" s="6"/>
+      <c r="P678" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="17.25">
       <c r="A679" s="3"/>
@@ -12915,7 +12909,7 @@
       <c r="M679" s="3"/>
       <c r="N679" s="3"/>
       <c r="O679" s="3"/>
-      <c r="P679" s="6"/>
+      <c r="P679" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="17.25">
       <c r="A680" s="3"/>
@@ -12933,7 +12927,7 @@
       <c r="M680" s="3"/>
       <c r="N680" s="3"/>
       <c r="O680" s="3"/>
-      <c r="P680" s="6"/>
+      <c r="P680" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="17.25">
       <c r="A681" s="3"/>
@@ -12951,7 +12945,7 @@
       <c r="M681" s="3"/>
       <c r="N681" s="3"/>
       <c r="O681" s="3"/>
-      <c r="P681" s="6"/>
+      <c r="P681" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="17.25">
       <c r="A682" s="3"/>
@@ -12969,7 +12963,7 @@
       <c r="M682" s="3"/>
       <c r="N682" s="3"/>
       <c r="O682" s="3"/>
-      <c r="P682" s="6"/>
+      <c r="P682" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="17.25">
       <c r="A683" s="3"/>
@@ -12987,7 +12981,7 @@
       <c r="M683" s="3"/>
       <c r="N683" s="3"/>
       <c r="O683" s="3"/>
-      <c r="P683" s="6"/>
+      <c r="P683" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="17.25">
       <c r="A684" s="3"/>
@@ -13005,7 +12999,7 @@
       <c r="M684" s="3"/>
       <c r="N684" s="3"/>
       <c r="O684" s="3"/>
-      <c r="P684" s="6"/>
+      <c r="P684" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="17.25">
       <c r="A685" s="3"/>
@@ -13023,7 +13017,7 @@
       <c r="M685" s="3"/>
       <c r="N685" s="3"/>
       <c r="O685" s="3"/>
-      <c r="P685" s="6"/>
+      <c r="P685" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="17.25">
       <c r="A686" s="3"/>
@@ -13041,7 +13035,7 @@
       <c r="M686" s="3"/>
       <c r="N686" s="3"/>
       <c r="O686" s="3"/>
-      <c r="P686" s="6"/>
+      <c r="P686" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="17.25">
       <c r="A687" s="3"/>
@@ -13059,7 +13053,7 @@
       <c r="M687" s="3"/>
       <c r="N687" s="3"/>
       <c r="O687" s="3"/>
-      <c r="P687" s="6"/>
+      <c r="P687" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="17.25">
       <c r="A688" s="3"/>
@@ -13077,7 +13071,7 @@
       <c r="M688" s="3"/>
       <c r="N688" s="3"/>
       <c r="O688" s="3"/>
-      <c r="P688" s="6"/>
+      <c r="P688" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="17.25">
       <c r="A689" s="3"/>
@@ -13095,7 +13089,7 @@
       <c r="M689" s="3"/>
       <c r="N689" s="3"/>
       <c r="O689" s="3"/>
-      <c r="P689" s="6"/>
+      <c r="P689" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="17.25">
       <c r="A690" s="3"/>
@@ -13113,7 +13107,7 @@
       <c r="M690" s="3"/>
       <c r="N690" s="3"/>
       <c r="O690" s="3"/>
-      <c r="P690" s="6"/>
+      <c r="P690" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="17.25">
       <c r="A691" s="3"/>
@@ -13131,7 +13125,7 @@
       <c r="M691" s="3"/>
       <c r="N691" s="3"/>
       <c r="O691" s="3"/>
-      <c r="P691" s="6"/>
+      <c r="P691" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="17.25">
       <c r="A692" s="3"/>
@@ -13149,7 +13143,7 @@
       <c r="M692" s="3"/>
       <c r="N692" s="3"/>
       <c r="O692" s="3"/>
-      <c r="P692" s="6"/>
+      <c r="P692" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="17.25">
       <c r="A693" s="3"/>
@@ -13167,7 +13161,7 @@
       <c r="M693" s="3"/>
       <c r="N693" s="3"/>
       <c r="O693" s="3"/>
-      <c r="P693" s="6"/>
+      <c r="P693" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="17.25">
       <c r="A694" s="3"/>
@@ -13185,7 +13179,7 @@
       <c r="M694" s="3"/>
       <c r="N694" s="3"/>
       <c r="O694" s="3"/>
-      <c r="P694" s="6"/>
+      <c r="P694" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="17.25">
       <c r="A695" s="3"/>
@@ -13203,7 +13197,7 @@
       <c r="M695" s="3"/>
       <c r="N695" s="3"/>
       <c r="O695" s="3"/>
-      <c r="P695" s="6"/>
+      <c r="P695" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="17.25">
       <c r="A696" s="3"/>
@@ -13221,7 +13215,7 @@
       <c r="M696" s="3"/>
       <c r="N696" s="3"/>
       <c r="O696" s="3"/>
-      <c r="P696" s="6"/>
+      <c r="P696" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="17.25">
       <c r="A697" s="3"/>
@@ -13239,7 +13233,7 @@
       <c r="M697" s="3"/>
       <c r="N697" s="3"/>
       <c r="O697" s="3"/>
-      <c r="P697" s="6"/>
+      <c r="P697" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="17.25">
       <c r="A698" s="3"/>
@@ -13257,7 +13251,7 @@
       <c r="M698" s="3"/>
       <c r="N698" s="3"/>
       <c r="O698" s="3"/>
-      <c r="P698" s="6"/>
+      <c r="P698" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="17.25">
       <c r="A699" s="3"/>
@@ -13275,7 +13269,7 @@
       <c r="M699" s="3"/>
       <c r="N699" s="3"/>
       <c r="O699" s="3"/>
-      <c r="P699" s="6"/>
+      <c r="P699" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="17.25">
       <c r="A700" s="3"/>
@@ -13293,7 +13287,7 @@
       <c r="M700" s="3"/>
       <c r="N700" s="3"/>
       <c r="O700" s="3"/>
-      <c r="P700" s="6"/>
+      <c r="P700" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="17.25">
       <c r="A701" s="3"/>
@@ -13311,7 +13305,7 @@
       <c r="M701" s="3"/>
       <c r="N701" s="3"/>
       <c r="O701" s="3"/>
-      <c r="P701" s="6"/>
+      <c r="P701" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="17.25">
       <c r="A702" s="3"/>
@@ -13329,7 +13323,7 @@
       <c r="M702" s="3"/>
       <c r="N702" s="3"/>
       <c r="O702" s="3"/>
-      <c r="P702" s="6"/>
+      <c r="P702" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="17.25">
       <c r="A703" s="3"/>
@@ -13347,7 +13341,7 @@
       <c r="M703" s="3"/>
       <c r="N703" s="3"/>
       <c r="O703" s="3"/>
-      <c r="P703" s="6"/>
+      <c r="P703" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="17.25">
       <c r="A704" s="3"/>
@@ -13365,7 +13359,7 @@
       <c r="M704" s="3"/>
       <c r="N704" s="3"/>
       <c r="O704" s="3"/>
-      <c r="P704" s="6"/>
+      <c r="P704" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="17.25">
       <c r="A705" s="3"/>
@@ -13383,7 +13377,7 @@
       <c r="M705" s="3"/>
       <c r="N705" s="3"/>
       <c r="O705" s="3"/>
-      <c r="P705" s="6"/>
+      <c r="P705" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="17.25">
       <c r="A706" s="3"/>
@@ -13401,7 +13395,7 @@
       <c r="M706" s="3"/>
       <c r="N706" s="3"/>
       <c r="O706" s="3"/>
-      <c r="P706" s="6"/>
+      <c r="P706" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="17.25">
       <c r="A707" s="3"/>
@@ -13419,7 +13413,7 @@
       <c r="M707" s="3"/>
       <c r="N707" s="3"/>
       <c r="O707" s="3"/>
-      <c r="P707" s="6"/>
+      <c r="P707" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="17.25">
       <c r="A708" s="3"/>
@@ -13437,7 +13431,7 @@
       <c r="M708" s="3"/>
       <c r="N708" s="3"/>
       <c r="O708" s="3"/>
-      <c r="P708" s="6"/>
+      <c r="P708" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="17.25">
       <c r="A709" s="3"/>
@@ -13455,7 +13449,7 @@
       <c r="M709" s="3"/>
       <c r="N709" s="3"/>
       <c r="O709" s="3"/>
-      <c r="P709" s="6"/>
+      <c r="P709" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="17.25">
       <c r="A710" s="3"/>
@@ -13473,7 +13467,7 @@
       <c r="M710" s="3"/>
       <c r="N710" s="3"/>
       <c r="O710" s="3"/>
-      <c r="P710" s="6"/>
+      <c r="P710" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="17.25">
       <c r="A711" s="3"/>
@@ -13491,7 +13485,7 @@
       <c r="M711" s="3"/>
       <c r="N711" s="3"/>
       <c r="O711" s="3"/>
-      <c r="P711" s="6"/>
+      <c r="P711" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="17.25">
       <c r="A712" s="3"/>
@@ -13509,7 +13503,7 @@
       <c r="M712" s="3"/>
       <c r="N712" s="3"/>
       <c r="O712" s="3"/>
-      <c r="P712" s="6"/>
+      <c r="P712" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="17.25">
       <c r="A713" s="3"/>
@@ -13527,7 +13521,7 @@
       <c r="M713" s="3"/>
       <c r="N713" s="3"/>
       <c r="O713" s="3"/>
-      <c r="P713" s="6"/>
+      <c r="P713" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="17.25">
       <c r="A714" s="3"/>
@@ -13545,7 +13539,7 @@
       <c r="M714" s="3"/>
       <c r="N714" s="3"/>
       <c r="O714" s="3"/>
-      <c r="P714" s="6"/>
+      <c r="P714" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="17.25">
       <c r="A715" s="3"/>
@@ -13563,7 +13557,7 @@
       <c r="M715" s="3"/>
       <c r="N715" s="3"/>
       <c r="O715" s="3"/>
-      <c r="P715" s="6"/>
+      <c r="P715" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="17.25">
       <c r="A716" s="3"/>
@@ -13581,7 +13575,7 @@
       <c r="M716" s="3"/>
       <c r="N716" s="3"/>
       <c r="O716" s="3"/>
-      <c r="P716" s="6"/>
+      <c r="P716" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="17.25">
       <c r="A717" s="3"/>
@@ -13599,7 +13593,7 @@
       <c r="M717" s="3"/>
       <c r="N717" s="3"/>
       <c r="O717" s="3"/>
-      <c r="P717" s="6"/>
+      <c r="P717" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="17.25">
       <c r="A718" s="3"/>
@@ -13617,7 +13611,7 @@
       <c r="M718" s="3"/>
       <c r="N718" s="3"/>
       <c r="O718" s="3"/>
-      <c r="P718" s="6"/>
+      <c r="P718" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="17.25">
       <c r="A719" s="3"/>
@@ -13635,7 +13629,7 @@
       <c r="M719" s="3"/>
       <c r="N719" s="3"/>
       <c r="O719" s="3"/>
-      <c r="P719" s="6"/>
+      <c r="P719" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="17.25">
       <c r="A720" s="3"/>
@@ -13653,7 +13647,7 @@
       <c r="M720" s="3"/>
       <c r="N720" s="3"/>
       <c r="O720" s="3"/>
-      <c r="P720" s="6"/>
+      <c r="P720" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="17.25">
       <c r="A721" s="3"/>
@@ -13671,7 +13665,7 @@
       <c r="M721" s="3"/>
       <c r="N721" s="3"/>
       <c r="O721" s="3"/>
-      <c r="P721" s="6"/>
+      <c r="P721" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="17.25">
       <c r="A722" s="3"/>
@@ -13689,7 +13683,7 @@
       <c r="M722" s="3"/>
       <c r="N722" s="3"/>
       <c r="O722" s="3"/>
-      <c r="P722" s="6"/>
+      <c r="P722" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="17.25">
       <c r="A723" s="3"/>
@@ -13707,7 +13701,7 @@
       <c r="M723" s="3"/>
       <c r="N723" s="3"/>
       <c r="O723" s="3"/>
-      <c r="P723" s="6"/>
+      <c r="P723" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="17.25">
       <c r="A724" s="3"/>
@@ -13725,7 +13719,7 @@
       <c r="M724" s="3"/>
       <c r="N724" s="3"/>
       <c r="O724" s="3"/>
-      <c r="P724" s="6"/>
+      <c r="P724" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="17.25">
       <c r="A725" s="3"/>
@@ -13743,7 +13737,7 @@
       <c r="M725" s="3"/>
       <c r="N725" s="3"/>
       <c r="O725" s="3"/>
-      <c r="P725" s="6"/>
+      <c r="P725" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="17.25">
       <c r="A726" s="3"/>
@@ -13761,7 +13755,7 @@
       <c r="M726" s="3"/>
       <c r="N726" s="3"/>
       <c r="O726" s="3"/>
-      <c r="P726" s="6"/>
+      <c r="P726" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="17.25">
       <c r="A727" s="3"/>
@@ -13779,7 +13773,7 @@
       <c r="M727" s="3"/>
       <c r="N727" s="3"/>
       <c r="O727" s="3"/>
-      <c r="P727" s="6"/>
+      <c r="P727" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="17.25">
       <c r="A728" s="3"/>
@@ -13797,7 +13791,7 @@
       <c r="M728" s="3"/>
       <c r="N728" s="3"/>
       <c r="O728" s="3"/>
-      <c r="P728" s="6"/>
+      <c r="P728" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="17.25">
       <c r="A729" s="3"/>
@@ -13815,7 +13809,7 @@
       <c r="M729" s="3"/>
       <c r="N729" s="3"/>
       <c r="O729" s="3"/>
-      <c r="P729" s="6"/>
+      <c r="P729" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="17.25">
       <c r="A730" s="3"/>
@@ -13833,7 +13827,7 @@
       <c r="M730" s="3"/>
       <c r="N730" s="3"/>
       <c r="O730" s="3"/>
-      <c r="P730" s="6"/>
+      <c r="P730" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="17.25">
       <c r="A731" s="3"/>
@@ -13851,7 +13845,7 @@
       <c r="M731" s="3"/>
       <c r="N731" s="3"/>
       <c r="O731" s="3"/>
-      <c r="P731" s="6"/>
+      <c r="P731" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="17.25">
       <c r="A732" s="3"/>
@@ -13869,7 +13863,7 @@
       <c r="M732" s="3"/>
       <c r="N732" s="3"/>
       <c r="O732" s="3"/>
-      <c r="P732" s="6"/>
+      <c r="P732" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="17.25">
       <c r="A733" s="3"/>
@@ -13887,7 +13881,7 @@
       <c r="M733" s="3"/>
       <c r="N733" s="3"/>
       <c r="O733" s="3"/>
-      <c r="P733" s="6"/>
+      <c r="P733" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="17.25">
       <c r="A734" s="3"/>
@@ -13905,7 +13899,7 @@
       <c r="M734" s="3"/>
       <c r="N734" s="3"/>
       <c r="O734" s="3"/>
-      <c r="P734" s="6"/>
+      <c r="P734" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="17.25">
       <c r="A735" s="3"/>
@@ -13923,7 +13917,7 @@
       <c r="M735" s="3"/>
       <c r="N735" s="3"/>
       <c r="O735" s="3"/>
-      <c r="P735" s="6"/>
+      <c r="P735" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="17.25">
       <c r="A736" s="3"/>
@@ -13941,7 +13935,7 @@
       <c r="M736" s="3"/>
       <c r="N736" s="3"/>
       <c r="O736" s="3"/>
-      <c r="P736" s="6"/>
+      <c r="P736" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="17.25">
       <c r="A737" s="3"/>
@@ -13959,7 +13953,7 @@
       <c r="M737" s="3"/>
       <c r="N737" s="3"/>
       <c r="O737" s="3"/>
-      <c r="P737" s="6"/>
+      <c r="P737" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="17.25">
       <c r="A738" s="3"/>
@@ -13977,7 +13971,7 @@
       <c r="M738" s="3"/>
       <c r="N738" s="3"/>
       <c r="O738" s="3"/>
-      <c r="P738" s="6"/>
+      <c r="P738" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="17.25">
       <c r="A739" s="3"/>
@@ -13995,7 +13989,7 @@
       <c r="M739" s="3"/>
       <c r="N739" s="3"/>
       <c r="O739" s="3"/>
-      <c r="P739" s="6"/>
+      <c r="P739" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="17.25">
       <c r="A740" s="3"/>
@@ -14013,7 +14007,7 @@
       <c r="M740" s="3"/>
       <c r="N740" s="3"/>
       <c r="O740" s="3"/>
-      <c r="P740" s="6"/>
+      <c r="P740" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="17.25">
       <c r="A741" s="3"/>
@@ -14031,7 +14025,7 @@
       <c r="M741" s="3"/>
       <c r="N741" s="3"/>
       <c r="O741" s="3"/>
-      <c r="P741" s="6"/>
+      <c r="P741" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="17.25">
       <c r="A742" s="3"/>
@@ -14049,7 +14043,7 @@
       <c r="M742" s="3"/>
       <c r="N742" s="3"/>
       <c r="O742" s="3"/>
-      <c r="P742" s="6"/>
+      <c r="P742" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="17.25">
       <c r="A743" s="3"/>
@@ -14067,7 +14061,7 @@
       <c r="M743" s="3"/>
       <c r="N743" s="3"/>
       <c r="O743" s="3"/>
-      <c r="P743" s="6"/>
+      <c r="P743" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="17.25">
       <c r="A744" s="3"/>
@@ -14085,7 +14079,7 @@
       <c r="M744" s="3"/>
       <c r="N744" s="3"/>
       <c r="O744" s="3"/>
-      <c r="P744" s="6"/>
+      <c r="P744" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="17.25">
       <c r="A745" s="3"/>
@@ -14103,7 +14097,7 @@
       <c r="M745" s="3"/>
       <c r="N745" s="3"/>
       <c r="O745" s="3"/>
-      <c r="P745" s="6"/>
+      <c r="P745" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="17.25">
       <c r="A746" s="3"/>
@@ -14121,7 +14115,7 @@
       <c r="M746" s="3"/>
       <c r="N746" s="3"/>
       <c r="O746" s="3"/>
-      <c r="P746" s="6"/>
+      <c r="P746" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="17.25">
       <c r="A747" s="3"/>
@@ -14139,7 +14133,7 @@
       <c r="M747" s="3"/>
       <c r="N747" s="3"/>
       <c r="O747" s="3"/>
-      <c r="P747" s="6"/>
+      <c r="P747" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="17.25">
       <c r="A748" s="3"/>
@@ -14157,7 +14151,7 @@
       <c r="M748" s="3"/>
       <c r="N748" s="3"/>
       <c r="O748" s="3"/>
-      <c r="P748" s="6"/>
+      <c r="P748" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="17.25">
       <c r="A749" s="3"/>
@@ -14175,7 +14169,7 @@
       <c r="M749" s="3"/>
       <c r="N749" s="3"/>
       <c r="O749" s="3"/>
-      <c r="P749" s="6"/>
+      <c r="P749" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="17.25">
       <c r="A750" s="3"/>
@@ -14193,7 +14187,7 @@
       <c r="M750" s="3"/>
       <c r="N750" s="3"/>
       <c r="O750" s="3"/>
-      <c r="P750" s="6"/>
+      <c r="P750" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="17.25">
       <c r="A751" s="3"/>
@@ -14211,7 +14205,7 @@
       <c r="M751" s="3"/>
       <c r="N751" s="3"/>
       <c r="O751" s="3"/>
-      <c r="P751" s="6"/>
+      <c r="P751" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="17.25">
       <c r="A752" s="3"/>
@@ -14229,7 +14223,7 @@
       <c r="M752" s="3"/>
       <c r="N752" s="3"/>
       <c r="O752" s="3"/>
-      <c r="P752" s="6"/>
+      <c r="P752" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="17.25">
       <c r="A753" s="3"/>
@@ -14247,7 +14241,7 @@
       <c r="M753" s="3"/>
       <c r="N753" s="3"/>
       <c r="O753" s="3"/>
-      <c r="P753" s="6"/>
+      <c r="P753" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="17.25">
       <c r="A754" s="3"/>
@@ -14265,7 +14259,7 @@
       <c r="M754" s="3"/>
       <c r="N754" s="3"/>
       <c r="O754" s="3"/>
-      <c r="P754" s="6"/>
+      <c r="P754" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="17.25">
       <c r="A755" s="3"/>
@@ -14283,7 +14277,7 @@
       <c r="M755" s="3"/>
       <c r="N755" s="3"/>
       <c r="O755" s="3"/>
-      <c r="P755" s="6"/>
+      <c r="P755" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="17.25">
       <c r="A756" s="3"/>
@@ -14301,7 +14295,7 @@
       <c r="M756" s="3"/>
       <c r="N756" s="3"/>
       <c r="O756" s="3"/>
-      <c r="P756" s="6"/>
+      <c r="P756" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="17.25">
       <c r="A757" s="3"/>
@@ -14319,7 +14313,7 @@
       <c r="M757" s="3"/>
       <c r="N757" s="3"/>
       <c r="O757" s="3"/>
-      <c r="P757" s="6"/>
+      <c r="P757" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="17.25">
       <c r="A758" s="3"/>
@@ -14337,7 +14331,7 @@
       <c r="M758" s="3"/>
       <c r="N758" s="3"/>
       <c r="O758" s="3"/>
-      <c r="P758" s="6"/>
+      <c r="P758" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="17.25">
       <c r="A759" s="3"/>
@@ -14355,7 +14349,7 @@
       <c r="M759" s="3"/>
       <c r="N759" s="3"/>
       <c r="O759" s="3"/>
-      <c r="P759" s="6"/>
+      <c r="P759" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="17.25">
       <c r="A760" s="3"/>
@@ -14373,7 +14367,7 @@
       <c r="M760" s="3"/>
       <c r="N760" s="3"/>
       <c r="O760" s="3"/>
-      <c r="P760" s="6"/>
+      <c r="P760" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="17.25">
       <c r="A761" s="3"/>
@@ -14391,7 +14385,7 @@
       <c r="M761" s="3"/>
       <c r="N761" s="3"/>
       <c r="O761" s="3"/>
-      <c r="P761" s="6"/>
+      <c r="P761" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="17.25">
       <c r="A762" s="3"/>
@@ -14409,7 +14403,7 @@
       <c r="M762" s="3"/>
       <c r="N762" s="3"/>
       <c r="O762" s="3"/>
-      <c r="P762" s="6"/>
+      <c r="P762" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="17.25">
       <c r="A763" s="3"/>
@@ -14427,7 +14421,7 @@
       <c r="M763" s="3"/>
       <c r="N763" s="3"/>
       <c r="O763" s="3"/>
-      <c r="P763" s="6"/>
+      <c r="P763" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="17.25">
       <c r="A764" s="3"/>
@@ -14445,7 +14439,7 @@
       <c r="M764" s="3"/>
       <c r="N764" s="3"/>
       <c r="O764" s="3"/>
-      <c r="P764" s="6"/>
+      <c r="P764" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="17.25">
       <c r="A765" s="3"/>
@@ -14463,7 +14457,7 @@
       <c r="M765" s="3"/>
       <c r="N765" s="3"/>
       <c r="O765" s="3"/>
-      <c r="P765" s="6"/>
+      <c r="P765" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="17.25">
       <c r="A766" s="3"/>
@@ -14481,7 +14475,7 @@
       <c r="M766" s="3"/>
       <c r="N766" s="3"/>
       <c r="O766" s="3"/>
-      <c r="P766" s="6"/>
+      <c r="P766" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="17.25">
       <c r="A767" s="3"/>
@@ -14499,7 +14493,7 @@
       <c r="M767" s="3"/>
       <c r="N767" s="3"/>
       <c r="O767" s="3"/>
-      <c r="P767" s="6"/>
+      <c r="P767" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="17.25">
       <c r="A768" s="3"/>
@@ -14517,7 +14511,7 @@
       <c r="M768" s="3"/>
       <c r="N768" s="3"/>
       <c r="O768" s="3"/>
-      <c r="P768" s="6"/>
+      <c r="P768" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="17.25">
       <c r="A769" s="3"/>
@@ -14535,7 +14529,7 @@
       <c r="M769" s="3"/>
       <c r="N769" s="3"/>
       <c r="O769" s="3"/>
-      <c r="P769" s="6"/>
+      <c r="P769" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="17.25">
       <c r="A770" s="3"/>
@@ -14553,7 +14547,7 @@
       <c r="M770" s="3"/>
       <c r="N770" s="3"/>
       <c r="O770" s="3"/>
-      <c r="P770" s="6"/>
+      <c r="P770" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="17.25">
       <c r="A771" s="3"/>
@@ -14571,7 +14565,7 @@
       <c r="M771" s="3"/>
       <c r="N771" s="3"/>
       <c r="O771" s="3"/>
-      <c r="P771" s="6"/>
+      <c r="P771" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="17.25">
       <c r="A772" s="3"/>
@@ -14589,7 +14583,7 @@
       <c r="M772" s="3"/>
       <c r="N772" s="3"/>
       <c r="O772" s="3"/>
-      <c r="P772" s="6"/>
+      <c r="P772" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="17.25">
       <c r="A773" s="3"/>
@@ -14607,7 +14601,7 @@
       <c r="M773" s="3"/>
       <c r="N773" s="3"/>
       <c r="O773" s="3"/>
-      <c r="P773" s="6"/>
+      <c r="P773" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="17.25">
       <c r="A774" s="3"/>
@@ -14625,7 +14619,7 @@
       <c r="M774" s="3"/>
       <c r="N774" s="3"/>
       <c r="O774" s="3"/>
-      <c r="P774" s="6"/>
+      <c r="P774" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="17.25">
       <c r="A775" s="3"/>
@@ -14643,7 +14637,7 @@
       <c r="M775" s="3"/>
       <c r="N775" s="3"/>
       <c r="O775" s="3"/>
-      <c r="P775" s="6"/>
+      <c r="P775" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="17.25">
       <c r="A776" s="3"/>
@@ -14661,7 +14655,7 @@
       <c r="M776" s="3"/>
       <c r="N776" s="3"/>
       <c r="O776" s="3"/>
-      <c r="P776" s="6"/>
+      <c r="P776" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="17.25">
       <c r="A777" s="3"/>
@@ -14679,7 +14673,7 @@
       <c r="M777" s="3"/>
       <c r="N777" s="3"/>
       <c r="O777" s="3"/>
-      <c r="P777" s="6"/>
+      <c r="P777" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="17.25">
       <c r="A778" s="3"/>
@@ -14697,7 +14691,7 @@
       <c r="M778" s="3"/>
       <c r="N778" s="3"/>
       <c r="O778" s="3"/>
-      <c r="P778" s="6"/>
+      <c r="P778" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="17.25">
       <c r="A779" s="3"/>
@@ -14715,7 +14709,7 @@
       <c r="M779" s="3"/>
       <c r="N779" s="3"/>
       <c r="O779" s="3"/>
-      <c r="P779" s="6"/>
+      <c r="P779" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="17.25">
       <c r="A780" s="3"/>
@@ -14733,7 +14727,7 @@
       <c r="M780" s="3"/>
       <c r="N780" s="3"/>
       <c r="O780" s="3"/>
-      <c r="P780" s="6"/>
+      <c r="P780" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="17.25">
       <c r="A781" s="3"/>
@@ -14751,7 +14745,7 @@
       <c r="M781" s="3"/>
       <c r="N781" s="3"/>
       <c r="O781" s="3"/>
-      <c r="P781" s="6"/>
+      <c r="P781" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="17.25">
       <c r="A782" s="3"/>
@@ -14769,7 +14763,7 @@
       <c r="M782" s="3"/>
       <c r="N782" s="3"/>
       <c r="O782" s="3"/>
-      <c r="P782" s="6"/>
+      <c r="P782" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="17.25">
       <c r="A783" s="3"/>
@@ -14787,7 +14781,7 @@
       <c r="M783" s="3"/>
       <c r="N783" s="3"/>
       <c r="O783" s="3"/>
-      <c r="P783" s="6"/>
+      <c r="P783" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="17.25">
       <c r="A784" s="3"/>
@@ -14805,7 +14799,7 @@
       <c r="M784" s="3"/>
       <c r="N784" s="3"/>
       <c r="O784" s="3"/>
-      <c r="P784" s="6"/>
+      <c r="P784" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="17.25">
       <c r="A785" s="3"/>
@@ -14823,7 +14817,7 @@
       <c r="M785" s="3"/>
       <c r="N785" s="3"/>
       <c r="O785" s="3"/>
-      <c r="P785" s="6"/>
+      <c r="P785" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="17.25">
       <c r="A786" s="3"/>
@@ -14841,7 +14835,7 @@
       <c r="M786" s="3"/>
       <c r="N786" s="3"/>
       <c r="O786" s="3"/>
-      <c r="P786" s="6"/>
+      <c r="P786" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="17.25">
       <c r="A787" s="3"/>
@@ -14859,7 +14853,7 @@
       <c r="M787" s="3"/>
       <c r="N787" s="3"/>
       <c r="O787" s="3"/>
-      <c r="P787" s="6"/>
+      <c r="P787" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="17.25">
       <c r="A788" s="3"/>
@@ -14877,7 +14871,7 @@
       <c r="M788" s="3"/>
       <c r="N788" s="3"/>
       <c r="O788" s="3"/>
-      <c r="P788" s="6"/>
+      <c r="P788" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="17.25">
       <c r="A789" s="3"/>
@@ -14895,7 +14889,7 @@
       <c r="M789" s="3"/>
       <c r="N789" s="3"/>
       <c r="O789" s="3"/>
-      <c r="P789" s="6"/>
+      <c r="P789" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="17.25">
       <c r="A790" s="3"/>
@@ -14913,7 +14907,7 @@
       <c r="M790" s="3"/>
       <c r="N790" s="3"/>
       <c r="O790" s="3"/>
-      <c r="P790" s="6"/>
+      <c r="P790" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="17.25">
       <c r="A791" s="3"/>
@@ -14931,7 +14925,7 @@
       <c r="M791" s="3"/>
       <c r="N791" s="3"/>
       <c r="O791" s="3"/>
-      <c r="P791" s="6"/>
+      <c r="P791" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="17.25">
       <c r="A792" s="3"/>
@@ -14949,7 +14943,7 @@
       <c r="M792" s="3"/>
       <c r="N792" s="3"/>
       <c r="O792" s="3"/>
-      <c r="P792" s="6"/>
+      <c r="P792" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="17.25">
       <c r="A793" s="3"/>
@@ -14967,7 +14961,7 @@
       <c r="M793" s="3"/>
       <c r="N793" s="3"/>
       <c r="O793" s="3"/>
-      <c r="P793" s="6"/>
+      <c r="P793" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="17.25">
       <c r="A794" s="3"/>
@@ -14985,7 +14979,7 @@
       <c r="M794" s="3"/>
       <c r="N794" s="3"/>
       <c r="O794" s="3"/>
-      <c r="P794" s="6"/>
+      <c r="P794" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="17.25">
       <c r="A795" s="3"/>
@@ -15003,7 +14997,7 @@
       <c r="M795" s="3"/>
       <c r="N795" s="3"/>
       <c r="O795" s="3"/>
-      <c r="P795" s="6"/>
+      <c r="P795" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="17.25">
       <c r="A796" s="3"/>
@@ -15021,7 +15015,7 @@
       <c r="M796" s="3"/>
       <c r="N796" s="3"/>
       <c r="O796" s="3"/>
-      <c r="P796" s="6"/>
+      <c r="P796" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="17.25">
       <c r="A797" s="3"/>
@@ -15039,7 +15033,7 @@
       <c r="M797" s="3"/>
       <c r="N797" s="3"/>
       <c r="O797" s="3"/>
-      <c r="P797" s="6"/>
+      <c r="P797" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="17.25">
       <c r="A798" s="3"/>
@@ -15057,7 +15051,7 @@
       <c r="M798" s="3"/>
       <c r="N798" s="3"/>
       <c r="O798" s="3"/>
-      <c r="P798" s="6"/>
+      <c r="P798" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="17.25">
       <c r="A799" s="3"/>
@@ -15075,7 +15069,7 @@
       <c r="M799" s="3"/>
       <c r="N799" s="3"/>
       <c r="O799" s="3"/>
-      <c r="P799" s="6"/>
+      <c r="P799" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="17.25">
       <c r="A800" s="3"/>
@@ -15093,7 +15087,7 @@
       <c r="M800" s="3"/>
       <c r="N800" s="3"/>
       <c r="O800" s="3"/>
-      <c r="P800" s="6"/>
+      <c r="P800" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="17.25">
       <c r="A801" s="3"/>
@@ -15111,7 +15105,7 @@
       <c r="M801" s="3"/>
       <c r="N801" s="3"/>
       <c r="O801" s="3"/>
-      <c r="P801" s="6"/>
+      <c r="P801" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="17.25">
       <c r="A802" s="3"/>
@@ -15129,7 +15123,7 @@
       <c r="M802" s="3"/>
       <c r="N802" s="3"/>
       <c r="O802" s="3"/>
-      <c r="P802" s="6"/>
+      <c r="P802" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="17.25">
       <c r="A803" s="3"/>
@@ -15147,7 +15141,7 @@
       <c r="M803" s="3"/>
       <c r="N803" s="3"/>
       <c r="O803" s="3"/>
-      <c r="P803" s="6"/>
+      <c r="P803" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="17.25">
       <c r="A804" s="3"/>
@@ -15165,7 +15159,7 @@
       <c r="M804" s="3"/>
       <c r="N804" s="3"/>
       <c r="O804" s="3"/>
-      <c r="P804" s="6"/>
+      <c r="P804" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="17.25">
       <c r="A805" s="3"/>
@@ -15183,7 +15177,7 @@
       <c r="M805" s="3"/>
       <c r="N805" s="3"/>
       <c r="O805" s="3"/>
-      <c r="P805" s="6"/>
+      <c r="P805" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="17.25">
       <c r="A806" s="3"/>
@@ -15201,7 +15195,7 @@
       <c r="M806" s="3"/>
       <c r="N806" s="3"/>
       <c r="O806" s="3"/>
-      <c r="P806" s="6"/>
+      <c r="P806" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="17.25">
       <c r="A807" s="3"/>
@@ -15219,7 +15213,7 @@
       <c r="M807" s="3"/>
       <c r="N807" s="3"/>
       <c r="O807" s="3"/>
-      <c r="P807" s="6"/>
+      <c r="P807" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="17.25">
       <c r="A808" s="3"/>
@@ -15237,7 +15231,7 @@
       <c r="M808" s="3"/>
       <c r="N808" s="3"/>
       <c r="O808" s="3"/>
-      <c r="P808" s="6"/>
+      <c r="P808" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="17.25">
       <c r="A809" s="3"/>
@@ -15255,7 +15249,7 @@
       <c r="M809" s="3"/>
       <c r="N809" s="3"/>
       <c r="O809" s="3"/>
-      <c r="P809" s="6"/>
+      <c r="P809" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="17.25">
       <c r="A810" s="3"/>
@@ -15273,7 +15267,7 @@
       <c r="M810" s="3"/>
       <c r="N810" s="3"/>
       <c r="O810" s="3"/>
-      <c r="P810" s="6"/>
+      <c r="P810" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="17.25">
       <c r="A811" s="3"/>
@@ -15291,7 +15285,7 @@
       <c r="M811" s="3"/>
       <c r="N811" s="3"/>
       <c r="O811" s="3"/>
-      <c r="P811" s="6"/>
+      <c r="P811" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="17.25">
       <c r="A812" s="3"/>
@@ -15309,7 +15303,7 @@
       <c r="M812" s="3"/>
       <c r="N812" s="3"/>
       <c r="O812" s="3"/>
-      <c r="P812" s="6"/>
+      <c r="P812" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="17.25">
       <c r="A813" s="3"/>
@@ -15327,7 +15321,7 @@
       <c r="M813" s="3"/>
       <c r="N813" s="3"/>
       <c r="O813" s="3"/>
-      <c r="P813" s="6"/>
+      <c r="P813" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="17.25">
       <c r="A814" s="3"/>
@@ -15345,7 +15339,7 @@
       <c r="M814" s="3"/>
       <c r="N814" s="3"/>
       <c r="O814" s="3"/>
-      <c r="P814" s="6"/>
+      <c r="P814" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="17.25">
       <c r="A815" s="3"/>
@@ -15363,7 +15357,7 @@
       <c r="M815" s="3"/>
       <c r="N815" s="3"/>
       <c r="O815" s="3"/>
-      <c r="P815" s="6"/>
+      <c r="P815" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="17.25">
       <c r="A816" s="3"/>
@@ -15381,7 +15375,7 @@
       <c r="M816" s="3"/>
       <c r="N816" s="3"/>
       <c r="O816" s="3"/>
-      <c r="P816" s="6"/>
+      <c r="P816" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="17.25">
       <c r="A817" s="3"/>
@@ -15399,7 +15393,7 @@
       <c r="M817" s="3"/>
       <c r="N817" s="3"/>
       <c r="O817" s="3"/>
-      <c r="P817" s="6"/>
+      <c r="P817" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="17.25">
       <c r="A818" s="3"/>
@@ -15417,7 +15411,7 @@
       <c r="M818" s="3"/>
       <c r="N818" s="3"/>
       <c r="O818" s="3"/>
-      <c r="P818" s="6"/>
+      <c r="P818" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="17.25">
       <c r="A819" s="3"/>
@@ -15435,7 +15429,7 @@
       <c r="M819" s="3"/>
       <c r="N819" s="3"/>
       <c r="O819" s="3"/>
-      <c r="P819" s="6"/>
+      <c r="P819" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="17.25">
       <c r="A820" s="3"/>
@@ -15453,7 +15447,7 @@
       <c r="M820" s="3"/>
       <c r="N820" s="3"/>
       <c r="O820" s="3"/>
-      <c r="P820" s="6"/>
+      <c r="P820" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="17.25">
       <c r="A821" s="3"/>
@@ -15471,7 +15465,7 @@
       <c r="M821" s="3"/>
       <c r="N821" s="3"/>
       <c r="O821" s="3"/>
-      <c r="P821" s="6"/>
+      <c r="P821" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="17.25">
       <c r="A822" s="3"/>
@@ -15489,7 +15483,7 @@
       <c r="M822" s="3"/>
       <c r="N822" s="3"/>
       <c r="O822" s="3"/>
-      <c r="P822" s="6"/>
+      <c r="P822" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="17.25">
       <c r="A823" s="3"/>
@@ -15507,7 +15501,7 @@
       <c r="M823" s="3"/>
       <c r="N823" s="3"/>
       <c r="O823" s="3"/>
-      <c r="P823" s="6"/>
+      <c r="P823" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="17.25">
       <c r="A824" s="3"/>
@@ -15525,7 +15519,7 @@
       <c r="M824" s="3"/>
       <c r="N824" s="3"/>
       <c r="O824" s="3"/>
-      <c r="P824" s="6"/>
+      <c r="P824" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="17.25">
       <c r="A825" s="3"/>
@@ -15543,7 +15537,7 @@
       <c r="M825" s="3"/>
       <c r="N825" s="3"/>
       <c r="O825" s="3"/>
-      <c r="P825" s="6"/>
+      <c r="P825" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="17.25">
       <c r="A826" s="3"/>
@@ -15561,7 +15555,7 @@
       <c r="M826" s="3"/>
       <c r="N826" s="3"/>
       <c r="O826" s="3"/>
-      <c r="P826" s="6"/>
+      <c r="P826" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="17.25">
       <c r="A827" s="3"/>
@@ -15579,7 +15573,7 @@
       <c r="M827" s="3"/>
       <c r="N827" s="3"/>
       <c r="O827" s="3"/>
-      <c r="P827" s="6"/>
+      <c r="P827" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="17.25">
       <c r="A828" s="3"/>
@@ -15597,7 +15591,7 @@
       <c r="M828" s="3"/>
       <c r="N828" s="3"/>
       <c r="O828" s="3"/>
-      <c r="P828" s="6"/>
+      <c r="P828" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="17.25">
       <c r="A829" s="3"/>
@@ -15615,7 +15609,7 @@
       <c r="M829" s="3"/>
       <c r="N829" s="3"/>
       <c r="O829" s="3"/>
-      <c r="P829" s="6"/>
+      <c r="P829" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="17.25">
       <c r="A830" s="3"/>
@@ -15633,7 +15627,7 @@
       <c r="M830" s="3"/>
       <c r="N830" s="3"/>
       <c r="O830" s="3"/>
-      <c r="P830" s="6"/>
+      <c r="P830" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="17.25">
       <c r="A831" s="3"/>
@@ -15651,7 +15645,7 @@
       <c r="M831" s="3"/>
       <c r="N831" s="3"/>
       <c r="O831" s="3"/>
-      <c r="P831" s="6"/>
+      <c r="P831" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="17.25">
       <c r="A832" s="3"/>
@@ -15669,7 +15663,7 @@
       <c r="M832" s="3"/>
       <c r="N832" s="3"/>
       <c r="O832" s="3"/>
-      <c r="P832" s="6"/>
+      <c r="P832" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="17.25">
       <c r="A833" s="3"/>
@@ -15687,7 +15681,7 @@
       <c r="M833" s="3"/>
       <c r="N833" s="3"/>
       <c r="O833" s="3"/>
-      <c r="P833" s="6"/>
+      <c r="P833" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="17.25">
       <c r="A834" s="3"/>
@@ -15705,7 +15699,7 @@
       <c r="M834" s="3"/>
       <c r="N834" s="3"/>
       <c r="O834" s="3"/>
-      <c r="P834" s="6"/>
+      <c r="P834" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="17.25">
       <c r="A835" s="3"/>
@@ -15723,7 +15717,7 @@
       <c r="M835" s="3"/>
       <c r="N835" s="3"/>
       <c r="O835" s="3"/>
-      <c r="P835" s="6"/>
+      <c r="P835" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="17.25">
       <c r="A836" s="3"/>
@@ -15741,7 +15735,7 @@
       <c r="M836" s="3"/>
       <c r="N836" s="3"/>
       <c r="O836" s="3"/>
-      <c r="P836" s="6"/>
+      <c r="P836" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="17.25">
       <c r="A837" s="3"/>
@@ -15759,7 +15753,7 @@
       <c r="M837" s="3"/>
       <c r="N837" s="3"/>
       <c r="O837" s="3"/>
-      <c r="P837" s="6"/>
+      <c r="P837" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="17.25">
       <c r="A838" s="3"/>
@@ -15777,7 +15771,7 @@
       <c r="M838" s="3"/>
       <c r="N838" s="3"/>
       <c r="O838" s="3"/>
-      <c r="P838" s="6"/>
+      <c r="P838" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="17.25">
       <c r="A839" s="3"/>
@@ -15795,7 +15789,7 @@
       <c r="M839" s="3"/>
       <c r="N839" s="3"/>
       <c r="O839" s="3"/>
-      <c r="P839" s="6"/>
+      <c r="P839" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="17.25">
       <c r="A840" s="3"/>
@@ -15813,7 +15807,7 @@
       <c r="M840" s="3"/>
       <c r="N840" s="3"/>
       <c r="O840" s="3"/>
-      <c r="P840" s="6"/>
+      <c r="P840" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="17.25">
       <c r="A841" s="3"/>
@@ -15831,7 +15825,7 @@
       <c r="M841" s="3"/>
       <c r="N841" s="3"/>
       <c r="O841" s="3"/>
-      <c r="P841" s="6"/>
+      <c r="P841" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="17.25">
       <c r="A842" s="3"/>
@@ -15849,7 +15843,7 @@
       <c r="M842" s="3"/>
       <c r="N842" s="3"/>
       <c r="O842" s="3"/>
-      <c r="P842" s="6"/>
+      <c r="P842" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="17.25">
       <c r="A843" s="3"/>
@@ -15867,7 +15861,7 @@
       <c r="M843" s="3"/>
       <c r="N843" s="3"/>
       <c r="O843" s="3"/>
-      <c r="P843" s="6"/>
+      <c r="P843" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="17.25">
       <c r="A844" s="3"/>
@@ -15885,7 +15879,7 @@
       <c r="M844" s="3"/>
       <c r="N844" s="3"/>
       <c r="O844" s="3"/>
-      <c r="P844" s="6"/>
+      <c r="P844" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="17.25">
       <c r="A845" s="3"/>
@@ -15903,7 +15897,7 @@
       <c r="M845" s="3"/>
       <c r="N845" s="3"/>
       <c r="O845" s="3"/>
-      <c r="P845" s="6"/>
+      <c r="P845" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="17.25">
       <c r="A846" s="3"/>
@@ -15921,7 +15915,7 @@
       <c r="M846" s="3"/>
       <c r="N846" s="3"/>
       <c r="O846" s="3"/>
-      <c r="P846" s="6"/>
+      <c r="P846" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="17.25">
       <c r="A847" s="3"/>
@@ -15939,7 +15933,7 @@
       <c r="M847" s="3"/>
       <c r="N847" s="3"/>
       <c r="O847" s="3"/>
-      <c r="P847" s="6"/>
+      <c r="P847" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="17.25">
       <c r="A848" s="3"/>
@@ -15957,7 +15951,7 @@
       <c r="M848" s="3"/>
       <c r="N848" s="3"/>
       <c r="O848" s="3"/>
-      <c r="P848" s="6"/>
+      <c r="P848" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="17.25">
       <c r="A849" s="3"/>
@@ -15975,7 +15969,7 @@
       <c r="M849" s="3"/>
       <c r="N849" s="3"/>
       <c r="O849" s="3"/>
-      <c r="P849" s="6"/>
+      <c r="P849" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="17.25">
       <c r="A850" s="3"/>
@@ -15993,7 +15987,7 @@
       <c r="M850" s="3"/>
       <c r="N850" s="3"/>
       <c r="O850" s="3"/>
-      <c r="P850" s="6"/>
+      <c r="P850" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="17.25">
       <c r="A851" s="3"/>
@@ -16011,7 +16005,7 @@
       <c r="M851" s="3"/>
       <c r="N851" s="3"/>
       <c r="O851" s="3"/>
-      <c r="P851" s="6"/>
+      <c r="P851" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="17.25">
       <c r="A852" s="3"/>
@@ -16029,7 +16023,7 @@
       <c r="M852" s="3"/>
       <c r="N852" s="3"/>
       <c r="O852" s="3"/>
-      <c r="P852" s="6"/>
+      <c r="P852" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="17.25">
       <c r="A853" s="3"/>
@@ -16047,7 +16041,7 @@
       <c r="M853" s="3"/>
       <c r="N853" s="3"/>
       <c r="O853" s="3"/>
-      <c r="P853" s="6"/>
+      <c r="P853" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="17.25">
       <c r="A854" s="3"/>
@@ -16065,7 +16059,7 @@
       <c r="M854" s="3"/>
       <c r="N854" s="3"/>
       <c r="O854" s="3"/>
-      <c r="P854" s="6"/>
+      <c r="P854" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="17.25">
       <c r="A855" s="3"/>
@@ -16083,7 +16077,7 @@
       <c r="M855" s="3"/>
       <c r="N855" s="3"/>
       <c r="O855" s="3"/>
-      <c r="P855" s="6"/>
+      <c r="P855" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="17.25">
       <c r="A856" s="3"/>
@@ -16101,7 +16095,7 @@
       <c r="M856" s="3"/>
       <c r="N856" s="3"/>
       <c r="O856" s="3"/>
-      <c r="P856" s="6"/>
+      <c r="P856" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="17.25">
       <c r="A857" s="3"/>
@@ -16119,7 +16113,7 @@
       <c r="M857" s="3"/>
       <c r="N857" s="3"/>
       <c r="O857" s="3"/>
-      <c r="P857" s="6"/>
+      <c r="P857" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="17.25">
       <c r="A858" s="3"/>
@@ -16137,7 +16131,7 @@
       <c r="M858" s="3"/>
       <c r="N858" s="3"/>
       <c r="O858" s="3"/>
-      <c r="P858" s="6"/>
+      <c r="P858" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="17.25">
       <c r="A859" s="3"/>
@@ -16155,7 +16149,7 @@
       <c r="M859" s="3"/>
       <c r="N859" s="3"/>
       <c r="O859" s="3"/>
-      <c r="P859" s="6"/>
+      <c r="P859" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="17.25">
       <c r="A860" s="3"/>
@@ -16173,7 +16167,7 @@
       <c r="M860" s="3"/>
       <c r="N860" s="3"/>
       <c r="O860" s="3"/>
-      <c r="P860" s="6"/>
+      <c r="P860" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="17.25">
       <c r="A861" s="3"/>
@@ -16191,7 +16185,7 @@
       <c r="M861" s="3"/>
       <c r="N861" s="3"/>
       <c r="O861" s="3"/>
-      <c r="P861" s="6"/>
+      <c r="P861" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="17.25">
       <c r="A862" s="3"/>
@@ -16209,7 +16203,7 @@
       <c r="M862" s="3"/>
       <c r="N862" s="3"/>
       <c r="O862" s="3"/>
-      <c r="P862" s="6"/>
+      <c r="P862" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="17.25">
       <c r="A863" s="3"/>
@@ -16227,7 +16221,7 @@
       <c r="M863" s="3"/>
       <c r="N863" s="3"/>
       <c r="O863" s="3"/>
-      <c r="P863" s="6"/>
+      <c r="P863" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="17.25">
       <c r="A864" s="3"/>
@@ -16245,7 +16239,7 @@
       <c r="M864" s="3"/>
       <c r="N864" s="3"/>
       <c r="O864" s="3"/>
-      <c r="P864" s="6"/>
+      <c r="P864" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="17.25">
       <c r="A865" s="3"/>
@@ -16263,7 +16257,7 @@
       <c r="M865" s="3"/>
       <c r="N865" s="3"/>
       <c r="O865" s="3"/>
-      <c r="P865" s="6"/>
+      <c r="P865" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="17.25">
       <c r="A866" s="3"/>
@@ -16281,7 +16275,7 @@
       <c r="M866" s="3"/>
       <c r="N866" s="3"/>
       <c r="O866" s="3"/>
-      <c r="P866" s="6"/>
+      <c r="P866" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="17.25">
       <c r="A867" s="3"/>
@@ -16299,7 +16293,7 @@
       <c r="M867" s="3"/>
       <c r="N867" s="3"/>
       <c r="O867" s="3"/>
-      <c r="P867" s="6"/>
+      <c r="P867" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="17.25">
       <c r="A868" s="3"/>
@@ -16317,7 +16311,7 @@
       <c r="M868" s="3"/>
       <c r="N868" s="3"/>
       <c r="O868" s="3"/>
-      <c r="P868" s="6"/>
+      <c r="P868" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="17.25">
       <c r="A869" s="3"/>
@@ -16335,7 +16329,7 @@
       <c r="M869" s="3"/>
       <c r="N869" s="3"/>
       <c r="O869" s="3"/>
-      <c r="P869" s="6"/>
+      <c r="P869" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="17.25">
       <c r="A870" s="3"/>
@@ -16353,7 +16347,7 @@
       <c r="M870" s="3"/>
       <c r="N870" s="3"/>
       <c r="O870" s="3"/>
-      <c r="P870" s="6"/>
+      <c r="P870" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="17.25">
       <c r="A871" s="3"/>
@@ -16371,7 +16365,7 @@
       <c r="M871" s="3"/>
       <c r="N871" s="3"/>
       <c r="O871" s="3"/>
-      <c r="P871" s="6"/>
+      <c r="P871" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="17.25">
       <c r="A872" s="3"/>
@@ -16389,7 +16383,7 @@
       <c r="M872" s="3"/>
       <c r="N872" s="3"/>
       <c r="O872" s="3"/>
-      <c r="P872" s="6"/>
+      <c r="P872" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="17.25">
       <c r="A873" s="3"/>
@@ -16407,7 +16401,7 @@
       <c r="M873" s="3"/>
       <c r="N873" s="3"/>
       <c r="O873" s="3"/>
-      <c r="P873" s="6"/>
+      <c r="P873" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="17.25">
       <c r="A874" s="3"/>
@@ -16425,7 +16419,7 @@
       <c r="M874" s="3"/>
       <c r="N874" s="3"/>
       <c r="O874" s="3"/>
-      <c r="P874" s="6"/>
+      <c r="P874" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="17.25">
       <c r="A875" s="3"/>
@@ -16443,7 +16437,7 @@
       <c r="M875" s="3"/>
       <c r="N875" s="3"/>
       <c r="O875" s="3"/>
-      <c r="P875" s="6"/>
+      <c r="P875" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="17.25">
       <c r="A876" s="3"/>
@@ -16461,7 +16455,7 @@
       <c r="M876" s="3"/>
       <c r="N876" s="3"/>
       <c r="O876" s="3"/>
-      <c r="P876" s="6"/>
+      <c r="P876" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="17.25">
       <c r="A877" s="3"/>
@@ -16479,7 +16473,7 @@
       <c r="M877" s="3"/>
       <c r="N877" s="3"/>
       <c r="O877" s="3"/>
-      <c r="P877" s="6"/>
+      <c r="P877" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="17.25">
       <c r="A878" s="3"/>
@@ -16497,7 +16491,7 @@
       <c r="M878" s="3"/>
       <c r="N878" s="3"/>
       <c r="O878" s="3"/>
-      <c r="P878" s="6"/>
+      <c r="P878" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="17.25">
       <c r="A879" s="3"/>
@@ -16515,7 +16509,7 @@
       <c r="M879" s="3"/>
       <c r="N879" s="3"/>
       <c r="O879" s="3"/>
-      <c r="P879" s="6"/>
+      <c r="P879" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="17.25">
       <c r="A880" s="3"/>
@@ -16533,7 +16527,7 @@
       <c r="M880" s="3"/>
       <c r="N880" s="3"/>
       <c r="O880" s="3"/>
-      <c r="P880" s="6"/>
+      <c r="P880" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="17.25">
       <c r="A881" s="3"/>
@@ -16551,7 +16545,7 @@
       <c r="M881" s="3"/>
       <c r="N881" s="3"/>
       <c r="O881" s="3"/>
-      <c r="P881" s="6"/>
+      <c r="P881" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="17.25">
       <c r="A882" s="3"/>
@@ -16569,7 +16563,7 @@
       <c r="M882" s="3"/>
       <c r="N882" s="3"/>
       <c r="O882" s="3"/>
-      <c r="P882" s="6"/>
+      <c r="P882" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="17.25">
       <c r="A883" s="3"/>
@@ -16587,7 +16581,7 @@
       <c r="M883" s="3"/>
       <c r="N883" s="3"/>
       <c r="O883" s="3"/>
-      <c r="P883" s="6"/>
+      <c r="P883" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="17.25">
       <c r="A884" s="3"/>
@@ -16605,7 +16599,7 @@
       <c r="M884" s="3"/>
       <c r="N884" s="3"/>
       <c r="O884" s="3"/>
-      <c r="P884" s="6"/>
+      <c r="P884" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="17.25">
       <c r="A885" s="3"/>
@@ -16623,7 +16617,7 @@
       <c r="M885" s="3"/>
       <c r="N885" s="3"/>
       <c r="O885" s="3"/>
-      <c r="P885" s="6"/>
+      <c r="P885" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="17.25">
       <c r="A886" s="3"/>
@@ -16641,7 +16635,7 @@
       <c r="M886" s="3"/>
       <c r="N886" s="3"/>
       <c r="O886" s="3"/>
-      <c r="P886" s="6"/>
+      <c r="P886" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="17.25">
       <c r="A887" s="3"/>
@@ -16659,7 +16653,7 @@
       <c r="M887" s="3"/>
       <c r="N887" s="3"/>
       <c r="O887" s="3"/>
-      <c r="P887" s="6"/>
+      <c r="P887" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="17.25">
       <c r="A888" s="3"/>
@@ -16677,7 +16671,7 @@
       <c r="M888" s="3"/>
       <c r="N888" s="3"/>
       <c r="O888" s="3"/>
-      <c r="P888" s="6"/>
+      <c r="P888" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="17.25">
       <c r="A889" s="3"/>
@@ -16695,7 +16689,7 @@
       <c r="M889" s="3"/>
       <c r="N889" s="3"/>
       <c r="O889" s="3"/>
-      <c r="P889" s="6"/>
+      <c r="P889" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="17.25">
       <c r="A890" s="3"/>
@@ -16713,7 +16707,7 @@
       <c r="M890" s="3"/>
       <c r="N890" s="3"/>
       <c r="O890" s="3"/>
-      <c r="P890" s="6"/>
+      <c r="P890" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="17.25">
       <c r="A891" s="3"/>
@@ -16731,7 +16725,7 @@
       <c r="M891" s="3"/>
       <c r="N891" s="3"/>
       <c r="O891" s="3"/>
-      <c r="P891" s="6"/>
+      <c r="P891" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="17.25">
       <c r="A892" s="3"/>
@@ -16749,7 +16743,7 @@
       <c r="M892" s="3"/>
       <c r="N892" s="3"/>
       <c r="O892" s="3"/>
-      <c r="P892" s="6"/>
+      <c r="P892" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="17.25">
       <c r="A893" s="3"/>
@@ -16767,7 +16761,7 @@
       <c r="M893" s="3"/>
       <c r="N893" s="3"/>
       <c r="O893" s="3"/>
-      <c r="P893" s="6"/>
+      <c r="P893" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="17.25">
       <c r="A894" s="3"/>
@@ -16785,7 +16779,7 @@
       <c r="M894" s="3"/>
       <c r="N894" s="3"/>
       <c r="O894" s="3"/>
-      <c r="P894" s="6"/>
+      <c r="P894" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="17.25">
       <c r="A895" s="3"/>
@@ -16803,7 +16797,7 @@
       <c r="M895" s="3"/>
       <c r="N895" s="3"/>
       <c r="O895" s="3"/>
-      <c r="P895" s="6"/>
+      <c r="P895" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="17.25">
       <c r="A896" s="3"/>
@@ -16821,7 +16815,7 @@
       <c r="M896" s="3"/>
       <c r="N896" s="3"/>
       <c r="O896" s="3"/>
-      <c r="P896" s="6"/>
+      <c r="P896" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="17.25">
       <c r="A897" s="3"/>
@@ -16839,7 +16833,7 @@
       <c r="M897" s="3"/>
       <c r="N897" s="3"/>
       <c r="O897" s="3"/>
-      <c r="P897" s="6"/>
+      <c r="P897" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="17.25">
       <c r="A898" s="3"/>
@@ -16857,7 +16851,7 @@
       <c r="M898" s="3"/>
       <c r="N898" s="3"/>
       <c r="O898" s="3"/>
-      <c r="P898" s="6"/>
+      <c r="P898" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="17.25">
       <c r="A899" s="3"/>
@@ -16875,7 +16869,7 @@
       <c r="M899" s="3"/>
       <c r="N899" s="3"/>
       <c r="O899" s="3"/>
-      <c r="P899" s="6"/>
+      <c r="P899" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="17.25">
       <c r="A900" s="3"/>
@@ -16893,7 +16887,7 @@
       <c r="M900" s="3"/>
       <c r="N900" s="3"/>
       <c r="O900" s="3"/>
-      <c r="P900" s="6"/>
+      <c r="P900" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="17.25">
       <c r="A901" s="3"/>
@@ -16911,7 +16905,7 @@
       <c r="M901" s="3"/>
       <c r="N901" s="3"/>
       <c r="O901" s="3"/>
-      <c r="P901" s="6"/>
+      <c r="P901" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="17.25">
       <c r="A902" s="3"/>
@@ -16929,7 +16923,7 @@
       <c r="M902" s="3"/>
       <c r="N902" s="3"/>
       <c r="O902" s="3"/>
-      <c r="P902" s="6"/>
+      <c r="P902" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="17.25">
       <c r="A903" s="3"/>
@@ -16947,7 +16941,7 @@
       <c r="M903" s="3"/>
       <c r="N903" s="3"/>
       <c r="O903" s="3"/>
-      <c r="P903" s="6"/>
+      <c r="P903" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="17.25">
       <c r="A904" s="3"/>
@@ -16965,7 +16959,7 @@
       <c r="M904" s="3"/>
       <c r="N904" s="3"/>
       <c r="O904" s="3"/>
-      <c r="P904" s="6"/>
+      <c r="P904" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="17.25">
       <c r="A905" s="3"/>
@@ -16983,7 +16977,7 @@
       <c r="M905" s="3"/>
       <c r="N905" s="3"/>
       <c r="O905" s="3"/>
-      <c r="P905" s="6"/>
+      <c r="P905" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="17.25">
       <c r="A906" s="3"/>
@@ -17001,7 +16995,7 @@
       <c r="M906" s="3"/>
       <c r="N906" s="3"/>
       <c r="O906" s="3"/>
-      <c r="P906" s="6"/>
+      <c r="P906" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="17.25">
       <c r="A907" s="3"/>
@@ -17019,7 +17013,7 @@
       <c r="M907" s="3"/>
       <c r="N907" s="3"/>
       <c r="O907" s="3"/>
-      <c r="P907" s="6"/>
+      <c r="P907" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="17.25">
       <c r="A908" s="3"/>
@@ -17037,7 +17031,7 @@
       <c r="M908" s="3"/>
       <c r="N908" s="3"/>
       <c r="O908" s="3"/>
-      <c r="P908" s="6"/>
+      <c r="P908" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="17.25">
       <c r="A909" s="3"/>
@@ -17055,7 +17049,7 @@
       <c r="M909" s="3"/>
       <c r="N909" s="3"/>
       <c r="O909" s="3"/>
-      <c r="P909" s="6"/>
+      <c r="P909" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="17.25">
       <c r="A910" s="3"/>
@@ -17073,7 +17067,7 @@
       <c r="M910" s="3"/>
       <c r="N910" s="3"/>
       <c r="O910" s="3"/>
-      <c r="P910" s="6"/>
+      <c r="P910" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="17.25">
       <c r="A911" s="3"/>
@@ -17091,7 +17085,7 @@
       <c r="M911" s="3"/>
       <c r="N911" s="3"/>
       <c r="O911" s="3"/>
-      <c r="P911" s="6"/>
+      <c r="P911" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="17.25">
       <c r="A912" s="3"/>
@@ -17109,7 +17103,7 @@
       <c r="M912" s="3"/>
       <c r="N912" s="3"/>
       <c r="O912" s="3"/>
-      <c r="P912" s="6"/>
+      <c r="P912" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="17.25">
       <c r="A913" s="3"/>
@@ -17127,7 +17121,7 @@
       <c r="M913" s="3"/>
       <c r="N913" s="3"/>
       <c r="O913" s="3"/>
-      <c r="P913" s="6"/>
+      <c r="P913" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="17.25">
       <c r="A914" s="3"/>
@@ -17145,7 +17139,7 @@
       <c r="M914" s="3"/>
       <c r="N914" s="3"/>
       <c r="O914" s="3"/>
-      <c r="P914" s="6"/>
+      <c r="P914" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="17.25">
       <c r="A915" s="3"/>
@@ -17163,7 +17157,7 @@
       <c r="M915" s="3"/>
       <c r="N915" s="3"/>
       <c r="O915" s="3"/>
-      <c r="P915" s="6"/>
+      <c r="P915" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="17.25">
       <c r="A916" s="3"/>
@@ -17181,7 +17175,7 @@
       <c r="M916" s="3"/>
       <c r="N916" s="3"/>
       <c r="O916" s="3"/>
-      <c r="P916" s="6"/>
+      <c r="P916" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="17.25">
       <c r="A917" s="3"/>
@@ -17199,7 +17193,7 @@
       <c r="M917" s="3"/>
       <c r="N917" s="3"/>
       <c r="O917" s="3"/>
-      <c r="P917" s="6"/>
+      <c r="P917" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="17.25">
       <c r="A918" s="3"/>
@@ -17217,7 +17211,7 @@
       <c r="M918" s="3"/>
       <c r="N918" s="3"/>
       <c r="O918" s="3"/>
-      <c r="P918" s="6"/>
+      <c r="P918" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="17.25">
       <c r="A919" s="3"/>
@@ -17235,7 +17229,7 @@
       <c r="M919" s="3"/>
       <c r="N919" s="3"/>
       <c r="O919" s="3"/>
-      <c r="P919" s="6"/>
+      <c r="P919" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="17.25">
       <c r="A920" s="3"/>
@@ -17253,7 +17247,7 @@
       <c r="M920" s="3"/>
       <c r="N920" s="3"/>
       <c r="O920" s="3"/>
-      <c r="P920" s="6"/>
+      <c r="P920" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="17.25">
       <c r="A921" s="3"/>
@@ -17271,7 +17265,7 @@
       <c r="M921" s="3"/>
       <c r="N921" s="3"/>
       <c r="O921" s="3"/>
-      <c r="P921" s="6"/>
+      <c r="P921" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="17.25">
       <c r="A922" s="3"/>
@@ -17289,7 +17283,7 @@
       <c r="M922" s="3"/>
       <c r="N922" s="3"/>
       <c r="O922" s="3"/>
-      <c r="P922" s="6"/>
+      <c r="P922" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="17.25">
       <c r="A923" s="3"/>
@@ -17307,7 +17301,7 @@
       <c r="M923" s="3"/>
       <c r="N923" s="3"/>
       <c r="O923" s="3"/>
-      <c r="P923" s="6"/>
+      <c r="P923" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="17.25">
       <c r="A924" s="3"/>
@@ -17325,7 +17319,7 @@
       <c r="M924" s="3"/>
       <c r="N924" s="3"/>
       <c r="O924" s="3"/>
-      <c r="P924" s="6"/>
+      <c r="P924" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="17.25">
       <c r="A925" s="3"/>
@@ -17343,7 +17337,7 @@
       <c r="M925" s="3"/>
       <c r="N925" s="3"/>
       <c r="O925" s="3"/>
-      <c r="P925" s="6"/>
+      <c r="P925" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="17.25">
       <c r="A926" s="3"/>
@@ -17361,7 +17355,7 @@
       <c r="M926" s="3"/>
       <c r="N926" s="3"/>
       <c r="O926" s="3"/>
-      <c r="P926" s="6"/>
+      <c r="P926" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="17.25">
       <c r="A927" s="3"/>
@@ -17379,7 +17373,7 @@
       <c r="M927" s="3"/>
       <c r="N927" s="3"/>
       <c r="O927" s="3"/>
-      <c r="P927" s="6"/>
+      <c r="P927" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="17.25">
       <c r="A928" s="3"/>
@@ -17397,7 +17391,7 @@
       <c r="M928" s="3"/>
       <c r="N928" s="3"/>
       <c r="O928" s="3"/>
-      <c r="P928" s="6"/>
+      <c r="P928" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="17.25">
       <c r="A929" s="3"/>
@@ -17415,7 +17409,7 @@
       <c r="M929" s="3"/>
       <c r="N929" s="3"/>
       <c r="O929" s="3"/>
-      <c r="P929" s="6"/>
+      <c r="P929" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="17.25">
       <c r="A930" s="3"/>
@@ -17433,7 +17427,7 @@
       <c r="M930" s="3"/>
       <c r="N930" s="3"/>
       <c r="O930" s="3"/>
-      <c r="P930" s="6"/>
+      <c r="P930" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="17.25">
       <c r="A931" s="3"/>
@@ -17451,7 +17445,7 @@
       <c r="M931" s="3"/>
       <c r="N931" s="3"/>
       <c r="O931" s="3"/>
-      <c r="P931" s="6"/>
+      <c r="P931" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="17.25">
       <c r="A932" s="3"/>
@@ -17469,7 +17463,7 @@
       <c r="M932" s="3"/>
       <c r="N932" s="3"/>
       <c r="O932" s="3"/>
-      <c r="P932" s="6"/>
+      <c r="P932" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="17.25">
       <c r="A933" s="3"/>
@@ -17487,7 +17481,7 @@
       <c r="M933" s="3"/>
       <c r="N933" s="3"/>
       <c r="O933" s="3"/>
-      <c r="P933" s="6"/>
+      <c r="P933" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="17.25">
       <c r="A934" s="3"/>
@@ -17505,7 +17499,7 @@
       <c r="M934" s="3"/>
       <c r="N934" s="3"/>
       <c r="O934" s="3"/>
-      <c r="P934" s="6"/>
+      <c r="P934" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="17.25">
       <c r="A935" s="3"/>
@@ -17523,7 +17517,7 @@
       <c r="M935" s="3"/>
       <c r="N935" s="3"/>
       <c r="O935" s="3"/>
-      <c r="P935" s="6"/>
+      <c r="P935" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="17.25">
       <c r="A936" s="3"/>
@@ -17541,7 +17535,7 @@
       <c r="M936" s="3"/>
       <c r="N936" s="3"/>
       <c r="O936" s="3"/>
-      <c r="P936" s="6"/>
+      <c r="P936" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="17.25">
       <c r="A937" s="3"/>
@@ -17559,7 +17553,7 @@
       <c r="M937" s="3"/>
       <c r="N937" s="3"/>
       <c r="O937" s="3"/>
-      <c r="P937" s="6"/>
+      <c r="P937" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="17.25">
       <c r="A938" s="3"/>
@@ -17577,7 +17571,7 @@
       <c r="M938" s="3"/>
       <c r="N938" s="3"/>
       <c r="O938" s="3"/>
-      <c r="P938" s="6"/>
+      <c r="P938" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="17.25">
       <c r="A939" s="3"/>
@@ -17595,7 +17589,7 @@
       <c r="M939" s="3"/>
       <c r="N939" s="3"/>
       <c r="O939" s="3"/>
-      <c r="P939" s="6"/>
+      <c r="P939" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="17.25">
       <c r="A940" s="3"/>
@@ -17613,7 +17607,7 @@
       <c r="M940" s="3"/>
       <c r="N940" s="3"/>
       <c r="O940" s="3"/>
-      <c r="P940" s="6"/>
+      <c r="P940" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="17.25">
       <c r="A941" s="3"/>
@@ -17631,7 +17625,7 @@
       <c r="M941" s="3"/>
       <c r="N941" s="3"/>
       <c r="O941" s="3"/>
-      <c r="P941" s="6"/>
+      <c r="P941" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="17.25">
       <c r="A942" s="3"/>
@@ -17649,7 +17643,7 @@
       <c r="M942" s="3"/>
       <c r="N942" s="3"/>
       <c r="O942" s="3"/>
-      <c r="P942" s="6"/>
+      <c r="P942" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="17.25">
       <c r="A943" s="3"/>
@@ -17667,7 +17661,7 @@
       <c r="M943" s="3"/>
       <c r="N943" s="3"/>
       <c r="O943" s="3"/>
-      <c r="P943" s="6"/>
+      <c r="P943" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="17.25">
       <c r="A944" s="3"/>
@@ -17685,7 +17679,7 @@
       <c r="M944" s="3"/>
       <c r="N944" s="3"/>
       <c r="O944" s="3"/>
-      <c r="P944" s="6"/>
+      <c r="P944" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="17.25">
       <c r="A945" s="3"/>
@@ -17703,7 +17697,7 @@
       <c r="M945" s="3"/>
       <c r="N945" s="3"/>
       <c r="O945" s="3"/>
-      <c r="P945" s="6"/>
+      <c r="P945" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="17.25">
       <c r="A946" s="3"/>
@@ -17721,7 +17715,7 @@
       <c r="M946" s="3"/>
       <c r="N946" s="3"/>
       <c r="O946" s="3"/>
-      <c r="P946" s="6"/>
+      <c r="P946" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="17.25">
       <c r="A947" s="3"/>
@@ -17739,7 +17733,7 @@
       <c r="M947" s="3"/>
       <c r="N947" s="3"/>
       <c r="O947" s="3"/>
-      <c r="P947" s="6"/>
+      <c r="P947" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="17.25">
       <c r="A948" s="3"/>
@@ -17757,7 +17751,7 @@
       <c r="M948" s="3"/>
       <c r="N948" s="3"/>
       <c r="O948" s="3"/>
-      <c r="P948" s="6"/>
+      <c r="P948" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="17.25">
       <c r="A949" s="3"/>
@@ -17775,7 +17769,7 @@
       <c r="M949" s="3"/>
       <c r="N949" s="3"/>
       <c r="O949" s="3"/>
-      <c r="P949" s="6"/>
+      <c r="P949" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="17.25">
       <c r="A950" s="3"/>
@@ -17793,7 +17787,7 @@
       <c r="M950" s="3"/>
       <c r="N950" s="3"/>
       <c r="O950" s="3"/>
-      <c r="P950" s="6"/>
+      <c r="P950" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="17.25">
       <c r="A951" s="3"/>
@@ -17811,7 +17805,7 @@
       <c r="M951" s="3"/>
       <c r="N951" s="3"/>
       <c r="O951" s="3"/>
-      <c r="P951" s="6"/>
+      <c r="P951" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="17.25">
       <c r="A952" s="3"/>
@@ -17829,7 +17823,7 @@
       <c r="M952" s="3"/>
       <c r="N952" s="3"/>
       <c r="O952" s="3"/>
-      <c r="P952" s="6"/>
+      <c r="P952" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="17.25">
       <c r="A953" s="3"/>
@@ -17847,7 +17841,7 @@
       <c r="M953" s="3"/>
       <c r="N953" s="3"/>
       <c r="O953" s="3"/>
-      <c r="P953" s="6"/>
+      <c r="P953" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="17.25">
       <c r="A954" s="3"/>
@@ -17865,7 +17859,7 @@
       <c r="M954" s="3"/>
       <c r="N954" s="3"/>
       <c r="O954" s="3"/>
-      <c r="P954" s="6"/>
+      <c r="P954" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="17.25">
       <c r="A955" s="3"/>
@@ -17883,7 +17877,7 @@
       <c r="M955" s="3"/>
       <c r="N955" s="3"/>
       <c r="O955" s="3"/>
-      <c r="P955" s="6"/>
+      <c r="P955" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="17.25">
       <c r="A956" s="3"/>
@@ -17901,7 +17895,7 @@
       <c r="M956" s="3"/>
       <c r="N956" s="3"/>
       <c r="O956" s="3"/>
-      <c r="P956" s="6"/>
+      <c r="P956" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="17.25">
       <c r="A957" s="3"/>
@@ -17919,7 +17913,7 @@
       <c r="M957" s="3"/>
       <c r="N957" s="3"/>
       <c r="O957" s="3"/>
-      <c r="P957" s="6"/>
+      <c r="P957" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="17.25">
       <c r="A958" s="3"/>
@@ -17937,7 +17931,7 @@
       <c r="M958" s="3"/>
       <c r="N958" s="3"/>
       <c r="O958" s="3"/>
-      <c r="P958" s="6"/>
+      <c r="P958" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="17.25">
       <c r="A959" s="3"/>
@@ -17955,7 +17949,7 @@
       <c r="M959" s="3"/>
       <c r="N959" s="3"/>
       <c r="O959" s="3"/>
-      <c r="P959" s="6"/>
+      <c r="P959" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="17.25">
       <c r="A960" s="3"/>
@@ -17973,7 +17967,7 @@
       <c r="M960" s="3"/>
       <c r="N960" s="3"/>
       <c r="O960" s="3"/>
-      <c r="P960" s="6"/>
+      <c r="P960" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="17.25">
       <c r="A961" s="3"/>
@@ -17991,7 +17985,7 @@
       <c r="M961" s="3"/>
       <c r="N961" s="3"/>
       <c r="O961" s="3"/>
-      <c r="P961" s="6"/>
+      <c r="P961" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="17.25">
       <c r="A962" s="3"/>
@@ -18009,7 +18003,7 @@
       <c r="M962" s="3"/>
       <c r="N962" s="3"/>
       <c r="O962" s="3"/>
-      <c r="P962" s="6"/>
+      <c r="P962" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="17.25">
       <c r="A963" s="3"/>
@@ -18027,7 +18021,7 @@
       <c r="M963" s="3"/>
       <c r="N963" s="3"/>
       <c r="O963" s="3"/>
-      <c r="P963" s="6"/>
+      <c r="P963" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="17.25">
       <c r="A964" s="3"/>
@@ -18045,7 +18039,7 @@
       <c r="M964" s="3"/>
       <c r="N964" s="3"/>
       <c r="O964" s="3"/>
-      <c r="P964" s="6"/>
+      <c r="P964" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="17.25">
       <c r="A965" s="3"/>
@@ -18063,7 +18057,7 @@
       <c r="M965" s="3"/>
       <c r="N965" s="3"/>
       <c r="O965" s="3"/>
-      <c r="P965" s="6"/>
+      <c r="P965" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="17.25">
       <c r="A966" s="3"/>
@@ -18081,7 +18075,7 @@
       <c r="M966" s="3"/>
       <c r="N966" s="3"/>
       <c r="O966" s="3"/>
-      <c r="P966" s="6"/>
+      <c r="P966" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="17.25">
       <c r="A967" s="3"/>
@@ -18099,7 +18093,7 @@
       <c r="M967" s="3"/>
       <c r="N967" s="3"/>
       <c r="O967" s="3"/>
-      <c r="P967" s="6"/>
+      <c r="P967" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="17.25">
       <c r="A968" s="3"/>
@@ -18117,7 +18111,7 @@
       <c r="M968" s="3"/>
       <c r="N968" s="3"/>
       <c r="O968" s="3"/>
-      <c r="P968" s="6"/>
+      <c r="P968" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="17.25">
       <c r="A969" s="3"/>
@@ -18135,7 +18129,7 @@
       <c r="M969" s="3"/>
       <c r="N969" s="3"/>
       <c r="O969" s="3"/>
-      <c r="P969" s="6"/>
+      <c r="P969" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="17.25">
       <c r="A970" s="3"/>
@@ -18153,7 +18147,7 @@
       <c r="M970" s="3"/>
       <c r="N970" s="3"/>
       <c r="O970" s="3"/>
-      <c r="P970" s="6"/>
+      <c r="P970" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="17.25">
       <c r="A971" s="3"/>
@@ -18171,7 +18165,7 @@
       <c r="M971" s="3"/>
       <c r="N971" s="3"/>
       <c r="O971" s="3"/>
-      <c r="P971" s="6"/>
+      <c r="P971" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="17.25">
       <c r="A972" s="3"/>
@@ -18189,7 +18183,7 @@
       <c r="M972" s="3"/>
       <c r="N972" s="3"/>
       <c r="O972" s="3"/>
-      <c r="P972" s="6"/>
+      <c r="P972" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="17.25">
       <c r="A973" s="3"/>
@@ -18207,7 +18201,7 @@
       <c r="M973" s="3"/>
       <c r="N973" s="3"/>
       <c r="O973" s="3"/>
-      <c r="P973" s="6"/>
+      <c r="P973" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="17.25">
       <c r="A974" s="3"/>
@@ -18225,7 +18219,7 @@
       <c r="M974" s="3"/>
       <c r="N974" s="3"/>
       <c r="O974" s="3"/>
-      <c r="P974" s="6"/>
+      <c r="P974" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="17.25">
       <c r="A975" s="3"/>
@@ -18243,7 +18237,7 @@
       <c r="M975" s="3"/>
       <c r="N975" s="3"/>
       <c r="O975" s="3"/>
-      <c r="P975" s="6"/>
+      <c r="P975" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="17.25">
       <c r="A976" s="3"/>
@@ -18261,7 +18255,7 @@
       <c r="M976" s="3"/>
       <c r="N976" s="3"/>
       <c r="O976" s="3"/>
-      <c r="P976" s="6"/>
+      <c r="P976" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="17.25">
       <c r="A977" s="3"/>
@@ -18279,7 +18273,7 @@
       <c r="M977" s="3"/>
       <c r="N977" s="3"/>
       <c r="O977" s="3"/>
-      <c r="P977" s="6"/>
+      <c r="P977" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="17.25">
       <c r="A978" s="3"/>
@@ -18297,7 +18291,7 @@
       <c r="M978" s="3"/>
       <c r="N978" s="3"/>
       <c r="O978" s="3"/>
-      <c r="P978" s="6"/>
+      <c r="P978" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="17.25">
       <c r="A979" s="3"/>
@@ -18315,7 +18309,7 @@
       <c r="M979" s="3"/>
       <c r="N979" s="3"/>
       <c r="O979" s="3"/>
-      <c r="P979" s="6"/>
+      <c r="P979" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="17.25">
       <c r="A980" s="3"/>
@@ -18333,7 +18327,7 @@
       <c r="M980" s="3"/>
       <c r="N980" s="3"/>
       <c r="O980" s="3"/>
-      <c r="P980" s="6"/>
+      <c r="P980" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="17.25">
       <c r="A981" s="3"/>
@@ -18351,7 +18345,7 @@
       <c r="M981" s="3"/>
       <c r="N981" s="3"/>
       <c r="O981" s="3"/>
-      <c r="P981" s="6"/>
+      <c r="P981" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="17.25">
       <c r="A982" s="3"/>
@@ -18369,7 +18363,7 @@
       <c r="M982" s="3"/>
       <c r="N982" s="3"/>
       <c r="O982" s="3"/>
-      <c r="P982" s="6"/>
+      <c r="P982" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="17.25">
       <c r="A983" s="3"/>
@@ -18387,7 +18381,7 @@
       <c r="M983" s="3"/>
       <c r="N983" s="3"/>
       <c r="O983" s="3"/>
-      <c r="P983" s="6"/>
+      <c r="P983" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="17.25">
       <c r="A984" s="3"/>
@@ -18405,7 +18399,7 @@
       <c r="M984" s="3"/>
       <c r="N984" s="3"/>
       <c r="O984" s="3"/>
-      <c r="P984" s="6"/>
+      <c r="P984" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="17.25">
       <c r="A985" s="3"/>
@@ -18423,7 +18417,7 @@
       <c r="M985" s="3"/>
       <c r="N985" s="3"/>
       <c r="O985" s="3"/>
-      <c r="P985" s="6"/>
+      <c r="P985" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="17.25">
       <c r="A986" s="3"/>
@@ -18441,7 +18435,7 @@
       <c r="M986" s="3"/>
       <c r="N986" s="3"/>
       <c r="O986" s="3"/>
-      <c r="P986" s="6"/>
+      <c r="P986" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="17.25">
       <c r="A987" s="3"/>
@@ -18459,7 +18453,7 @@
       <c r="M987" s="3"/>
       <c r="N987" s="3"/>
       <c r="O987" s="3"/>
-      <c r="P987" s="6"/>
+      <c r="P987" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="17.25">
       <c r="A988" s="3"/>
@@ -18477,7 +18471,7 @@
       <c r="M988" s="3"/>
       <c r="N988" s="3"/>
       <c r="O988" s="3"/>
-      <c r="P988" s="6"/>
+      <c r="P988" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="17.25">
       <c r="A989" s="3"/>
@@ -18495,7 +18489,7 @@
       <c r="M989" s="3"/>
       <c r="N989" s="3"/>
       <c r="O989" s="3"/>
-      <c r="P989" s="6"/>
+      <c r="P989" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="17.25">
       <c r="A990" s="3"/>
@@ -18513,7 +18507,7 @@
       <c r="M990" s="3"/>
       <c r="N990" s="3"/>
       <c r="O990" s="3"/>
-      <c r="P990" s="6"/>
+      <c r="P990" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="17.25">
       <c r="A991" s="3"/>
@@ -18531,7 +18525,7 @@
       <c r="M991" s="3"/>
       <c r="N991" s="3"/>
       <c r="O991" s="3"/>
-      <c r="P991" s="6"/>
+      <c r="P991" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="17.25">
       <c r="A992" s="3"/>
@@ -18549,7 +18543,7 @@
       <c r="M992" s="3"/>
       <c r="N992" s="3"/>
       <c r="O992" s="3"/>
-      <c r="P992" s="6"/>
+      <c r="P992" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="17.25">
       <c r="A993" s="3"/>
@@ -18567,7 +18561,7 @@
       <c r="M993" s="3"/>
       <c r="N993" s="3"/>
       <c r="O993" s="3"/>
-      <c r="P993" s="6"/>
+      <c r="P993" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="17.25">
       <c r="A994" s="3"/>
@@ -18585,7 +18579,7 @@
       <c r="M994" s="3"/>
       <c r="N994" s="3"/>
       <c r="O994" s="3"/>
-      <c r="P994" s="6"/>
+      <c r="P994" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="17.25">
       <c r="A995" s="3"/>
@@ -18603,7 +18597,7 @@
       <c r="M995" s="3"/>
       <c r="N995" s="3"/>
       <c r="O995" s="3"/>
-      <c r="P995" s="6"/>
+      <c r="P995" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="17.25">
       <c r="A996" s="3"/>
@@ -18621,7 +18615,7 @@
       <c r="M996" s="3"/>
       <c r="N996" s="3"/>
       <c r="O996" s="3"/>
-      <c r="P996" s="6"/>
+      <c r="P996" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="17.25">
       <c r="A997" s="3"/>
@@ -18639,7 +18633,7 @@
       <c r="M997" s="3"/>
       <c r="N997" s="3"/>
       <c r="O997" s="3"/>
-      <c r="P997" s="6"/>
+      <c r="P997" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="17.25">
       <c r="A998" s="3"/>
@@ -18657,7 +18651,7 @@
       <c r="M998" s="3"/>
       <c r="N998" s="3"/>
       <c r="O998" s="3"/>
-      <c r="P998" s="6"/>
+      <c r="P998" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="17.25">
       <c r="A999" s="3"/>
@@ -18675,7 +18669,7 @@
       <c r="M999" s="3"/>
       <c r="N999" s="3"/>
       <c r="O999" s="3"/>
-      <c r="P999" s="6"/>
+      <c r="P999" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="17.25">
       <c r="A1000" s="3"/>
@@ -18693,7 +18687,7 @@
       <c r="M1000" s="3"/>
       <c r="N1000" s="3"/>
       <c r="O1000" s="3"/>
-      <c r="P1000" s="6"/>
+      <c r="P1000" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
